--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.058823529411764</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1010.473684210526</v>
+        <v>1019.045454545455</v>
       </c>
       <c r="D2">
-        <v>1005.5</v>
+        <v>998.8181818181819</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.962962962962963</v>
+        <v>2.107142857142857</v>
       </c>
       <c r="C3">
-        <v>738.1428571428571</v>
+        <v>730.9722222222222</v>
       </c>
       <c r="D3">
         <v>1335</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -832,10 +832,10 @@
         <v>1.558333333333333</v>
       </c>
       <c r="C7">
-        <v>967.7166666666667</v>
+        <v>963.5916666666667</v>
       </c>
       <c r="D7">
-        <v>982.6567164179105</v>
+        <v>980.8059701492538</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -846,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.194444444444445</v>
+        <v>2.138888888888889</v>
       </c>
       <c r="C8">
-        <v>670.560975609756</v>
+        <v>670.6666666666666</v>
       </c>
       <c r="D8">
-        <v>889.7777777777778</v>
+        <v>874.1</v>
       </c>
       <c r="E8">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -863,16 +863,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.357142857142857</v>
+        <v>2.3125</v>
       </c>
       <c r="C9">
-        <v>742.5</v>
+        <v>762.1052631578947</v>
       </c>
       <c r="D9">
-        <v>1145</v>
+        <v>1163.333333333333</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -897,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.9375</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="C11">
-        <v>1010.3125</v>
+        <v>945.6666666666666</v>
       </c>
       <c r="D11">
-        <v>1210</v>
+        <v>1278.333333333333</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.461538461538462</v>
+        <v>2.485981308411215</v>
       </c>
       <c r="C14">
-        <v>645.1052631578947</v>
+        <v>629.7913043478261</v>
       </c>
       <c r="D14">
-        <v>1211.842105263158</v>
+        <v>1138.764705882353</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -970,16 +970,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2.068181818181818</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="C16">
-        <v>734.64</v>
+        <v>740.8235294117648</v>
       </c>
       <c r="D16">
-        <v>920.5384615384615</v>
+        <v>917.8</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.571428571428571</v>
+        <v>1.558558558558559</v>
       </c>
       <c r="C18">
-        <v>823.6134453781513</v>
+        <v>821.09243697479</v>
       </c>
       <c r="D18">
-        <v>822</v>
+        <v>811.5599999999999</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.194444444444445</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="C19">
-        <v>954.1282051282051</v>
+        <v>955.25</v>
       </c>
       <c r="D19">
-        <v>1448.9</v>
+        <v>1322.75</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C20">
-        <v>557.3333333333334</v>
+        <v>525.7142857142857</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,13 +1058,13 @@
         <v>2.571428571428572</v>
       </c>
       <c r="C21">
-        <v>1158.125</v>
+        <v>1181.428571428571</v>
       </c>
       <c r="D21">
         <v>1474.4</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1089,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.583333333333333</v>
+        <v>2.7</v>
       </c>
       <c r="C23">
-        <v>895.3846153846154</v>
+        <v>885.4545454545455</v>
       </c>
       <c r="D23">
-        <v>1059.5</v>
+        <v>1063.333333333333</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,16 +1106,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.722222222222222</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="C24">
-        <v>505.3181818181818</v>
+        <v>508.4285714285714</v>
       </c>
       <c r="D24">
         <v>925</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1123,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1.607142857142857</v>
+        <v>1.52054794520548</v>
       </c>
       <c r="C25">
-        <v>639.8666666666667</v>
+        <v>624.7012987012987</v>
       </c>
       <c r="D25">
-        <v>695.1923076923077</v>
+        <v>691.40625</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,16 +1140,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1.893617021276596</v>
+        <v>1.895833333333333</v>
       </c>
       <c r="C26">
-        <v>738.8571428571429</v>
+        <v>741.58</v>
       </c>
       <c r="D26">
-        <v>897.25</v>
+        <v>941</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2.142857142857143</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="C27">
-        <v>584.5</v>
+        <v>572.2222222222222</v>
       </c>
       <c r="D27">
         <v>1050</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1191,7 +1191,7 @@
         <v>2.1</v>
       </c>
       <c r="C29">
-        <v>1050.454545454545</v>
+        <v>1043.636363636364</v>
       </c>
       <c r="D29">
         <v>1098</v>
@@ -1205,16 +1205,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2.1875</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="C30">
-        <v>668.2352941176471</v>
+        <v>663.125</v>
       </c>
       <c r="D30">
         <v>1125</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,16 +1222,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.6</v>
+        <v>1.652173913043478</v>
       </c>
       <c r="C31">
-        <v>799.074074074074</v>
+        <v>810</v>
       </c>
       <c r="D31">
-        <v>912.7857142857143</v>
+        <v>931.5833333333334</v>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.261904761904762</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="C34">
-        <v>821.063829787234</v>
+        <v>821.195652173913</v>
       </c>
       <c r="D34">
-        <v>1270.181818181818</v>
+        <v>1271.2</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="C35">
-        <v>846</v>
+        <v>866.5</v>
       </c>
       <c r="D35">
         <v>1330.25</v>
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.640625</v>
+        <v>1.661290322580645</v>
       </c>
       <c r="C37">
-        <v>611.7042253521126</v>
+        <v>610.2285714285714</v>
       </c>
       <c r="D37">
-        <v>804.4042553191489</v>
+        <v>809.1590909090909</v>
       </c>
       <c r="E37">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1358,13 +1358,13 @@
         <v>2.111111111111111</v>
       </c>
       <c r="C39">
-        <v>1256.111111111111</v>
+        <v>1350.5</v>
       </c>
       <c r="D39">
         <v>1766.666666666667</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1372,16 +1372,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>2.333333333333333</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="C40">
-        <v>972.7777777777778</v>
+        <v>773.6363636363636</v>
       </c>
       <c r="D40">
-        <v>1266.666666666667</v>
+        <v>1000</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1389,16 +1389,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1.978723404255319</v>
+        <v>2.08695652173913</v>
       </c>
       <c r="C41">
-        <v>661.5666666666667</v>
+        <v>672.7413793103449</v>
       </c>
       <c r="D41">
-        <v>1253</v>
+        <v>1272.461538461539</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,16 +1406,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2.244444444444444</v>
+        <v>2.255813953488372</v>
       </c>
       <c r="C42">
-        <v>791.4772727272727</v>
+        <v>795.952380952381</v>
       </c>
       <c r="D42">
         <v>969.0434782608696</v>
       </c>
       <c r="E42">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.821428571428571</v>
+        <v>1.855421686746988</v>
       </c>
       <c r="C43">
-        <v>671.1411764705882</v>
+        <v>675.0357142857143</v>
       </c>
       <c r="D43">
         <v>1014.848484848485</v>
       </c>
       <c r="E43">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1440,16 +1440,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>832.5</v>
+        <v>723.3333333333334</v>
       </c>
       <c r="D44">
-        <v>1437</v>
+        <v>1200</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1474,16 +1474,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2.166666666666667</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="C46">
-        <v>2681.538461538461</v>
+        <v>2855</v>
       </c>
       <c r="D46">
         <v>640</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1491,16 +1491,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.0625</v>
+        <v>2.053191489361702</v>
       </c>
       <c r="C47">
-        <v>1063.422680412371</v>
+        <v>1073.136842105263</v>
       </c>
       <c r="D47">
-        <v>1050.537313432836</v>
+        <v>1048.867647058823</v>
       </c>
       <c r="E47">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>2.571428571428572</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C49">
-        <v>1168.444444444444</v>
+        <v>1220.75</v>
       </c>
       <c r="D49">
-        <v>1550</v>
+        <v>1637.5</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2.045454545454545</v>
+        <v>2.041666666666667</v>
       </c>
       <c r="C50">
-        <v>755</v>
+        <v>744.6</v>
       </c>
       <c r="D50">
-        <v>1111.666666666667</v>
+        <v>1127.5</v>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2.033898305084746</v>
+        <v>2.070175438596491</v>
       </c>
       <c r="C51">
-        <v>664.375</v>
+        <v>666.3461538461538</v>
       </c>
       <c r="D51">
         <v>1030</v>
       </c>
       <c r="E51">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1567,16 +1567,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1.533333333333333</v>
+        <v>1.602150537634409</v>
       </c>
       <c r="C52">
-        <v>632.7802197802198</v>
+        <v>645.6170212765958</v>
       </c>
       <c r="D52">
-        <v>733.5</v>
+        <v>800.8125</v>
       </c>
       <c r="E52">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1584,16 +1584,13 @@
         <v>55</v>
       </c>
       <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>583.6666666666666</v>
+      </c>
+      <c r="E53">
         <v>3</v>
-      </c>
-      <c r="C53">
-        <v>625.25</v>
-      </c>
-      <c r="D53">
-        <v>450</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,16 +1598,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1.870967741935484</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="C54">
-        <v>1122.625</v>
+        <v>1146.633333333333</v>
       </c>
       <c r="D54">
         <v>1172.642857142857</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,16 +1615,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>1.967741935483871</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="C55">
-        <v>646.5135135135135</v>
+        <v>653.2222222222222</v>
       </c>
       <c r="D55">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E55">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.010869565217391</v>
+        <v>2.021739130434783</v>
       </c>
       <c r="C56">
-        <v>1141.975</v>
+        <v>1134.475</v>
       </c>
       <c r="D56">
-        <v>1299.354838709677</v>
+        <v>1240.2</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1652,13 +1649,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.864864864864865</v>
+        <v>1.854545454545454</v>
       </c>
       <c r="C57">
-        <v>806.0916666666667</v>
+        <v>804.4</v>
       </c>
       <c r="D57">
-        <v>1179.565217391304</v>
+        <v>1089.181818181818</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -1669,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.920353982300885</v>
+        <v>1.911504424778761</v>
       </c>
       <c r="C58">
-        <v>1417.241666666667</v>
+        <v>1435.316666666667</v>
       </c>
       <c r="D58">
-        <v>1104.882352941177</v>
+        <v>1098.686567164179</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1686,16 +1683,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.372549019607843</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="C59">
-        <v>804.5384615384615</v>
+        <v>809.9591836734694</v>
       </c>
       <c r="D59">
-        <v>1389.9</v>
+        <v>1322.111111111111</v>
       </c>
       <c r="E59">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,13 +1700,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1.973214285714286</v>
+        <v>1.982142857142857</v>
       </c>
       <c r="C60">
-        <v>1274.453781512605</v>
+        <v>1290.924369747899</v>
       </c>
       <c r="D60">
-        <v>964.25</v>
+        <v>952.3529411764706</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1720,13 +1717,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.8125</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="C61">
-        <v>1121.302521008403</v>
+        <v>1133.058333333333</v>
       </c>
       <c r="D61">
-        <v>984.1</v>
+        <v>1059.375</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1737,16 +1734,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.122448979591837</v>
+        <v>2.125</v>
       </c>
       <c r="C62">
-        <v>880.9830508474577</v>
+        <v>887.3684210526316</v>
       </c>
       <c r="D62">
-        <v>1250.8125</v>
+        <v>1275.533333333333</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.897435897435897</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="C63">
-        <v>1075.083333333333</v>
+        <v>1086.975</v>
       </c>
       <c r="D63">
-        <v>1309.214285714286</v>
+        <v>1411.530612244898</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1771,13 +1768,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1.743362831858407</v>
+        <v>1.725663716814159</v>
       </c>
       <c r="C64">
-        <v>847.075</v>
+        <v>850.9416666666667</v>
       </c>
       <c r="D64">
-        <v>758.0555555555555</v>
+        <v>756.697247706422</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1788,13 +1785,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.541284403669725</v>
+        <v>2.532110091743119</v>
       </c>
       <c r="C65">
-        <v>944.9495798319327</v>
+        <v>940.7563025210084</v>
       </c>
       <c r="D65">
-        <v>1170</v>
+        <v>1192.066666666667</v>
       </c>
       <c r="E65">
         <v>120</v>
@@ -1805,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.15929203539823</v>
+        <v>2.194690265486726</v>
       </c>
       <c r="C66">
-        <v>1035.241666666667</v>
+        <v>1023.491666666667</v>
       </c>
       <c r="D66">
-        <v>1362.511627906977</v>
+        <v>1355.782608695652</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1822,13 +1819,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.247524752475248</v>
+        <v>2.180851063829787</v>
       </c>
       <c r="C67">
-        <v>1036.75</v>
+        <v>1062.141666666667</v>
       </c>
       <c r="D67">
-        <v>932.0941176470589</v>
+        <v>914.934065934066</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1839,13 +1836,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.924731182795699</v>
+        <v>2.915789473684211</v>
       </c>
       <c r="C68">
-        <v>1646.016666666667</v>
+        <v>1532.283333333333</v>
       </c>
       <c r="D68">
-        <v>1148.363636363636</v>
+        <v>1306.571428571429</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1856,16 +1853,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2.353448275862069</v>
+        <v>2.339285714285714</v>
       </c>
       <c r="C69">
-        <v>1026.991525423729</v>
+        <v>1025.852173913044</v>
       </c>
       <c r="D69">
-        <v>1187.72</v>
+        <v>1184.666666666667</v>
       </c>
       <c r="E69">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1873,16 +1870,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2.054794520547945</v>
+        <v>2.067567567567568</v>
       </c>
       <c r="C70">
-        <v>1041.578947368421</v>
+        <v>1035.320512820513</v>
       </c>
       <c r="D70">
-        <v>1184.758620689655</v>
+        <v>1185.266666666667</v>
       </c>
       <c r="E70">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1890,13 +1887,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.888888888888889</v>
+        <v>1.906542056074766</v>
       </c>
       <c r="C71">
-        <v>937.90756302521</v>
+        <v>938.2016806722689</v>
       </c>
       <c r="D71">
-        <v>1180.029411764706</v>
+        <v>1174.483870967742</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1907,13 +1904,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.646017699115044</v>
+        <v>1.464285714285714</v>
       </c>
       <c r="C72">
-        <v>1218.175</v>
+        <v>1106.75</v>
       </c>
       <c r="D72">
-        <v>896.2205882352941</v>
+        <v>813.0547945205479</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1924,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.596330275229358</v>
+        <v>1.577981651376147</v>
       </c>
       <c r="C73">
-        <v>865.975</v>
+        <v>869.4083333333333</v>
       </c>
       <c r="D73">
-        <v>781.8780487804878</v>
+        <v>787.0714285714286</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1941,13 +1938,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.821782178217822</v>
+        <v>1.85</v>
       </c>
       <c r="C74">
-        <v>1507.126050420168</v>
+        <v>1519.453781512605</v>
       </c>
       <c r="D74">
-        <v>1149.309278350516</v>
+        <v>1152.053191489362</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1958,16 +1955,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.210526315789474</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C75">
-        <v>1068.947368421053</v>
+        <v>1083.888888888889</v>
       </c>
       <c r="D75">
-        <v>1377.277777777778</v>
+        <v>1371.722222222222</v>
       </c>
       <c r="E75">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,13 +1972,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.785714285714286</v>
+        <v>1.823008849557522</v>
       </c>
       <c r="C76">
-        <v>1003.672268907563</v>
+        <v>1005.941176470588</v>
       </c>
       <c r="D76">
-        <v>1156.673076923077</v>
+        <v>1183.738461538461</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1992,13 +1989,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.552380952380952</v>
+        <v>1.485436893203884</v>
       </c>
       <c r="C77">
-        <v>1511.125</v>
+        <v>1437.766666666667</v>
       </c>
       <c r="D77">
-        <v>860.0886075949367</v>
+        <v>804.5714285714286</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2009,16 +2006,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>2.076923076923077</v>
+        <v>1.875</v>
       </c>
       <c r="C78">
-        <v>816.1153846153846</v>
+        <v>781.625</v>
       </c>
       <c r="D78">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,13 +2023,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.235849056603774</v>
+        <v>2.287037037037037</v>
       </c>
       <c r="C79">
-        <v>1325.291666666667</v>
+        <v>1355.883333333333</v>
       </c>
       <c r="D79">
-        <v>788.6666666666666</v>
+        <v>889.4571428571429</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2060,13 +2057,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.875</v>
+        <v>1.900900900900901</v>
       </c>
       <c r="C81">
-        <v>1257.512605042017</v>
+        <v>1250.915966386555</v>
       </c>
       <c r="D81">
-        <v>1462.086956521739</v>
+        <v>1429.846153846154</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2077,16 +2074,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>1.813333333333333</v>
+        <v>1.794520547945206</v>
       </c>
       <c r="C82">
-        <v>786.0875</v>
+        <v>793.1558441558442</v>
       </c>
       <c r="D82">
-        <v>939.8611111111111</v>
+        <v>930.0555555555555</v>
       </c>
       <c r="E82">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,13 +2091,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.695652173913043</v>
+        <v>1.747826086956522</v>
       </c>
       <c r="C83">
-        <v>1105.35</v>
+        <v>1079.458333333333</v>
       </c>
       <c r="D83">
-        <v>902.8125</v>
+        <v>924.3166666666667</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2111,16 +2108,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.584615384615385</v>
+        <v>1.59375</v>
       </c>
       <c r="C84">
-        <v>1042.95652173913</v>
+        <v>1047.279411764706</v>
       </c>
       <c r="D84">
         <v>1351.222222222222</v>
       </c>
       <c r="E84">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,13 +2125,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.63963963963964</v>
+        <v>1.558558558558559</v>
       </c>
       <c r="C85">
-        <v>1404.275</v>
+        <v>1401.083333333333</v>
       </c>
       <c r="D85">
-        <v>997.975</v>
+        <v>967.8928571428571</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2145,16 +2142,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.655172413793103</v>
+        <v>1.662921348314607</v>
       </c>
       <c r="C86">
-        <v>905.659793814433</v>
+        <v>907.9191919191919</v>
       </c>
       <c r="D86">
-        <v>1151.974358974359</v>
+        <v>1151.925</v>
       </c>
       <c r="E86">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,16 +2159,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.11864406779661</v>
+        <v>2.063492063492064</v>
       </c>
       <c r="C87">
-        <v>926.8648648648649</v>
+        <v>913.8947368421053</v>
       </c>
       <c r="D87">
         <v>1222.5</v>
       </c>
       <c r="E87">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,16 +2176,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.087719298245614</v>
+        <v>2.070175438596491</v>
       </c>
       <c r="C88">
-        <v>808.344262295082</v>
+        <v>817.1967213114754</v>
       </c>
       <c r="D88">
-        <v>999.8888888888889</v>
+        <v>1029.294117647059</v>
       </c>
       <c r="E88">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2196,16 +2193,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.595744680851064</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="C89">
-        <v>822.96875</v>
+        <v>822.2786885245902</v>
       </c>
       <c r="D89">
-        <v>1065</v>
+        <v>1077.368421052632</v>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2213,13 +2210,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.456140350877193</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="C90">
-        <v>970.3166666666667</v>
+        <v>961.4333333333333</v>
       </c>
       <c r="D90">
-        <v>856.1898734177215</v>
+        <v>830.4197530864197</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2230,16 +2227,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>3.146341463414634</v>
+        <v>3.108695652173913</v>
       </c>
       <c r="C91">
-        <v>2221.627906976744</v>
+        <v>2151.666666666667</v>
       </c>
       <c r="D91">
-        <v>2089.857142857143</v>
+        <v>1899.64705882353</v>
       </c>
       <c r="E91">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2247,16 +2244,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.315789473684211</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="C92">
-        <v>875.95</v>
+        <v>895.7894736842105</v>
       </c>
       <c r="D92">
         <v>1682.5</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2267,10 +2264,10 @@
         <v>1.466666666666667</v>
       </c>
       <c r="C93">
-        <v>1251.333333333333</v>
+        <v>1245.583333333333</v>
       </c>
       <c r="D93">
-        <v>871.9217391304347</v>
+        <v>870.0521739130435</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2281,16 +2278,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>2.111111111111111</v>
+        <v>2.176470588235294</v>
       </c>
       <c r="C94">
-        <v>1188.75</v>
+        <v>1206.578947368421</v>
       </c>
       <c r="D94">
-        <v>1742.555555555556</v>
+        <v>1860.375</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2298,13 +2295,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.147826086956522</v>
+        <v>3.191304347826087</v>
       </c>
       <c r="C95">
-        <v>1797.683333333333</v>
+        <v>1805.108333333333</v>
       </c>
       <c r="D95">
-        <v>1148.277777777778</v>
+        <v>1341.380952380952</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2394,16 +2391,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>1.925925925925926</v>
+        <v>1.961538461538461</v>
       </c>
       <c r="C101">
-        <v>1245.166666666667</v>
+        <v>1264.827586206897</v>
       </c>
       <c r="D101">
         <v>1244.133333333333</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2411,16 +2408,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.210526315789474</v>
+        <v>1.23728813559322</v>
       </c>
       <c r="C102">
-        <v>747.6666666666666</v>
+        <v>756.5333333333333</v>
       </c>
       <c r="D102">
-        <v>788.8333333333334</v>
+        <v>784</v>
       </c>
       <c r="E102">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2428,16 +2425,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="C103">
-        <v>730.8333333333334</v>
+        <v>735</v>
       </c>
       <c r="D103">
         <v>1377</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2448,7 +2445,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C104">
-        <v>1212.5</v>
+        <v>1187.5</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -2459,16 +2456,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="C105">
-        <v>670.15625</v>
+        <v>675.6060606060606</v>
       </c>
       <c r="D105">
         <v>883.3333333333334</v>
       </c>
       <c r="E105">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2524,16 +2521,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>1.810810810810811</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="C109">
-        <v>800.0263157894736</v>
+        <v>795.275</v>
       </c>
       <c r="D109">
         <v>895.3</v>
       </c>
       <c r="E109">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2541,16 +2538,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1.685714285714286</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="C110">
-        <v>1489.166666666667</v>
+        <v>1508.857142857143</v>
       </c>
       <c r="D110">
-        <v>979.0333333333333</v>
+        <v>991.2857142857143</v>
       </c>
       <c r="E110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2558,16 +2555,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>2.214285714285714</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="C111">
-        <v>757.6</v>
+        <v>762.0714285714286</v>
       </c>
       <c r="D111">
         <v>1000</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2575,16 +2572,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.14</v>
+        <v>2.204081632653061</v>
       </c>
       <c r="C112">
-        <v>782.9622641509434</v>
+        <v>785.6923076923077</v>
       </c>
       <c r="D112">
-        <v>973.3333333333334</v>
+        <v>967.2</v>
       </c>
       <c r="E112">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2606,13 +2603,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>2.042553191489362</v>
+        <v>2.063829787234043</v>
       </c>
       <c r="C114">
-        <v>1578.36</v>
+        <v>1597.88</v>
       </c>
       <c r="D114">
-        <v>1044.513513513514</v>
+        <v>1049.194444444444</v>
       </c>
       <c r="E114">
         <v>50</v>
@@ -2623,16 +2620,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>2.428571428571428</v>
+        <v>2.5</v>
       </c>
       <c r="C115">
-        <v>801.1111111111111</v>
+        <v>786</v>
       </c>
       <c r="D115">
         <v>1000</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.107142857142857</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="C3">
-        <v>730.9722222222222</v>
+        <v>727.4324324324324</v>
       </c>
       <c r="D3">
         <v>1335</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.558333333333333</v>
+        <v>1.541666666666667</v>
       </c>
       <c r="C7">
-        <v>963.5916666666667</v>
+        <v>958.8</v>
       </c>
       <c r="D7">
-        <v>980.8059701492538</v>
+        <v>974.1176470588235</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -863,16 +863,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.3125</v>
+        <v>2.375</v>
       </c>
       <c r="C9">
-        <v>762.1052631578947</v>
+        <v>755.5555555555555</v>
       </c>
       <c r="D9">
-        <v>1163.333333333333</v>
+        <v>1140</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -897,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.866666666666667</v>
+        <v>1.875</v>
       </c>
       <c r="C11">
-        <v>945.6666666666666</v>
+        <v>936.25</v>
       </c>
       <c r="D11">
         <v>1278.333333333333</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.485981308411215</v>
+        <v>2.537735849056604</v>
       </c>
       <c r="C14">
-        <v>629.7913043478261</v>
+        <v>652.9912280701755</v>
       </c>
       <c r="D14">
-        <v>1138.764705882353</v>
+        <v>1113.941176470588</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.222222222222222</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="C15">
-        <v>833.3333333333334</v>
+        <v>842.8571428571429</v>
       </c>
       <c r="D15">
         <v>1625</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="C16">
-        <v>740.8235294117648</v>
+        <v>739.843137254902</v>
       </c>
       <c r="D16">
         <v>917.8</v>
@@ -987,16 +987,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>983.3333333333334</v>
+        <v>1437.5</v>
       </c>
       <c r="D17">
         <v>1500</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.558558558558559</v>
+        <v>1.536363636363636</v>
       </c>
       <c r="C18">
-        <v>821.09243697479</v>
+        <v>819.1949152542373</v>
       </c>
       <c r="D18">
-        <v>811.5599999999999</v>
+        <v>827.4150943396227</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.137931034482758</v>
+        <v>2.107142857142857</v>
       </c>
       <c r="C19">
-        <v>955.25</v>
+        <v>947.3548387096774</v>
       </c>
       <c r="D19">
         <v>1322.75</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.571428571428571</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C20">
-        <v>525.7142857142857</v>
+        <v>520</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,16 +1055,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2.571428571428572</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C21">
-        <v>1181.428571428571</v>
+        <v>1203.333333333333</v>
       </c>
       <c r="D21">
         <v>1474.4</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1089,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.7</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="C23">
-        <v>885.4545454545455</v>
+        <v>909</v>
       </c>
       <c r="D23">
         <v>1063.333333333333</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,13 +1109,13 @@
         <v>1.823529411764706</v>
       </c>
       <c r="C24">
-        <v>508.4285714285714</v>
+        <v>514.1</v>
       </c>
       <c r="D24">
         <v>925</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1123,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1.52054794520548</v>
+        <v>1.5</v>
       </c>
       <c r="C25">
-        <v>624.7012987012987</v>
+        <v>622</v>
       </c>
       <c r="D25">
         <v>691.40625</v>
       </c>
       <c r="E25">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,16 +1140,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1.895833333333333</v>
+        <v>1.911111111111111</v>
       </c>
       <c r="C26">
-        <v>741.58</v>
+        <v>740.936170212766</v>
       </c>
       <c r="D26">
-        <v>941</v>
+        <v>979.6666666666666</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1208,7 +1208,7 @@
         <v>2.133333333333333</v>
       </c>
       <c r="C30">
-        <v>663.125</v>
+        <v>660</v>
       </c>
       <c r="D30">
         <v>1125</v>
@@ -1222,16 +1222,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.652173913043478</v>
+        <v>1.9375</v>
       </c>
       <c r="C31">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="D31">
-        <v>931.5833333333334</v>
+        <v>1025.571428571429</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.285714285714286</v>
+        <v>2.3</v>
       </c>
       <c r="C34">
-        <v>821.195652173913</v>
+        <v>824.5454545454545</v>
       </c>
       <c r="D34">
-        <v>1271.2</v>
+        <v>1269.473684210526</v>
       </c>
       <c r="E34">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1290,16 +1290,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>2.2</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="C35">
-        <v>866.5</v>
+        <v>842.2727272727273</v>
       </c>
       <c r="D35">
-        <v>1330.25</v>
+        <v>1184.2</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.661290322580645</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="C37">
-        <v>610.2285714285714</v>
+        <v>610.8115942028985</v>
       </c>
       <c r="D37">
-        <v>809.1590909090909</v>
+        <v>810.6</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,13 +1338,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1.714285714285714</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C38">
-        <v>1099.0625</v>
+        <v>1027.1875</v>
       </c>
       <c r="D38">
-        <v>1032.857142857143</v>
+        <v>1005</v>
       </c>
       <c r="E38">
         <v>16</v>
@@ -1389,16 +1389,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.08695652173913</v>
+        <v>2.065217391304348</v>
       </c>
       <c r="C41">
-        <v>672.7413793103449</v>
+        <v>667.8070175438596</v>
       </c>
       <c r="D41">
-        <v>1272.461538461539</v>
+        <v>1253</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,13 +1406,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2.255813953488372</v>
+        <v>2.279069767441861</v>
       </c>
       <c r="C42">
-        <v>795.952380952381</v>
+        <v>797.1190476190476</v>
       </c>
       <c r="D42">
-        <v>969.0434782608696</v>
+        <v>968.3181818181819</v>
       </c>
       <c r="E42">
         <v>43</v>
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.855421686746988</v>
+        <v>1.865853658536585</v>
       </c>
       <c r="C43">
-        <v>675.0357142857143</v>
+        <v>679.4939759036145</v>
       </c>
       <c r="D43">
-        <v>1014.848484848485</v>
+        <v>1015.806451612903</v>
       </c>
       <c r="E43">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1457,16 +1457,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>1.8</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C45">
-        <v>718.4375</v>
+        <v>735</v>
       </c>
       <c r="D45">
-        <v>898</v>
+        <v>903.75</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1491,16 +1491,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.053191489361702</v>
+        <v>2.051546391752577</v>
       </c>
       <c r="C47">
-        <v>1073.136842105263</v>
+        <v>1078.724489795918</v>
       </c>
       <c r="D47">
-        <v>1048.867647058823</v>
+        <v>1045.647887323944</v>
       </c>
       <c r="E47">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1519,13 +1519,13 @@
         <v>2.666666666666667</v>
       </c>
       <c r="C49">
-        <v>1220.75</v>
+        <v>1281.428571428571</v>
       </c>
       <c r="D49">
         <v>1637.5</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,10 +1533,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2.041666666666667</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>744.6</v>
+        <v>743.6</v>
       </c>
       <c r="D50">
         <v>1127.5</v>
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2.070175438596491</v>
+        <v>2.072727272727273</v>
       </c>
       <c r="C51">
-        <v>666.3461538461538</v>
+        <v>668.0921052631579</v>
       </c>
       <c r="D51">
         <v>1030</v>
       </c>
       <c r="E51">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1567,16 +1567,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1.602150537634409</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="C52">
-        <v>645.6170212765958</v>
+        <v>641.15625</v>
       </c>
       <c r="D52">
         <v>800.8125</v>
       </c>
       <c r="E52">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1584,13 +1584,13 @@
         <v>55</v>
       </c>
       <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>671.5</v>
+      </c>
+      <c r="E53">
         <v>4</v>
-      </c>
-      <c r="C53">
-        <v>583.6666666666666</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1.866666666666667</v>
+        <v>1.903225806451613</v>
       </c>
       <c r="C54">
-        <v>1146.633333333333</v>
+        <v>1148.838709677419</v>
       </c>
       <c r="D54">
         <v>1172.642857142857</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>2.066666666666667</v>
+        <v>2.064516129032258</v>
       </c>
       <c r="C55">
-        <v>653.2222222222222</v>
+        <v>653.1351351351351</v>
       </c>
       <c r="D55">
         <v>1100</v>
       </c>
       <c r="E55">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1632,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.021739130434783</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="C56">
-        <v>1134.475</v>
+        <v>1113.95</v>
       </c>
       <c r="D56">
-        <v>1240.2</v>
+        <v>1215.129032258065</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1649,13 +1649,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.854545454545454</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="C57">
-        <v>804.4</v>
+        <v>806.775</v>
       </c>
       <c r="D57">
-        <v>1089.181818181818</v>
+        <v>1043.416666666667</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -1666,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.911504424778761</v>
+        <v>1.902654867256637</v>
       </c>
       <c r="C58">
-        <v>1435.316666666667</v>
+        <v>1462.95</v>
       </c>
       <c r="D58">
-        <v>1098.686567164179</v>
+        <v>1074.640625</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1683,16 +1683,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.416666666666667</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="C59">
-        <v>809.9591836734694</v>
+        <v>826.6799999999999</v>
       </c>
       <c r="D59">
         <v>1322.111111111111</v>
       </c>
       <c r="E59">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1700,13 +1700,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1.982142857142857</v>
+        <v>1.990990990990991</v>
       </c>
       <c r="C60">
-        <v>1290.924369747899</v>
+        <v>1290.571428571429</v>
       </c>
       <c r="D60">
-        <v>952.3529411764706</v>
+        <v>949.6666666666666</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1717,13 +1717,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.956521739130435</v>
+        <v>1.93859649122807</v>
       </c>
       <c r="C61">
-        <v>1133.058333333333</v>
+        <v>1205.579831932773</v>
       </c>
       <c r="D61">
-        <v>1059.375</v>
+        <v>1094.558823529412</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1734,16 +1734,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.125</v>
+        <v>2.137254901960784</v>
       </c>
       <c r="C62">
-        <v>887.3684210526316</v>
+        <v>898.7118644067797</v>
       </c>
       <c r="D62">
-        <v>1275.533333333333</v>
+        <v>1339.0625</v>
       </c>
       <c r="E62">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.956521739130435</v>
+        <v>1.957264957264957</v>
       </c>
       <c r="C63">
-        <v>1086.975</v>
+        <v>1048.433333333333</v>
       </c>
       <c r="D63">
-        <v>1411.530612244898</v>
+        <v>1353.367346938775</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1768,13 +1768,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1.725663716814159</v>
+        <v>1.752212389380531</v>
       </c>
       <c r="C64">
-        <v>850.9416666666667</v>
+        <v>853.2333333333333</v>
       </c>
       <c r="D64">
-        <v>756.697247706422</v>
+        <v>756.2962962962963</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1785,13 +1785,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.532110091743119</v>
+        <v>2.514285714285714</v>
       </c>
       <c r="C65">
-        <v>940.7563025210084</v>
+        <v>935.563025210084</v>
       </c>
       <c r="D65">
-        <v>1192.066666666667</v>
+        <v>1204.620689655172</v>
       </c>
       <c r="E65">
         <v>120</v>
@@ -1802,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.194690265486726</v>
+        <v>2.165137614678899</v>
       </c>
       <c r="C66">
-        <v>1023.491666666667</v>
+        <v>996.0416666666666</v>
       </c>
       <c r="D66">
-        <v>1355.782608695652</v>
+        <v>1303.65306122449</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1819,13 +1819,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.180851063829787</v>
+        <v>2.231578947368421</v>
       </c>
       <c r="C67">
-        <v>1062.141666666667</v>
+        <v>1045.633333333333</v>
       </c>
       <c r="D67">
-        <v>914.934065934066</v>
+        <v>913</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1836,13 +1836,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.915789473684211</v>
+        <v>2.813725490196079</v>
       </c>
       <c r="C68">
-        <v>1532.283333333333</v>
+        <v>1726.591666666667</v>
       </c>
       <c r="D68">
-        <v>1306.571428571429</v>
+        <v>1985.157894736842</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1853,16 +1853,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2.339285714285714</v>
+        <v>2.327272727272727</v>
       </c>
       <c r="C69">
-        <v>1025.852173913044</v>
+        <v>1022.169642857143</v>
       </c>
       <c r="D69">
-        <v>1184.666666666667</v>
+        <v>1169.319587628866</v>
       </c>
       <c r="E69">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2.067567567567568</v>
+        <v>2.081081081081081</v>
       </c>
       <c r="C70">
-        <v>1035.320512820513</v>
+        <v>1035.12987012987</v>
       </c>
       <c r="D70">
-        <v>1185.266666666667</v>
+        <v>1203.724137931034</v>
       </c>
       <c r="E70">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1887,13 +1887,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.906542056074766</v>
+        <v>1.878504672897196</v>
       </c>
       <c r="C71">
-        <v>938.2016806722689</v>
+        <v>932.109243697479</v>
       </c>
       <c r="D71">
-        <v>1174.483870967742</v>
+        <v>1173.064516129032</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1904,13 +1904,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.464285714285714</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C72">
-        <v>1106.75</v>
+        <v>1155.302521008403</v>
       </c>
       <c r="D72">
-        <v>813.0547945205479</v>
+        <v>1017.625</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1921,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.577981651376147</v>
+        <v>1.55045871559633</v>
       </c>
       <c r="C73">
-        <v>869.4083333333333</v>
+        <v>863.15</v>
       </c>
       <c r="D73">
-        <v>787.0714285714286</v>
+        <v>787.3372093023256</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1938,13 +1938,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.85</v>
+        <v>1.841584158415842</v>
       </c>
       <c r="C74">
-        <v>1519.453781512605</v>
+        <v>1524.546218487395</v>
       </c>
       <c r="D74">
-        <v>1152.053191489362</v>
+        <v>1147.589473684211</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1955,16 +1955,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.222222222222222</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="C75">
-        <v>1083.888888888889</v>
+        <v>1102.413793103448</v>
       </c>
       <c r="D75">
         <v>1371.722222222222</v>
       </c>
       <c r="E75">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1972,13 +1972,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.823008849557522</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="C76">
-        <v>1005.941176470588</v>
+        <v>1011.260504201681</v>
       </c>
       <c r="D76">
-        <v>1183.738461538461</v>
+        <v>1191.666666666667</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1989,13 +1989,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.485436893203884</v>
+        <v>1.462264150943396</v>
       </c>
       <c r="C77">
-        <v>1437.766666666667</v>
+        <v>1449.266666666667</v>
       </c>
       <c r="D77">
-        <v>804.5714285714286</v>
+        <v>833.8163265306123</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2006,16 +2006,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>1.875</v>
+        <v>1.884615384615385</v>
       </c>
       <c r="C78">
-        <v>781.625</v>
+        <v>819.1538461538462</v>
       </c>
       <c r="D78">
         <v>1124</v>
       </c>
       <c r="E78">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2023,13 +2023,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.287037037037037</v>
+        <v>2.292452830188679</v>
       </c>
       <c r="C79">
-        <v>1355.883333333333</v>
+        <v>1533.216666666667</v>
       </c>
       <c r="D79">
-        <v>889.4571428571429</v>
+        <v>976.6538461538462</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2040,16 +2040,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2.166666666666667</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="C80">
-        <v>906.75</v>
+        <v>914.6363636363636</v>
       </c>
       <c r="D80">
         <v>803.5555555555555</v>
       </c>
       <c r="E80">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2057,13 +2057,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.900900900900901</v>
+        <v>1.881818181818182</v>
       </c>
       <c r="C81">
-        <v>1250.915966386555</v>
+        <v>1256.344537815126</v>
       </c>
       <c r="D81">
-        <v>1429.846153846154</v>
+        <v>1418</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2074,16 +2074,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>1.794520547945206</v>
+        <v>1.773333333333333</v>
       </c>
       <c r="C82">
-        <v>793.1558441558442</v>
+        <v>789.9873417721519</v>
       </c>
       <c r="D82">
-        <v>930.0555555555555</v>
+        <v>919.7027027027027</v>
       </c>
       <c r="E82">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,10 +2094,10 @@
         <v>1.747826086956522</v>
       </c>
       <c r="C83">
-        <v>1079.458333333333</v>
+        <v>1088.275</v>
       </c>
       <c r="D83">
-        <v>924.3166666666667</v>
+        <v>926.7903225806451</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2108,16 +2108,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.59375</v>
+        <v>1.553571428571429</v>
       </c>
       <c r="C84">
-        <v>1047.279411764706</v>
+        <v>1072.683333333333</v>
       </c>
       <c r="D84">
         <v>1351.222222222222</v>
       </c>
       <c r="E84">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2125,13 +2125,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.558558558558559</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="C85">
-        <v>1401.083333333333</v>
+        <v>1410.408333333333</v>
       </c>
       <c r="D85">
-        <v>967.8928571428571</v>
+        <v>892.795918367347</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2142,16 +2142,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.662921348314607</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C86">
-        <v>907.9191919191919</v>
+        <v>909.3200000000001</v>
       </c>
       <c r="D86">
-        <v>1151.925</v>
+        <v>1151.878048780488</v>
       </c>
       <c r="E86">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2159,16 +2159,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.063492063492064</v>
+        <v>2.116666666666667</v>
       </c>
       <c r="C87">
-        <v>913.8947368421053</v>
+        <v>910.6478873239437</v>
       </c>
       <c r="D87">
         <v>1222.5</v>
       </c>
       <c r="E87">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2176,16 +2176,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.070175438596491</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>817.1967213114754</v>
+        <v>812.6551724137931</v>
       </c>
       <c r="D88">
         <v>1029.294117647059</v>
       </c>
       <c r="E88">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2193,16 +2193,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.58695652173913</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C89">
-        <v>822.2786885245902</v>
+        <v>806.9677419354839</v>
       </c>
       <c r="D89">
-        <v>1077.368421052632</v>
+        <v>1079.315789473684</v>
       </c>
       <c r="E89">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,13 +2210,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.447368421052632</v>
+        <v>1.452173913043478</v>
       </c>
       <c r="C90">
-        <v>961.4333333333333</v>
+        <v>941.775</v>
       </c>
       <c r="D90">
-        <v>830.4197530864197</v>
+        <v>814.1375</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2227,10 +2227,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>3.108695652173913</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="C91">
-        <v>2151.666666666667</v>
+        <v>2166.25</v>
       </c>
       <c r="D91">
         <v>1899.64705882353</v>
@@ -2244,16 +2244,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.277777777777778</v>
+        <v>2.235294117647059</v>
       </c>
       <c r="C92">
-        <v>895.7894736842105</v>
+        <v>908.1764705882352</v>
       </c>
       <c r="D92">
-        <v>1682.5</v>
+        <v>1870</v>
       </c>
       <c r="E92">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2261,13 +2261,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.466666666666667</v>
+        <v>1.45</v>
       </c>
       <c r="C93">
-        <v>1245.583333333333</v>
+        <v>1251.625</v>
       </c>
       <c r="D93">
-        <v>870.0521739130435</v>
+        <v>866.9304347826087</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2295,13 +2295,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.191304347826087</v>
+        <v>3.156521739130435</v>
       </c>
       <c r="C95">
-        <v>1805.108333333333</v>
+        <v>1778.566666666667</v>
       </c>
       <c r="D95">
-        <v>1341.380952380952</v>
+        <v>2281.928571428572</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2329,16 +2329,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>1565</v>
+        <v>2000</v>
       </c>
       <c r="D97">
         <v>1700</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2363,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>662.5</v>
+        <v>675</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2391,13 +2391,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>1.961538461538461</v>
+        <v>2.04</v>
       </c>
       <c r="C101">
-        <v>1264.827586206897</v>
+        <v>1225.172413793103</v>
       </c>
       <c r="D101">
-        <v>1244.133333333333</v>
+        <v>1247.285714285714</v>
       </c>
       <c r="E101">
         <v>29</v>
@@ -2408,16 +2408,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.23728813559322</v>
+        <v>1.245614035087719</v>
       </c>
       <c r="C102">
-        <v>756.5333333333333</v>
+        <v>754.2586206896551</v>
       </c>
       <c r="D102">
-        <v>784</v>
+        <v>806.3333333333334</v>
       </c>
       <c r="E102">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2456,16 +2456,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>2.04</v>
+        <v>2.08695652173913</v>
       </c>
       <c r="C105">
-        <v>675.6060606060606</v>
+        <v>677.2903225806451</v>
       </c>
       <c r="D105">
         <v>883.3333333333334</v>
       </c>
       <c r="E105">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2473,16 +2473,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>2.3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C106">
-        <v>717.5</v>
+        <v>730.5555555555555</v>
       </c>
       <c r="D106">
         <v>1200</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2490,16 +2490,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>1.807692307692308</v>
+        <v>1.8</v>
       </c>
       <c r="C107">
-        <v>742.7777777777778</v>
+        <v>742.5</v>
       </c>
       <c r="D107">
-        <v>877.7857142857143</v>
+        <v>879.5384615384615</v>
       </c>
       <c r="E107">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2521,16 +2521,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>1.82051282051282</v>
+        <v>1.804878048780488</v>
       </c>
       <c r="C109">
-        <v>795.275</v>
+        <v>778.2619047619048</v>
       </c>
       <c r="D109">
         <v>895.3</v>
       </c>
       <c r="E109">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2538,16 +2538,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1.764705882352941</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="C110">
-        <v>1508.857142857143</v>
+        <v>1517.027027027027</v>
       </c>
       <c r="D110">
-        <v>991.2857142857143</v>
+        <v>987.7333333333333</v>
       </c>
       <c r="E110">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2572,16 +2572,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.204081632653061</v>
+        <v>2.1875</v>
       </c>
       <c r="C112">
-        <v>785.6923076923077</v>
+        <v>782.9607843137255</v>
       </c>
       <c r="D112">
         <v>967.2</v>
       </c>
       <c r="E112">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2603,16 +2603,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>2.063829787234043</v>
+        <v>2.06</v>
       </c>
       <c r="C114">
-        <v>1597.88</v>
+        <v>1621.962264150943</v>
       </c>
       <c r="D114">
-        <v>1049.194444444444</v>
+        <v>1090.948717948718</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:5">

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.541666666666667</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="C7">
-        <v>958.8</v>
+        <v>957.8833333333333</v>
       </c>
       <c r="D7">
-        <v>974.1176470588235</v>
+        <v>969.5441176470588</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -846,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.138888888888889</v>
+        <v>2.162162162162162</v>
       </c>
       <c r="C8">
-        <v>670.6666666666666</v>
+        <v>671.9302325581396</v>
       </c>
       <c r="D8">
         <v>874.1</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -939,7 +939,7 @@
         <v>2.537735849056604</v>
       </c>
       <c r="C14">
-        <v>652.9912280701755</v>
+        <v>653.1315789473684</v>
       </c>
       <c r="D14">
         <v>1113.941176470588</v>
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.536363636363636</v>
+        <v>1.554545454545454</v>
       </c>
       <c r="C18">
-        <v>819.1949152542373</v>
+        <v>823.728813559322</v>
       </c>
       <c r="D18">
-        <v>827.4150943396227</v>
+        <v>840.9056603773585</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.107142857142857</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="C19">
-        <v>947.3548387096774</v>
+        <v>955.25</v>
       </c>
       <c r="D19">
         <v>1322.75</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.639344262295082</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="C37">
-        <v>610.8115942028985</v>
+        <v>611.0142857142857</v>
       </c>
       <c r="D37">
         <v>810.6</v>
       </c>
       <c r="E37">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1389,16 +1389,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.065217391304348</v>
+        <v>2.085106382978724</v>
       </c>
       <c r="C41">
-        <v>667.8070175438596</v>
+        <v>666.6379310344828</v>
       </c>
       <c r="D41">
         <v>1253</v>
       </c>
       <c r="E41">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1474,16 +1474,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2.090909090909091</v>
+        <v>2.1</v>
       </c>
       <c r="C46">
-        <v>2855</v>
+        <v>3051.363636363636</v>
       </c>
       <c r="D46">
         <v>640</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1632,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.032608695652174</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="C56">
-        <v>1113.95</v>
+        <v>1126.033333333333</v>
       </c>
       <c r="D56">
-        <v>1215.129032258065</v>
+        <v>1236.516129032258</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1666,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.902654867256637</v>
+        <v>1.919642857142857</v>
       </c>
       <c r="C58">
-        <v>1462.95</v>
+        <v>1456.983333333333</v>
       </c>
       <c r="D58">
-        <v>1074.640625</v>
+        <v>1078.725806451613</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1717,13 +1717,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.93859649122807</v>
+        <v>1.929824561403509</v>
       </c>
       <c r="C61">
-        <v>1205.579831932773</v>
+        <v>1205.915966386555</v>
       </c>
       <c r="D61">
-        <v>1094.558823529412</v>
+        <v>1094.210526315789</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1734,16 +1734,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.137254901960784</v>
+        <v>2.150943396226415</v>
       </c>
       <c r="C62">
-        <v>898.7118644067797</v>
+        <v>907.7704918032787</v>
       </c>
       <c r="D62">
         <v>1339.0625</v>
       </c>
       <c r="E62">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.957264957264957</v>
+        <v>1.965811965811966</v>
       </c>
       <c r="C63">
-        <v>1048.433333333333</v>
+        <v>1058.083333333333</v>
       </c>
       <c r="D63">
-        <v>1353.367346938775</v>
+        <v>1329.56862745098</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1785,10 +1785,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.514285714285714</v>
+        <v>2.495238095238095</v>
       </c>
       <c r="C65">
-        <v>935.563025210084</v>
+        <v>928.4201680672269</v>
       </c>
       <c r="D65">
         <v>1204.620689655172</v>
@@ -1802,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.165137614678899</v>
+        <v>2.137614678899082</v>
       </c>
       <c r="C66">
-        <v>996.0416666666666</v>
+        <v>989.5916666666667</v>
       </c>
       <c r="D66">
-        <v>1303.65306122449</v>
+        <v>1290.58</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1819,13 +1819,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.231578947368421</v>
+        <v>2.252631578947368</v>
       </c>
       <c r="C67">
-        <v>1045.633333333333</v>
+        <v>1048.883333333333</v>
       </c>
       <c r="D67">
-        <v>913</v>
+        <v>915.8674698795181</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1836,13 +1836,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.813725490196079</v>
+        <v>2.861386138613861</v>
       </c>
       <c r="C68">
-        <v>1726.591666666667</v>
+        <v>1748.008333333333</v>
       </c>
       <c r="D68">
-        <v>1985.157894736842</v>
+        <v>1961.394736842105</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1904,13 +1904,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.666666666666667</v>
+        <v>1.663636363636364</v>
       </c>
       <c r="C72">
-        <v>1155.302521008403</v>
+        <v>1154.857142857143</v>
       </c>
       <c r="D72">
-        <v>1017.625</v>
+        <v>1016.214285714286</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1924,7 +1924,7 @@
         <v>1.55045871559633</v>
       </c>
       <c r="C73">
-        <v>863.15</v>
+        <v>867.9083333333333</v>
       </c>
       <c r="D73">
         <v>787.3372093023256</v>
@@ -1938,13 +1938,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.841584158415842</v>
+        <v>1.83</v>
       </c>
       <c r="C74">
-        <v>1524.546218487395</v>
+        <v>1512.747899159664</v>
       </c>
       <c r="D74">
-        <v>1147.589473684211</v>
+        <v>1133.410526315789</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1955,16 +1955,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.241379310344827</v>
+        <v>2.258064516129032</v>
       </c>
       <c r="C75">
-        <v>1102.413793103448</v>
+        <v>1100.290322580645</v>
       </c>
       <c r="D75">
         <v>1371.722222222222</v>
       </c>
       <c r="E75">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1989,13 +1989,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.462264150943396</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="C77">
-        <v>1449.266666666667</v>
+        <v>1446.533333333333</v>
       </c>
       <c r="D77">
-        <v>833.8163265306123</v>
+        <v>823.8571428571429</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2026,10 +2026,10 @@
         <v>2.292452830188679</v>
       </c>
       <c r="C79">
-        <v>1533.216666666667</v>
+        <v>1530.208333333333</v>
       </c>
       <c r="D79">
-        <v>976.6538461538462</v>
+        <v>975.2075471698113</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2091,13 +2091,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.747826086956522</v>
+        <v>1.773913043478261</v>
       </c>
       <c r="C83">
-        <v>1088.275</v>
+        <v>1087.258333333333</v>
       </c>
       <c r="D83">
-        <v>926.7903225806451</v>
+        <v>940.65</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2108,16 +2108,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.553571428571429</v>
+        <v>1.56140350877193</v>
       </c>
       <c r="C84">
-        <v>1072.683333333333</v>
+        <v>1073.131147540984</v>
       </c>
       <c r="D84">
-        <v>1351.222222222222</v>
+        <v>1330.1</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,10 +2128,10 @@
         <v>1.545454545454545</v>
       </c>
       <c r="C85">
-        <v>1410.408333333333</v>
+        <v>1407.616666666667</v>
       </c>
       <c r="D85">
-        <v>892.795918367347</v>
+        <v>916.8775510204082</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2159,16 +2159,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.116666666666667</v>
+        <v>2.114754098360656</v>
       </c>
       <c r="C87">
-        <v>910.6478873239437</v>
+        <v>911.0416666666666</v>
       </c>
       <c r="D87">
         <v>1222.5</v>
       </c>
       <c r="E87">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2210,13 +2210,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.452173913043478</v>
+        <v>1.469565217391304</v>
       </c>
       <c r="C90">
-        <v>941.775</v>
+        <v>945.9083333333333</v>
       </c>
       <c r="D90">
-        <v>814.1375</v>
+        <v>833.45</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2261,13 +2261,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.45</v>
+        <v>1.441666666666667</v>
       </c>
       <c r="C93">
-        <v>1251.625</v>
+        <v>1253.208333333333</v>
       </c>
       <c r="D93">
-        <v>866.9304347826087</v>
+        <v>864.4608695652174</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2295,10 +2295,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.156521739130435</v>
+        <v>3.146551724137931</v>
       </c>
       <c r="C95">
-        <v>1778.566666666667</v>
+        <v>1772.366666666667</v>
       </c>
       <c r="D95">
         <v>2281.928571428572</v>
@@ -2572,16 +2572,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.1875</v>
+        <v>2.170212765957447</v>
       </c>
       <c r="C112">
-        <v>782.9607843137255</v>
+        <v>780.58</v>
       </c>
       <c r="D112">
         <v>967.2</v>
       </c>
       <c r="E112">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:5">

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -936,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.537735849056604</v>
+        <v>2.556603773584906</v>
       </c>
       <c r="C14">
-        <v>653.1315789473684</v>
+        <v>651.5877192982456</v>
       </c>
       <c r="D14">
         <v>1113.941176470588</v>
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.865853658536585</v>
+        <v>1.879518072289157</v>
       </c>
       <c r="C43">
-        <v>679.4939759036145</v>
+        <v>681.2261904761905</v>
       </c>
       <c r="D43">
         <v>1015.806451612903</v>
       </c>
       <c r="E43">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1751,10 +1751,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.965811965811966</v>
+        <v>1.974358974358974</v>
       </c>
       <c r="C63">
-        <v>1058.083333333333</v>
+        <v>1063.5</v>
       </c>
       <c r="D63">
         <v>1329.56862745098</v>
@@ -1836,10 +1836,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.861386138613861</v>
+        <v>2.862745098039216</v>
       </c>
       <c r="C68">
-        <v>1748.008333333333</v>
+        <v>1743.633333333333</v>
       </c>
       <c r="D68">
         <v>1961.394736842105</v>
@@ -1856,7 +1856,7 @@
         <v>2.327272727272727</v>
       </c>
       <c r="C69">
-        <v>1022.169642857143</v>
+        <v>1021.589285714286</v>
       </c>
       <c r="D69">
         <v>1169.319587628866</v>
@@ -1887,13 +1887,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.878504672897196</v>
+        <v>1.897196261682243</v>
       </c>
       <c r="C71">
-        <v>932.109243697479</v>
+        <v>935.5546218487395</v>
       </c>
       <c r="D71">
-        <v>1173.064516129032</v>
+        <v>1191.451612903226</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1907,10 +1907,10 @@
         <v>1.663636363636364</v>
       </c>
       <c r="C72">
-        <v>1154.857142857143</v>
+        <v>1153.55462184874</v>
       </c>
       <c r="D72">
-        <v>1016.214285714286</v>
+        <v>1021.672727272727</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1921,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.55045871559633</v>
+        <v>1.563636363636364</v>
       </c>
       <c r="C73">
-        <v>867.9083333333333</v>
+        <v>868.725</v>
       </c>
       <c r="D73">
-        <v>787.3372093023256</v>
+        <v>790.7176470588236</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1938,13 +1938,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.83</v>
+        <v>1.808080808080808</v>
       </c>
       <c r="C74">
-        <v>1512.747899159664</v>
+        <v>1498.453781512605</v>
       </c>
       <c r="D74">
-        <v>1133.410526315789</v>
+        <v>1116.178947368421</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -2023,13 +2023,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.292452830188679</v>
+        <v>2.273584905660377</v>
       </c>
       <c r="C79">
-        <v>1530.208333333333</v>
+        <v>1543.166666666667</v>
       </c>
       <c r="D79">
-        <v>975.2075471698113</v>
+        <v>969.9814814814815</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2094,10 +2094,10 @@
         <v>1.773913043478261</v>
       </c>
       <c r="C83">
-        <v>1087.258333333333</v>
+        <v>1092.175</v>
       </c>
       <c r="D83">
-        <v>940.65</v>
+        <v>939.4666666666667</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2128,7 +2128,7 @@
         <v>1.545454545454545</v>
       </c>
       <c r="C85">
-        <v>1407.616666666667</v>
+        <v>1404.658333333333</v>
       </c>
       <c r="D85">
         <v>916.8775510204082</v>
@@ -2295,10 +2295,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.146551724137931</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="C95">
-        <v>1772.366666666667</v>
+        <v>1745.991666666667</v>
       </c>
       <c r="D95">
         <v>2281.928571428572</v>
@@ -2391,16 +2391,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>1225.172413793103</v>
+        <v>1202.857142857143</v>
       </c>
       <c r="D101">
-        <v>1247.285714285714</v>
+        <v>1227.846153846154</v>
       </c>
       <c r="E101">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:5">

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -753,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1019.045454545455</v>
+        <v>1010.181818181818</v>
       </c>
       <c r="D2">
-        <v>998.8181818181819</v>
+        <v>985.5833333333334</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.137931034482758</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="C3">
-        <v>727.4324324324324</v>
+        <v>746.6176470588235</v>
       </c>
       <c r="D3">
         <v>1335</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -832,10 +832,10 @@
         <v>1.533333333333333</v>
       </c>
       <c r="C7">
-        <v>957.8833333333333</v>
+        <v>969.425</v>
       </c>
       <c r="D7">
-        <v>969.5441176470588</v>
+        <v>974.9558823529412</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -846,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.162162162162162</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="C8">
-        <v>671.9302325581396</v>
+        <v>670.2954545454545</v>
       </c>
       <c r="D8">
         <v>874.1</v>
       </c>
       <c r="E8">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -897,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.875</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="C11">
-        <v>936.25</v>
+        <v>925.2941176470588</v>
       </c>
       <c r="D11">
-        <v>1278.333333333333</v>
+        <v>1178</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -936,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.556603773584906</v>
+        <v>2.537735849056604</v>
       </c>
       <c r="C14">
-        <v>651.5877192982456</v>
+        <v>652.9473684210526</v>
       </c>
       <c r="D14">
         <v>1113.941176470588</v>
@@ -987,16 +987,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C17">
-        <v>1437.5</v>
+        <v>1616.666666666667</v>
       </c>
       <c r="D17">
         <v>1500</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>1.554545454545454</v>
       </c>
       <c r="C18">
-        <v>823.728813559322</v>
+        <v>816.0254237288135</v>
       </c>
       <c r="D18">
-        <v>840.9056603773585</v>
+        <v>845.1632653061224</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.137931034482758</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="C19">
-        <v>955.25</v>
+        <v>916.3333333333334</v>
       </c>
       <c r="D19">
         <v>1322.75</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.3</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="C34">
-        <v>824.5454545454545</v>
+        <v>828.0952380952381</v>
       </c>
       <c r="D34">
         <v>1269.473684210526</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.645161290322581</v>
+        <v>1.65625</v>
       </c>
       <c r="C37">
-        <v>611.0142857142857</v>
+        <v>610.4305555555555</v>
       </c>
       <c r="D37">
-        <v>810.6</v>
+        <v>797.8085106382979</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.879518072289157</v>
+        <v>1.878048780487805</v>
       </c>
       <c r="C43">
-        <v>681.2261904761905</v>
+        <v>683.1084337349398</v>
       </c>
       <c r="D43">
         <v>1015.806451612903</v>
       </c>
       <c r="E43">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1507,8 +1507,17 @@
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>750</v>
+      </c>
+      <c r="D48">
+        <v>576</v>
+      </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1533,16 +1542,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>2.115384615384615</v>
       </c>
       <c r="C50">
-        <v>743.6</v>
+        <v>784.8148148148148</v>
       </c>
       <c r="D50">
         <v>1127.5</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1598,16 +1607,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1.903225806451613</v>
+        <v>1.90625</v>
       </c>
       <c r="C54">
-        <v>1148.838709677419</v>
+        <v>1135.75</v>
       </c>
       <c r="D54">
         <v>1172.642857142857</v>
       </c>
       <c r="E54">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1632,13 +1641,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.043478260869565</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="C56">
-        <v>1126.033333333333</v>
+        <v>1117.241666666667</v>
       </c>
       <c r="D56">
-        <v>1236.516129032258</v>
+        <v>1221.433333333333</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1649,10 +1658,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.818181818181818</v>
+        <v>1.850467289719626</v>
       </c>
       <c r="C57">
-        <v>806.775</v>
+        <v>801.2333333333333</v>
       </c>
       <c r="D57">
         <v>1043.416666666667</v>
@@ -1669,10 +1678,10 @@
         <v>1.919642857142857</v>
       </c>
       <c r="C58">
-        <v>1456.983333333333</v>
+        <v>1441.533333333333</v>
       </c>
       <c r="D58">
-        <v>1078.725806451613</v>
+        <v>1069.683333333333</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1683,16 +1692,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.395833333333333</v>
+        <v>2.408163265306122</v>
       </c>
       <c r="C59">
-        <v>826.6799999999999</v>
+        <v>818.6666666666666</v>
       </c>
       <c r="D59">
         <v>1322.111111111111</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,10 +1712,10 @@
         <v>1.990990990990991</v>
       </c>
       <c r="C60">
-        <v>1290.571428571429</v>
+        <v>1291.613445378151</v>
       </c>
       <c r="D60">
-        <v>949.6666666666666</v>
+        <v>946.7058823529412</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1717,13 +1726,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.929824561403509</v>
+        <v>1.982758620689655</v>
       </c>
       <c r="C61">
-        <v>1205.915966386555</v>
+        <v>1228.285714285714</v>
       </c>
       <c r="D61">
-        <v>1094.210526315789</v>
+        <v>1103.833333333333</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1734,16 +1743,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.150943396226415</v>
+        <v>2.122448979591837</v>
       </c>
       <c r="C62">
-        <v>907.7704918032787</v>
+        <v>884.1052631578947</v>
       </c>
       <c r="D62">
         <v>1339.0625</v>
       </c>
       <c r="E62">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,13 +1760,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.974358974358974</v>
+        <v>1.949579831932773</v>
       </c>
       <c r="C63">
-        <v>1063.5</v>
+        <v>1065.741666666667</v>
       </c>
       <c r="D63">
-        <v>1329.56862745098</v>
+        <v>1341.511111111111</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1802,13 +1811,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.137614678899082</v>
+        <v>2.128440366972477</v>
       </c>
       <c r="C66">
-        <v>989.5916666666667</v>
+        <v>980.4416666666667</v>
       </c>
       <c r="D66">
-        <v>1290.58</v>
+        <v>1289.78431372549</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1819,13 +1828,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.252631578947368</v>
+        <v>2.260416666666667</v>
       </c>
       <c r="C67">
-        <v>1048.883333333333</v>
+        <v>1045.908333333333</v>
       </c>
       <c r="D67">
-        <v>915.8674698795181</v>
+        <v>923.4578313253012</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1836,13 +1845,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.862745098039216</v>
+        <v>2.95</v>
       </c>
       <c r="C68">
-        <v>1743.633333333333</v>
+        <v>1720.941666666667</v>
       </c>
       <c r="D68">
-        <v>1961.394736842105</v>
+        <v>1388.111111111111</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1873,13 +1882,13 @@
         <v>2.081081081081081</v>
       </c>
       <c r="C70">
-        <v>1035.12987012987</v>
+        <v>1042.171052631579</v>
       </c>
       <c r="D70">
         <v>1203.724137931034</v>
       </c>
       <c r="E70">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1887,13 +1896,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.897196261682243</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C71">
-        <v>935.5546218487395</v>
+        <v>924.1176470588235</v>
       </c>
       <c r="D71">
-        <v>1191.451612903226</v>
+        <v>1140.5</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1904,13 +1913,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.663636363636364</v>
+        <v>1.585585585585586</v>
       </c>
       <c r="C72">
-        <v>1153.55462184874</v>
+        <v>1121.302521008403</v>
       </c>
       <c r="D72">
-        <v>1021.672727272727</v>
+        <v>1007.384615384615</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1921,13 +1930,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.563636363636364</v>
+        <v>1.532110091743119</v>
       </c>
       <c r="C73">
-        <v>868.725</v>
+        <v>865.2</v>
       </c>
       <c r="D73">
-        <v>790.7176470588236</v>
+        <v>787.7701149425287</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1938,13 +1947,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.808080808080808</v>
+        <v>1.821782178217822</v>
       </c>
       <c r="C74">
-        <v>1498.453781512605</v>
+        <v>1520.563025210084</v>
       </c>
       <c r="D74">
-        <v>1116.178947368421</v>
+        <v>1147.589473684211</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1955,16 +1964,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.258064516129032</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="C75">
-        <v>1100.290322580645</v>
+        <v>1096.966666666667</v>
       </c>
       <c r="D75">
         <v>1371.722222222222</v>
       </c>
       <c r="E75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1972,13 +1981,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.818181818181818</v>
+        <v>1.8125</v>
       </c>
       <c r="C76">
-        <v>1011.260504201681</v>
+        <v>1006.458333333333</v>
       </c>
       <c r="D76">
-        <v>1191.666666666667</v>
+        <v>1188.566037735849</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1989,13 +1998,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.466666666666667</v>
+        <v>1.407407407407407</v>
       </c>
       <c r="C77">
-        <v>1446.533333333333</v>
+        <v>1445.008333333333</v>
       </c>
       <c r="D77">
-        <v>823.8571428571429</v>
+        <v>814.2391304347826</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2023,13 +2032,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.273584905660377</v>
+        <v>2.323809523809524</v>
       </c>
       <c r="C79">
-        <v>1543.166666666667</v>
+        <v>1515.983333333333</v>
       </c>
       <c r="D79">
-        <v>969.9814814814815</v>
+        <v>971.36</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2057,13 +2066,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.881818181818182</v>
+        <v>1.9</v>
       </c>
       <c r="C81">
-        <v>1256.344537815126</v>
+        <v>1254.411764705882</v>
       </c>
       <c r="D81">
-        <v>1418</v>
+        <v>1423.333333333333</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2091,13 +2100,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.773913043478261</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="C83">
-        <v>1092.175</v>
+        <v>1089.066666666667</v>
       </c>
       <c r="D83">
-        <v>939.4666666666667</v>
+        <v>932.6842105263158</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2125,13 +2134,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.545454545454545</v>
+        <v>1.472727272727273</v>
       </c>
       <c r="C85">
-        <v>1404.658333333333</v>
+        <v>1362.533333333333</v>
       </c>
       <c r="D85">
-        <v>916.8775510204082</v>
+        <v>867.25</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2142,16 +2151,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.666666666666667</v>
+        <v>1.662921348314607</v>
       </c>
       <c r="C86">
-        <v>909.3200000000001</v>
+        <v>906.3838383838383</v>
       </c>
       <c r="D86">
-        <v>1151.878048780488</v>
+        <v>1150.675</v>
       </c>
       <c r="E86">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2159,16 +2168,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.114754098360656</v>
+        <v>2.08695652173913</v>
       </c>
       <c r="C87">
-        <v>911.0416666666666</v>
+        <v>907.4</v>
       </c>
       <c r="D87">
         <v>1222.5</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2176,16 +2185,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>2.018181818181818</v>
       </c>
       <c r="C88">
-        <v>812.6551724137931</v>
+        <v>819.6440677966102</v>
       </c>
       <c r="D88">
         <v>1029.294117647059</v>
       </c>
       <c r="E88">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2193,16 +2202,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.571428571428571</v>
+        <v>1.56</v>
       </c>
       <c r="C89">
-        <v>806.9677419354839</v>
+        <v>810.6666666666666</v>
       </c>
       <c r="D89">
-        <v>1079.315789473684</v>
+        <v>1062.1</v>
       </c>
       <c r="E89">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,13 +2219,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.469565217391304</v>
+        <v>1.460869565217391</v>
       </c>
       <c r="C90">
-        <v>945.9083333333333</v>
+        <v>946.2416666666667</v>
       </c>
       <c r="D90">
-        <v>833.45</v>
+        <v>833.075</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2261,13 +2270,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.441666666666667</v>
+        <v>1.45</v>
       </c>
       <c r="C93">
-        <v>1253.208333333333</v>
+        <v>1257.583333333333</v>
       </c>
       <c r="D93">
-        <v>864.4608695652174</v>
+        <v>867.1304347826087</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2295,13 +2304,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.130434782608696</v>
+        <v>3.114035087719298</v>
       </c>
       <c r="C95">
-        <v>1745.991666666667</v>
+        <v>1784.85</v>
       </c>
       <c r="D95">
-        <v>2281.928571428572</v>
+        <v>2234.275862068966</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2391,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="C101">
-        <v>1202.857142857143</v>
+        <v>1225.172413793103</v>
       </c>
       <c r="D101">
-        <v>1227.846153846154</v>
+        <v>1247.285714285714</v>
       </c>
       <c r="E101">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2411,7 +2420,7 @@
         <v>1.245614035087719</v>
       </c>
       <c r="C102">
-        <v>754.2586206896551</v>
+        <v>754</v>
       </c>
       <c r="D102">
         <v>806.3333333333334</v>
@@ -2538,16 +2547,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1.722222222222222</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="C110">
-        <v>1517.027027027027</v>
+        <v>1534.305555555556</v>
       </c>
       <c r="D110">
-        <v>987.7333333333333</v>
+        <v>997.6551724137931</v>
       </c>
       <c r="E110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:5">

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.533333333333333</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="C7">
-        <v>969.425</v>
+        <v>964.8</v>
       </c>
       <c r="D7">
-        <v>974.9558823529412</v>
+        <v>967</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -936,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.537735849056604</v>
+        <v>2.556603773584906</v>
       </c>
       <c r="C14">
-        <v>652.9473684210526</v>
+        <v>651.5877192982456</v>
       </c>
       <c r="D14">
         <v>1113.941176470588</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.166666666666667</v>
+        <v>2.193548387096774</v>
       </c>
       <c r="C19">
-        <v>916.3333333333334</v>
+        <v>924.6764705882352</v>
       </c>
       <c r="D19">
         <v>1322.75</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.263157894736842</v>
+        <v>2.256410256410256</v>
       </c>
       <c r="C34">
-        <v>828.0952380952381</v>
+        <v>824.5348837209302</v>
       </c>
       <c r="D34">
-        <v>1269.473684210526</v>
+        <v>1256</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1491,16 +1491,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.051546391752577</v>
+        <v>2.051020408163265</v>
       </c>
       <c r="C47">
-        <v>1078.724489795918</v>
+        <v>1080.707070707071</v>
       </c>
       <c r="D47">
-        <v>1045.647887323944</v>
+        <v>1045.625</v>
       </c>
       <c r="E47">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.032608695652174</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="C56">
-        <v>1117.241666666667</v>
+        <v>1123.075</v>
       </c>
       <c r="D56">
-        <v>1221.433333333333</v>
+        <v>1233.290322580645</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1675,13 +1675,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.919642857142857</v>
+        <v>1.929203539823009</v>
       </c>
       <c r="C58">
-        <v>1441.533333333333</v>
+        <v>1461.016666666667</v>
       </c>
       <c r="D58">
-        <v>1069.683333333333</v>
+        <v>1077.533333333333</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1726,13 +1726,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.982758620689655</v>
+        <v>2.008620689655173</v>
       </c>
       <c r="C61">
-        <v>1228.285714285714</v>
+        <v>1242.873949579832</v>
       </c>
       <c r="D61">
-        <v>1103.833333333333</v>
+        <v>1096.290322580645</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1760,13 +1760,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.949579831932773</v>
+        <v>1.957983193277311</v>
       </c>
       <c r="C63">
-        <v>1065.741666666667</v>
+        <v>1067.075</v>
       </c>
       <c r="D63">
-        <v>1341.511111111111</v>
+        <v>1345.212765957447</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1780,10 +1780,10 @@
         <v>1.752212389380531</v>
       </c>
       <c r="C64">
-        <v>853.2333333333333</v>
+        <v>853.9416666666667</v>
       </c>
       <c r="D64">
-        <v>756.2962962962963</v>
+        <v>756.8518518518518</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1828,13 +1828,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.260416666666667</v>
+        <v>2.255102040816327</v>
       </c>
       <c r="C67">
-        <v>1045.908333333333</v>
+        <v>1045.15</v>
       </c>
       <c r="D67">
-        <v>923.4578313253012</v>
+        <v>927.2048192771084</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1845,13 +1845,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.95</v>
+        <v>2.92929292929293</v>
       </c>
       <c r="C68">
-        <v>1720.941666666667</v>
+        <v>1715.308333333333</v>
       </c>
       <c r="D68">
-        <v>1388.111111111111</v>
+        <v>1298.787878787879</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1913,13 +1913,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.585585585585586</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="C72">
-        <v>1121.302521008403</v>
+        <v>1117.756302521008</v>
       </c>
       <c r="D72">
-        <v>1007.384615384615</v>
+        <v>990.0566037735849</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1930,13 +1930,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.532110091743119</v>
+        <v>1.522935779816514</v>
       </c>
       <c r="C73">
-        <v>865.2</v>
+        <v>864.2</v>
       </c>
       <c r="D73">
-        <v>787.7701149425287</v>
+        <v>786.8139534883721</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1964,16 +1964,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.233333333333333</v>
+        <v>2.258064516129032</v>
       </c>
       <c r="C75">
-        <v>1096.966666666667</v>
+        <v>1100.290322580645</v>
       </c>
       <c r="D75">
         <v>1371.722222222222</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1981,13 +1981,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.8125</v>
+        <v>1.831858407079646</v>
       </c>
       <c r="C76">
-        <v>1006.458333333333</v>
+        <v>1010.15</v>
       </c>
       <c r="D76">
-        <v>1188.566037735849</v>
+        <v>1183.381818181818</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1998,13 +1998,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.407407407407407</v>
+        <v>1.445454545454546</v>
       </c>
       <c r="C77">
-        <v>1445.008333333333</v>
+        <v>1467.716666666667</v>
       </c>
       <c r="D77">
-        <v>814.2391304347826</v>
+        <v>839.5434782608696</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2032,13 +2032,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.323809523809524</v>
+        <v>2.355769230769231</v>
       </c>
       <c r="C79">
-        <v>1515.983333333333</v>
+        <v>1463.766666666667</v>
       </c>
       <c r="D79">
-        <v>971.36</v>
+        <v>961.9111111111112</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2066,10 +2066,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.9</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="C81">
-        <v>1254.411764705882</v>
+        <v>1267.268907563025</v>
       </c>
       <c r="D81">
         <v>1423.333333333333</v>
@@ -2100,13 +2100,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.739130434782609</v>
+        <v>1.756521739130435</v>
       </c>
       <c r="C83">
-        <v>1089.066666666667</v>
+        <v>1072.15</v>
       </c>
       <c r="D83">
-        <v>932.6842105263158</v>
+        <v>938.2962962962963</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2134,13 +2134,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.472727272727273</v>
+        <v>1.481818181818182</v>
       </c>
       <c r="C85">
-        <v>1362.533333333333</v>
+        <v>1380.866666666667</v>
       </c>
       <c r="D85">
-        <v>867.25</v>
+        <v>887.8039215686274</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2168,16 +2168,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.08695652173913</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="C87">
-        <v>907.4</v>
+        <v>904.4074074074074</v>
       </c>
       <c r="D87">
         <v>1222.5</v>
       </c>
       <c r="E87">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2202,16 +2202,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.56</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="C89">
-        <v>810.6666666666666</v>
+        <v>812.6875</v>
       </c>
       <c r="D89">
-        <v>1062.1</v>
+        <v>1047.857142857143</v>
       </c>
       <c r="E89">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2222,10 +2222,10 @@
         <v>1.460869565217391</v>
       </c>
       <c r="C90">
-        <v>946.2416666666667</v>
+        <v>944.3666666666667</v>
       </c>
       <c r="D90">
-        <v>833.075</v>
+        <v>831.1375</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2270,13 +2270,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.45</v>
+        <v>1.425</v>
       </c>
       <c r="C93">
-        <v>1257.583333333333</v>
+        <v>1235.375</v>
       </c>
       <c r="D93">
-        <v>867.1304347826087</v>
+        <v>857.4347826086956</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2304,10 +2304,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.114035087719298</v>
+        <v>3.105263157894737</v>
       </c>
       <c r="C95">
-        <v>1784.85</v>
+        <v>1774.808333333333</v>
       </c>
       <c r="D95">
         <v>2234.275862068966</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="C2">
-        <v>1010.181818181818</v>
+        <v>1028.631578947368</v>
       </c>
       <c r="D2">
-        <v>985.5833333333334</v>
+        <v>1006.8</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.038461538461538</v>
+        <v>1.92</v>
       </c>
       <c r="C3">
-        <v>746.6176470588235</v>
+        <v>666.969696969697</v>
       </c>
       <c r="D3">
-        <v>1335</v>
+        <v>1343.75</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -787,7 +787,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C4">
-        <v>841.25</v>
+        <v>1020</v>
       </c>
       <c r="D4">
         <v>1042</v>
@@ -801,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C5">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.516666666666667</v>
+        <v>1.525</v>
       </c>
       <c r="C7">
-        <v>964.8</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="D7">
-        <v>967</v>
+        <v>878.2321428571429</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -846,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.157894736842105</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="C8">
-        <v>670.2954545454545</v>
+        <v>662</v>
       </c>
       <c r="D8">
-        <v>874.1</v>
+        <v>889.7777777777778</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -863,16 +863,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.375</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="C9">
-        <v>755.5555555555555</v>
+        <v>709.6875</v>
       </c>
       <c r="D9">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -897,16 +897,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.823529411764706</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="C11">
-        <v>925.2941176470588</v>
+        <v>887.5</v>
       </c>
       <c r="D11">
         <v>1178</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.556603773584906</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="C14">
-        <v>651.5877192982456</v>
+        <v>575.8434782608696</v>
       </c>
       <c r="D14">
-        <v>1113.941176470588</v>
+        <v>1164.818181818182</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.285714285714286</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C15">
-        <v>842.8571428571429</v>
+        <v>858.8888888888889</v>
       </c>
       <c r="D15">
-        <v>1625</v>
+        <v>1650</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,16 +970,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2.066666666666667</v>
+        <v>2.061224489795918</v>
       </c>
       <c r="C16">
-        <v>739.843137254902</v>
+        <v>727.8545454545455</v>
       </c>
       <c r="D16">
-        <v>917.8</v>
+        <v>897.9375</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,16 +987,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="C17">
-        <v>1616.666666666667</v>
+        <v>1448.75</v>
       </c>
       <c r="D17">
         <v>1500</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.554545454545454</v>
+        <v>1.564814814814815</v>
       </c>
       <c r="C18">
-        <v>816.0254237288135</v>
+        <v>826.8898305084746</v>
       </c>
       <c r="D18">
-        <v>845.1632653061224</v>
+        <v>914.9795918367347</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.193548387096774</v>
+        <v>2.486486486486486</v>
       </c>
       <c r="C19">
-        <v>924.6764705882352</v>
+        <v>754.15</v>
       </c>
       <c r="D19">
-        <v>1322.75</v>
+        <v>1368.857142857143</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.538461538461539</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C20">
-        <v>520</v>
+        <v>531.0714285714286</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1089,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.777777777777778</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="C23">
-        <v>909</v>
+        <v>871.4285714285714</v>
       </c>
       <c r="D23">
-        <v>1063.333333333333</v>
+        <v>1047</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,16 +1106,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.823529411764706</v>
+        <v>1.705882352941176</v>
       </c>
       <c r="C24">
-        <v>514.1</v>
+        <v>495.1052631578947</v>
       </c>
       <c r="D24">
-        <v>925</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1123,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1.5</v>
+        <v>1.77027027027027</v>
       </c>
       <c r="C25">
-        <v>622</v>
+        <v>649.8076923076923</v>
       </c>
       <c r="D25">
-        <v>691.40625</v>
+        <v>707.8947368421053</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,16 +1140,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1.911111111111111</v>
+        <v>1.957446808510638</v>
       </c>
       <c r="C26">
-        <v>740.936170212766</v>
+        <v>743.48</v>
       </c>
       <c r="D26">
-        <v>979.6666666666666</v>
+        <v>971.8571428571429</v>
       </c>
       <c r="E26">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2.166666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="C27">
-        <v>572.2222222222222</v>
+        <v>556.25</v>
       </c>
       <c r="D27">
         <v>1050</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>858.25</v>
+        <v>894.3333333333334</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1043.636363636364</v>
+        <v>1024.545454545455</v>
       </c>
       <c r="D29">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -1205,16 +1205,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2.133333333333333</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="C30">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D30">
         <v>1125</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,16 +1222,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.9375</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="C31">
-        <v>870</v>
+        <v>863.8235294117648</v>
       </c>
       <c r="D31">
-        <v>1025.571428571429</v>
+        <v>1063.166666666667</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1256,16 +1256,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="D33">
-        <v>1050</v>
+        <v>1375</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.256410256410256</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="C34">
-        <v>824.5348837209302</v>
+        <v>826</v>
       </c>
       <c r="D34">
-        <v>1256</v>
+        <v>1269.52380952381</v>
       </c>
       <c r="E34">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1290,16 +1290,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>2.090909090909091</v>
+        <v>2.1</v>
       </c>
       <c r="C35">
-        <v>842.2727272727273</v>
+        <v>851.5</v>
       </c>
       <c r="D35">
         <v>1184.2</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.65625</v>
+        <v>1.716417910447761</v>
       </c>
       <c r="C37">
-        <v>610.4305555555555</v>
+        <v>617.9736842105264</v>
       </c>
       <c r="D37">
-        <v>797.8085106382979</v>
+        <v>814.12</v>
       </c>
       <c r="E37">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,16 +1338,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1.846153846153846</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="C38">
-        <v>1027.1875</v>
+        <v>1245.357142857143</v>
       </c>
       <c r="D38">
-        <v>1005</v>
+        <v>1150</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,7 +1358,7 @@
         <v>2.111111111111111</v>
       </c>
       <c r="C39">
-        <v>1350.5</v>
+        <v>1355.5</v>
       </c>
       <c r="D39">
         <v>1766.666666666667</v>
@@ -1372,16 +1372,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>2.090909090909091</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="C40">
-        <v>773.6363636363636</v>
+        <v>663.3333333333334</v>
       </c>
       <c r="D40">
-        <v>1000</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1389,13 +1389,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.085106382978724</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="C41">
-        <v>666.6379310344828</v>
+        <v>642.4137931034483</v>
       </c>
       <c r="D41">
-        <v>1253</v>
+        <v>1211.5</v>
       </c>
       <c r="E41">
         <v>60</v>
@@ -1406,16 +1406,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2.279069767441861</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="C42">
-        <v>797.1190476190476</v>
+        <v>812.0857142857143</v>
       </c>
       <c r="D42">
-        <v>968.3181818181819</v>
+        <v>969.1428571428571</v>
       </c>
       <c r="E42">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.878048780487805</v>
+        <v>1.896103896103896</v>
       </c>
       <c r="C43">
-        <v>683.1084337349398</v>
+        <v>683.8101265822785</v>
       </c>
       <c r="D43">
-        <v>1015.806451612903</v>
+        <v>1034.666666666667</v>
       </c>
       <c r="E43">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1440,13 +1440,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C44">
-        <v>723.3333333333334</v>
-      </c>
-      <c r="D44">
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -1457,16 +1454,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>1.846153846153846</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="C45">
-        <v>735</v>
+        <v>733.5714285714286</v>
       </c>
       <c r="D45">
-        <v>903.75</v>
+        <v>930</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1474,10 +1471,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2.1</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="C46">
-        <v>3051.363636363636</v>
+        <v>3022.727272727273</v>
       </c>
       <c r="D46">
         <v>640</v>
@@ -1491,16 +1488,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.051020408163265</v>
+        <v>2.009345794392523</v>
       </c>
       <c r="C47">
-        <v>1080.707070707071</v>
+        <v>1086.018518518518</v>
       </c>
       <c r="D47">
-        <v>1045.625</v>
+        <v>1033.876543209876</v>
       </c>
       <c r="E47">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1542,16 +1539,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2.115384615384615</v>
+        <v>2.107142857142857</v>
       </c>
       <c r="C50">
-        <v>784.8148148148148</v>
+        <v>807.4137931034483</v>
       </c>
       <c r="D50">
-        <v>1127.5</v>
+        <v>1074.285714285714</v>
       </c>
       <c r="E50">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1559,16 +1556,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2.072727272727273</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="C51">
-        <v>668.0921052631579</v>
+        <v>661.2</v>
       </c>
       <c r="D51">
-        <v>1030</v>
+        <v>1085.5</v>
       </c>
       <c r="E51">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1576,16 +1573,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1.578947368421053</v>
+        <v>1.825</v>
       </c>
       <c r="C52">
-        <v>641.15625</v>
+        <v>665.0864197530864</v>
       </c>
       <c r="D52">
-        <v>800.8125</v>
+        <v>764.5599999999999</v>
       </c>
       <c r="E52">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1607,16 +1604,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1.90625</v>
+        <v>2.035714285714286</v>
       </c>
       <c r="C54">
-        <v>1135.75</v>
+        <v>1131</v>
       </c>
       <c r="D54">
-        <v>1172.642857142857</v>
+        <v>1236.416666666667</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1624,10 +1621,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>2.064516129032258</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>653.1351351351351</v>
+        <v>675.5405405405405</v>
       </c>
       <c r="D55">
         <v>1100</v>
@@ -1641,13 +1638,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.043478260869565</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="C56">
-        <v>1123.075</v>
+        <v>1036.183333333333</v>
       </c>
       <c r="D56">
-        <v>1233.290322580645</v>
+        <v>1257.172413793103</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1658,13 +1655,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.850467289719626</v>
+        <v>1.968421052631579</v>
       </c>
       <c r="C57">
-        <v>801.2333333333333</v>
+        <v>763.325</v>
       </c>
       <c r="D57">
-        <v>1043.416666666667</v>
+        <v>1047.125</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -1675,13 +1672,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.929203539823009</v>
+        <v>2.034782608695652</v>
       </c>
       <c r="C58">
-        <v>1461.016666666667</v>
+        <v>1519.75</v>
       </c>
       <c r="D58">
-        <v>1077.533333333333</v>
+        <v>1113.882352941177</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1692,16 +1689,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.408163265306122</v>
+        <v>2.375</v>
       </c>
       <c r="C59">
-        <v>818.6666666666666</v>
+        <v>803.1206896551724</v>
       </c>
       <c r="D59">
-        <v>1322.111111111111</v>
+        <v>1224.545454545455</v>
       </c>
       <c r="E59">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1709,13 +1706,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1.990990990990991</v>
+        <v>1.971698113207547</v>
       </c>
       <c r="C60">
-        <v>1291.613445378151</v>
+        <v>1253.705882352941</v>
       </c>
       <c r="D60">
-        <v>946.7058823529412</v>
+        <v>812.5</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1726,13 +1723,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>2.008620689655173</v>
+        <v>1.844036697247706</v>
       </c>
       <c r="C61">
-        <v>1242.873949579832</v>
+        <v>1174.076271186441</v>
       </c>
       <c r="D61">
-        <v>1096.290322580645</v>
+        <v>1016.125</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1743,13 +1740,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.122448979591837</v>
+        <v>2.347826086956522</v>
       </c>
       <c r="C62">
-        <v>884.1052631578947</v>
+        <v>887.8103448275862</v>
       </c>
       <c r="D62">
-        <v>1339.0625</v>
+        <v>1292.058823529412</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -1760,13 +1757,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.957983193277311</v>
+        <v>1.939655172413793</v>
       </c>
       <c r="C63">
-        <v>1067.075</v>
+        <v>1090.741666666667</v>
       </c>
       <c r="D63">
-        <v>1345.212765957447</v>
+        <v>1298.88679245283</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1780,10 +1777,10 @@
         <v>1.752212389380531</v>
       </c>
       <c r="C64">
-        <v>853.9416666666667</v>
+        <v>846.5833333333334</v>
       </c>
       <c r="D64">
-        <v>756.8518518518518</v>
+        <v>750.2857142857143</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1794,16 +1791,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.495238095238095</v>
+        <v>2.456521739130435</v>
       </c>
       <c r="C65">
-        <v>928.4201680672269</v>
+        <v>914.5631067961165</v>
       </c>
       <c r="D65">
-        <v>1204.620689655172</v>
+        <v>1207.259259259259</v>
       </c>
       <c r="E65">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1811,13 +1808,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.128440366972477</v>
+        <v>2.194444444444445</v>
       </c>
       <c r="C66">
-        <v>980.4416666666667</v>
+        <v>991.45</v>
       </c>
       <c r="D66">
-        <v>1289.78431372549</v>
+        <v>1258.943396226415</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1828,13 +1825,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.255102040816327</v>
+        <v>2.313725490196079</v>
       </c>
       <c r="C67">
-        <v>1045.15</v>
+        <v>1012.966666666667</v>
       </c>
       <c r="D67">
-        <v>927.2048192771084</v>
+        <v>959.3493975903615</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1845,13 +1842,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.92929292929293</v>
+        <v>3.168316831683168</v>
       </c>
       <c r="C68">
-        <v>1715.308333333333</v>
+        <v>1805.666666666667</v>
       </c>
       <c r="D68">
-        <v>1298.787878787879</v>
+        <v>1058.727272727273</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1862,16 +1859,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2.327272727272727</v>
+        <v>2.485436893203883</v>
       </c>
       <c r="C69">
-        <v>1021.589285714286</v>
+        <v>1049.792452830189</v>
       </c>
       <c r="D69">
-        <v>1169.319587628866</v>
+        <v>1217.031578947368</v>
       </c>
       <c r="E69">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1879,16 +1876,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2.081081081081081</v>
+        <v>2.0625</v>
       </c>
       <c r="C70">
-        <v>1042.171052631579</v>
+        <v>1047.25</v>
       </c>
       <c r="D70">
-        <v>1203.724137931034</v>
+        <v>1206.826086956522</v>
       </c>
       <c r="E70">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1896,13 +1893,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.833333333333333</v>
+        <v>1.853211009174312</v>
       </c>
       <c r="C71">
-        <v>924.1176470588235</v>
+        <v>931.0252100840336</v>
       </c>
       <c r="D71">
-        <v>1140.5</v>
+        <v>1208.259259259259</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1913,13 +1910,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.567567567567568</v>
+        <v>1.766666666666667</v>
       </c>
       <c r="C72">
-        <v>1117.756302521008</v>
+        <v>1243.083333333333</v>
       </c>
       <c r="D72">
-        <v>990.0566037735849</v>
+        <v>952.9636363636364</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1930,13 +1927,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.522935779816514</v>
+        <v>1.548672566371681</v>
       </c>
       <c r="C73">
-        <v>864.2</v>
+        <v>846.7666666666667</v>
       </c>
       <c r="D73">
-        <v>786.8139534883721</v>
+        <v>788.05</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1947,13 +1944,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.821782178217822</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C74">
-        <v>1520.563025210084</v>
+        <v>1510.991666666667</v>
       </c>
       <c r="D74">
-        <v>1147.589473684211</v>
+        <v>1168.397959183673</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1964,16 +1961,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.258064516129032</v>
+        <v>2.275862068965517</v>
       </c>
       <c r="C75">
-        <v>1100.290322580645</v>
+        <v>1105.466666666667</v>
       </c>
       <c r="D75">
-        <v>1371.722222222222</v>
+        <v>1348.411764705882</v>
       </c>
       <c r="E75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1981,13 +1978,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.831858407079646</v>
+        <v>1.821428571428571</v>
       </c>
       <c r="C76">
-        <v>1010.15</v>
+        <v>970.9747899159664</v>
       </c>
       <c r="D76">
-        <v>1183.381818181818</v>
+        <v>1139.5</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1998,13 +1995,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.445454545454546</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="C77">
-        <v>1467.716666666667</v>
+        <v>1416.641666666667</v>
       </c>
       <c r="D77">
-        <v>839.5434782608696</v>
+        <v>777.7843137254902</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2018,7 +2015,7 @@
         <v>1.884615384615385</v>
       </c>
       <c r="C78">
-        <v>819.1538461538462</v>
+        <v>798</v>
       </c>
       <c r="D78">
         <v>1124</v>
@@ -2032,13 +2029,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.355769230769231</v>
+        <v>2.26605504587156</v>
       </c>
       <c r="C79">
-        <v>1463.766666666667</v>
+        <v>1524.725</v>
       </c>
       <c r="D79">
-        <v>961.9111111111112</v>
+        <v>975.0204081632653</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2049,16 +2046,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2.181818181818182</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>914.6363636363636</v>
+        <v>876.6</v>
       </c>
       <c r="D80">
-        <v>803.5555555555555</v>
+        <v>664.75</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2066,13 +2063,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.909090909090909</v>
+        <v>1.927272727272727</v>
       </c>
       <c r="C81">
-        <v>1267.268907563025</v>
+        <v>1275.739495798319</v>
       </c>
       <c r="D81">
-        <v>1423.333333333333</v>
+        <v>1452.272727272727</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2083,16 +2080,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>1.773333333333333</v>
+        <v>1.816901408450704</v>
       </c>
       <c r="C82">
-        <v>789.9873417721519</v>
+        <v>773.5</v>
       </c>
       <c r="D82">
-        <v>919.7027027027027</v>
+        <v>866.5555555555555</v>
       </c>
       <c r="E82">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2100,13 +2097,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.756521739130435</v>
+        <v>1.732758620689655</v>
       </c>
       <c r="C83">
-        <v>1072.15</v>
+        <v>1037.308333333333</v>
       </c>
       <c r="D83">
-        <v>938.2962962962963</v>
+        <v>925.2916666666666</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -2117,16 +2114,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.56140350877193</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="C84">
-        <v>1073.131147540984</v>
+        <v>1062.515625</v>
       </c>
       <c r="D84">
-        <v>1330.1</v>
+        <v>1303.923076923077</v>
       </c>
       <c r="E84">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2134,13 +2131,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.481818181818182</v>
+        <v>1.693693693693694</v>
       </c>
       <c r="C85">
-        <v>1380.866666666667</v>
+        <v>1405.116666666667</v>
       </c>
       <c r="D85">
-        <v>887.8039215686274</v>
+        <v>917.4222222222222</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2151,16 +2148,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.662921348314607</v>
+        <v>1.717391304347826</v>
       </c>
       <c r="C86">
-        <v>906.3838383838383</v>
+        <v>872.5436893203884</v>
       </c>
       <c r="D86">
-        <v>1150.675</v>
+        <v>1187.694444444444</v>
       </c>
       <c r="E86">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2168,16 +2165,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.071428571428572</v>
+        <v>2.050632911392405</v>
       </c>
       <c r="C87">
-        <v>904.4074074074074</v>
+        <v>877.3820224719101</v>
       </c>
       <c r="D87">
-        <v>1222.5</v>
+        <v>1189.166666666667</v>
       </c>
       <c r="E87">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2185,13 +2182,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.018181818181818</v>
+        <v>2.018867924528302</v>
       </c>
       <c r="C88">
-        <v>819.6440677966102</v>
+        <v>779.6896551724138</v>
       </c>
       <c r="D88">
-        <v>1029.294117647059</v>
+        <v>962.3571428571429</v>
       </c>
       <c r="E88">
         <v>59</v>
@@ -2202,16 +2199,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.588235294117647</v>
+        <v>1.795454545454545</v>
       </c>
       <c r="C89">
-        <v>812.6875</v>
+        <v>872.0862068965517</v>
       </c>
       <c r="D89">
-        <v>1047.857142857143</v>
+        <v>1049.625</v>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2219,13 +2216,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.460869565217391</v>
+        <v>1.482758620689655</v>
       </c>
       <c r="C90">
-        <v>944.3666666666667</v>
+        <v>3124.116666666667</v>
       </c>
       <c r="D90">
-        <v>831.1375</v>
+        <v>887.7564102564103</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2236,16 +2233,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>3.130434782608696</v>
+        <v>3.240740740740741</v>
       </c>
       <c r="C91">
-        <v>2166.25</v>
+        <v>2227.363636363636</v>
       </c>
       <c r="D91">
-        <v>1899.64705882353</v>
+        <v>1910</v>
       </c>
       <c r="E91">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2253,16 +2250,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.235294117647059</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C92">
-        <v>908.1764705882352</v>
+        <v>878.2777777777778</v>
       </c>
       <c r="D92">
         <v>1870</v>
       </c>
       <c r="E92">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2270,13 +2267,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.425</v>
+        <v>1.391666666666667</v>
       </c>
       <c r="C93">
-        <v>1235.375</v>
+        <v>1226.083333333333</v>
       </c>
       <c r="D93">
-        <v>857.4347826086956</v>
+        <v>839.2222222222222</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2287,16 +2284,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>2.176470588235294</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="C94">
-        <v>1206.578947368421</v>
+        <v>1273.611111111111</v>
       </c>
       <c r="D94">
-        <v>1860.375</v>
+        <v>1840.333333333333</v>
       </c>
       <c r="E94">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2304,13 +2301,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.105263157894737</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="C95">
-        <v>1774.808333333333</v>
+        <v>1783.941666666667</v>
       </c>
       <c r="D95">
-        <v>2234.275862068966</v>
+        <v>2449.125</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2372,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>675</v>
+        <v>812.5</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2400,13 +2397,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="C101">
-        <v>1225.172413793103</v>
+        <v>1276.551724137931</v>
       </c>
       <c r="D101">
-        <v>1247.285714285714</v>
+        <v>1250.333333333333</v>
       </c>
       <c r="E101">
         <v>29</v>
@@ -2417,16 +2414,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.245614035087719</v>
+        <v>1.265625</v>
       </c>
       <c r="C102">
-        <v>754</v>
+        <v>749.1076923076923</v>
       </c>
       <c r="D102">
-        <v>806.3333333333334</v>
+        <v>800.4615384615385</v>
       </c>
       <c r="E102">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2434,7 +2431,7 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>1.714285714285714</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C103">
         <v>735</v>
@@ -2451,13 +2448,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>1187.5</v>
+        <v>1200</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2465,16 +2462,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>2.08695652173913</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="C105">
-        <v>677.2903225806451</v>
+        <v>682</v>
       </c>
       <c r="D105">
-        <v>883.3333333333334</v>
+        <v>855</v>
       </c>
       <c r="E105">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2499,16 +2496,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>742.5</v>
+        <v>785.3571428571429</v>
       </c>
       <c r="D107">
-        <v>879.5384615384615</v>
+        <v>1052</v>
       </c>
       <c r="E107">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2530,13 +2527,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>1.804878048780488</v>
+        <v>1.829268292682927</v>
       </c>
       <c r="C109">
-        <v>778.2619047619048</v>
+        <v>797.9047619047619</v>
       </c>
       <c r="D109">
-        <v>895.3</v>
+        <v>950.25</v>
       </c>
       <c r="E109">
         <v>43</v>
@@ -2547,16 +2544,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1.742857142857143</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="C110">
-        <v>1534.305555555556</v>
+        <v>1565.263157894737</v>
       </c>
       <c r="D110">
-        <v>997.6551724137931</v>
+        <v>978.516129032258</v>
       </c>
       <c r="E110">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2564,16 +2561,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>2.230769230769231</v>
+        <v>2.1875</v>
       </c>
       <c r="C111">
-        <v>762.0714285714286</v>
+        <v>733.1764705882352</v>
       </c>
       <c r="D111">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2581,13 +2578,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.170212765957447</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="C112">
-        <v>780.58</v>
+        <v>781.7254901960785</v>
       </c>
       <c r="D112">
-        <v>967.2</v>
+        <v>992.1904761904761</v>
       </c>
       <c r="E112">
         <v>51</v>
@@ -2598,13 +2595,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C113">
-        <v>525</v>
+        <v>575</v>
+      </c>
+      <c r="D113">
+        <v>1700</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2612,16 +2612,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>2.06</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="C114">
-        <v>1621.962264150943</v>
+        <v>1643.070175438596</v>
       </c>
       <c r="D114">
-        <v>1090.948717948718</v>
+        <v>1102.068181818182</v>
       </c>
       <c r="E114">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2629,16 +2629,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>2.5</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C115">
-        <v>786</v>
+        <v>751.8181818181819</v>
       </c>
       <c r="D115">
-        <v>1000</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.055555555555555</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="C2">
-        <v>1028.631578947368</v>
+        <v>1025.2</v>
       </c>
       <c r="D2">
-        <v>1006.8</v>
+        <v>1006.6</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="C3">
-        <v>666.969696969697</v>
+        <v>649.375</v>
       </c>
       <c r="D3">
-        <v>1343.75</v>
+        <v>1550</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="C4">
-        <v>1020</v>
+        <v>887.1428571428571</v>
       </c>
       <c r="D4">
-        <v>1042</v>
+        <v>1094.666666666667</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -801,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.833333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.525</v>
+        <v>1.508333333333333</v>
       </c>
       <c r="C7">
-        <v>907.7666666666667</v>
+        <v>865.325</v>
       </c>
       <c r="D7">
-        <v>878.2321428571429</v>
+        <v>880.625</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -846,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.171428571428571</v>
+        <v>2.179487179487179</v>
       </c>
       <c r="C8">
-        <v>662</v>
+        <v>667.5714285714286</v>
       </c>
       <c r="D8">
-        <v>889.7777777777778</v>
+        <v>874.1</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>2.266666666666667</v>
       </c>
       <c r="C9">
-        <v>709.6875</v>
+        <v>717.5</v>
       </c>
       <c r="D9">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="E9">
         <v>19</v>
@@ -880,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1750</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <v>1550</v>
+        <v>2000</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -900,7 +900,7 @@
         <v>1.888888888888889</v>
       </c>
       <c r="C11">
-        <v>887.5</v>
+        <v>887.2222222222222</v>
       </c>
       <c r="D11">
         <v>1178</v>
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.642857142857143</v>
+        <v>2.734513274336283</v>
       </c>
       <c r="C14">
-        <v>575.8434782608696</v>
+        <v>569.1769911504425</v>
       </c>
       <c r="D14">
-        <v>1164.818181818182</v>
+        <v>1328</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -956,13 +956,13 @@
         <v>2.333333333333333</v>
       </c>
       <c r="C15">
-        <v>858.8888888888889</v>
+        <v>867.5</v>
       </c>
       <c r="D15">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,16 +970,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2.061224489795918</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="C16">
-        <v>727.8545454545455</v>
+        <v>736.1020408163265</v>
       </c>
       <c r="D16">
-        <v>897.9375</v>
+        <v>889.1538461538462</v>
       </c>
       <c r="E16">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,16 +987,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1448.75</v>
+        <v>1279</v>
       </c>
       <c r="D17">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.564814814814815</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="C18">
-        <v>826.8898305084746</v>
+        <v>824.8559322033898</v>
       </c>
       <c r="D18">
-        <v>914.9795918367347</v>
+        <v>902.8367346938776</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.486486486486486</v>
+        <v>2.543478260869565</v>
       </c>
       <c r="C19">
-        <v>754.15</v>
+        <v>688.0943396226415</v>
       </c>
       <c r="D19">
         <v>1368.857142857143</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.571428571428571</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="C20">
-        <v>531.0714285714286</v>
+        <v>518.0769230769231</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,16 +1055,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C21">
-        <v>1203.333333333333</v>
+        <v>891.6666666666666</v>
       </c>
       <c r="D21">
-        <v>1474.4</v>
+        <v>1270</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1089,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.769230769230769</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="C23">
-        <v>871.4285714285714</v>
+        <v>856.6666666666666</v>
       </c>
       <c r="D23">
         <v>1047</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,16 +1106,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.705882352941176</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="C24">
-        <v>495.1052631578947</v>
+        <v>511.7777777777778</v>
       </c>
       <c r="D24">
         <v>983.3333333333334</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1123,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1.77027027027027</v>
+        <v>1.794871794871795</v>
       </c>
       <c r="C25">
-        <v>649.8076923076923</v>
+        <v>647.1927710843373</v>
       </c>
       <c r="D25">
-        <v>707.8947368421053</v>
+        <v>754.7619047619048</v>
       </c>
       <c r="E25">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1140,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1.957446808510638</v>
+        <v>1.914893617021277</v>
       </c>
       <c r="C26">
-        <v>743.48</v>
+        <v>739.48</v>
       </c>
       <c r="D26">
-        <v>971.8571428571429</v>
+        <v>903.5</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="C27">
-        <v>556.25</v>
+        <v>535.7142857142857</v>
       </c>
       <c r="D27">
         <v>1050</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>894.3333333333334</v>
+        <v>975</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1024.545454545455</v>
+        <v>988</v>
       </c>
       <c r="D29">
         <v>1101</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,16 +1205,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>1.928571428571429</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>644</v>
+        <v>645.3846153846154</v>
       </c>
       <c r="D30">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.933333333333333</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="C31">
-        <v>863.8235294117648</v>
+        <v>829.4117647058823</v>
       </c>
       <c r="D31">
-        <v>1063.166666666667</v>
+        <v>1006.4</v>
       </c>
       <c r="E31">
         <v>17</v>
@@ -1273,16 +1273,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.282051282051282</v>
+        <v>2.317073170731707</v>
       </c>
       <c r="C34">
-        <v>826</v>
+        <v>824.8936170212766</v>
       </c>
       <c r="D34">
-        <v>1269.52380952381</v>
+        <v>1251.304347826087</v>
       </c>
       <c r="E34">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1290,16 +1290,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>851.5</v>
+        <v>820.625</v>
       </c>
       <c r="D35">
-        <v>1184.2</v>
+        <v>1025</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.716417910447761</v>
+        <v>1.757142857142857</v>
       </c>
       <c r="C37">
-        <v>617.9736842105264</v>
+        <v>628.2625</v>
       </c>
       <c r="D37">
-        <v>814.12</v>
+        <v>824.6666666666666</v>
       </c>
       <c r="E37">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,16 +1338,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1.909090909090909</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="C38">
-        <v>1245.357142857143</v>
+        <v>1275.625</v>
       </c>
       <c r="D38">
-        <v>1150</v>
+        <v>976.6666666666666</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1355,16 +1355,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>2.111111111111111</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>1355.5</v>
+        <v>1302.727272727273</v>
       </c>
       <c r="D39">
         <v>1766.666666666667</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1389,16 +1389,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.111111111111111</v>
+        <v>2.048780487804878</v>
       </c>
       <c r="C41">
-        <v>642.4137931034483</v>
+        <v>615.7142857142857</v>
       </c>
       <c r="D41">
-        <v>1211.5</v>
+        <v>1218.090909090909</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,16 +1406,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2.416666666666667</v>
+        <v>2.390243902439024</v>
       </c>
       <c r="C42">
-        <v>812.0857142857143</v>
+        <v>813.025</v>
       </c>
       <c r="D42">
-        <v>969.1428571428571</v>
+        <v>961.9411764705883</v>
       </c>
       <c r="E42">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.896103896103896</v>
+        <v>1.9125</v>
       </c>
       <c r="C43">
-        <v>683.8101265822785</v>
+        <v>685.8915662650602</v>
       </c>
       <c r="D43">
-        <v>1034.666666666667</v>
+        <v>989.8709677419355</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1454,16 +1454,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>1.909090909090909</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C45">
-        <v>733.5714285714286</v>
+        <v>729.6875</v>
       </c>
       <c r="D45">
-        <v>930</v>
+        <v>903.75</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1471,16 +1471,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2.090909090909091</v>
+        <v>2.3</v>
       </c>
       <c r="C46">
-        <v>3022.727272727273</v>
+        <v>3282.5</v>
       </c>
       <c r="D46">
-        <v>640</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,16 +1488,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.009345794392523</v>
+        <v>1.981651376146789</v>
       </c>
       <c r="C47">
-        <v>1086.018518518518</v>
+        <v>1108.518181818182</v>
       </c>
       <c r="D47">
-        <v>1033.876543209876</v>
+        <v>1027.714285714286</v>
       </c>
       <c r="E47">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1525,13 +1525,13 @@
         <v>2.666666666666667</v>
       </c>
       <c r="C49">
-        <v>1281.428571428571</v>
+        <v>1411.666666666667</v>
       </c>
       <c r="D49">
         <v>1637.5</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1539,16 +1539,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2.107142857142857</v>
+        <v>2.103448275862069</v>
       </c>
       <c r="C50">
-        <v>807.4137931034483</v>
+        <v>806</v>
       </c>
       <c r="D50">
-        <v>1074.285714285714</v>
+        <v>1085.555555555556</v>
       </c>
       <c r="E50">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1556,16 +1556,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2.083333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="C51">
-        <v>661.2</v>
+        <v>1032.164556962025</v>
       </c>
       <c r="D51">
-        <v>1085.5</v>
+        <v>1035.642857142857</v>
       </c>
       <c r="E51">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1573,16 +1573,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1.825</v>
+        <v>1.814814814814815</v>
       </c>
       <c r="C52">
-        <v>665.0864197530864</v>
+        <v>654.1084337349398</v>
       </c>
       <c r="D52">
-        <v>764.5599999999999</v>
+        <v>746.96</v>
       </c>
       <c r="E52">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1590,13 +1590,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C53">
-        <v>671.5</v>
+        <v>846</v>
+      </c>
+      <c r="D53">
+        <v>1406</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1604,16 +1607,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>2.035714285714286</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="C54">
-        <v>1131</v>
+        <v>1124.964285714286</v>
       </c>
       <c r="D54">
-        <v>1236.416666666667</v>
+        <v>1173.7</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1621,16 +1624,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>2.03125</v>
       </c>
       <c r="C55">
-        <v>675.5405405405405</v>
+        <v>684.078947368421</v>
       </c>
       <c r="D55">
         <v>1100</v>
       </c>
       <c r="E55">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1638,13 +1641,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.134146341463415</v>
+        <v>2.051020408163265</v>
       </c>
       <c r="C56">
-        <v>1036.183333333333</v>
+        <v>1205.083333333333</v>
       </c>
       <c r="D56">
-        <v>1257.172413793103</v>
+        <v>1306.054054054054</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1655,13 +1658,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.968421052631579</v>
+        <v>1.940594059405941</v>
       </c>
       <c r="C57">
-        <v>763.325</v>
+        <v>778.8833333333333</v>
       </c>
       <c r="D57">
-        <v>1047.125</v>
+        <v>1053.25</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -1672,13 +1675,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>2.034782608695652</v>
+        <v>1.830508474576271</v>
       </c>
       <c r="C58">
-        <v>1519.75</v>
+        <v>1662.266666666667</v>
       </c>
       <c r="D58">
-        <v>1113.882352941177</v>
+        <v>1113.218181818182</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1689,16 +1692,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.375</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="C59">
-        <v>803.1206896551724</v>
+        <v>791.7903225806451</v>
       </c>
       <c r="D59">
-        <v>1224.545454545455</v>
+        <v>1116.923076923077</v>
       </c>
       <c r="E59">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1706,13 +1709,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1.971698113207547</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="C60">
-        <v>1253.705882352941</v>
+        <v>1275.294117647059</v>
       </c>
       <c r="D60">
-        <v>812.5</v>
+        <v>870.8333333333334</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1723,13 +1726,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.844036697247706</v>
+        <v>1.767241379310345</v>
       </c>
       <c r="C61">
-        <v>1174.076271186441</v>
+        <v>1137.216666666667</v>
       </c>
       <c r="D61">
-        <v>1016.125</v>
+        <v>1016.842105263158</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1740,16 +1743,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.347826086956522</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="C62">
-        <v>887.8103448275862</v>
+        <v>889.3061224489796</v>
       </c>
       <c r="D62">
-        <v>1292.058823529412</v>
+        <v>1160.8125</v>
       </c>
       <c r="E62">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1757,13 +1760,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>1.939655172413793</v>
+        <v>2.067226890756303</v>
       </c>
       <c r="C63">
-        <v>1090.741666666667</v>
+        <v>1155.775</v>
       </c>
       <c r="D63">
-        <v>1298.88679245283</v>
+        <v>1345.896551724138</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1774,13 +1777,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1.752212389380531</v>
+        <v>1.787610619469026</v>
       </c>
       <c r="C64">
-        <v>846.5833333333334</v>
+        <v>848.0333333333333</v>
       </c>
       <c r="D64">
-        <v>750.2857142857143</v>
+        <v>752.7884615384615</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1791,16 +1794,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.456521739130435</v>
+        <v>2.523255813953488</v>
       </c>
       <c r="C65">
-        <v>914.5631067961165</v>
+        <v>907.6041666666666</v>
       </c>
       <c r="D65">
-        <v>1207.259259259259</v>
+        <v>1205.214285714286</v>
       </c>
       <c r="E65">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1808,13 +1811,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.194444444444445</v>
+        <v>2.203703703703704</v>
       </c>
       <c r="C66">
-        <v>991.45</v>
+        <v>993.8083333333333</v>
       </c>
       <c r="D66">
-        <v>1258.943396226415</v>
+        <v>1274.833333333333</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1825,13 +1828,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>2.313725490196079</v>
+        <v>2.297029702970297</v>
       </c>
       <c r="C67">
-        <v>1012.966666666667</v>
+        <v>1030.226890756303</v>
       </c>
       <c r="D67">
-        <v>959.3493975903615</v>
+        <v>967</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1842,13 +1845,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>3.168316831683168</v>
+        <v>2.373626373626374</v>
       </c>
       <c r="C68">
-        <v>1805.666666666667</v>
+        <v>1613.358333333333</v>
       </c>
       <c r="D68">
-        <v>1058.727272727273</v>
+        <v>1271.25</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1859,16 +1862,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2.485436893203883</v>
+        <v>2.531914893617021</v>
       </c>
       <c r="C69">
-        <v>1049.792452830189</v>
+        <v>1042.969072164949</v>
       </c>
       <c r="D69">
-        <v>1217.031578947368</v>
+        <v>1238.344827586207</v>
       </c>
       <c r="E69">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1876,16 +1879,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2.0625</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="C70">
-        <v>1047.25</v>
+        <v>1051.649122807018</v>
       </c>
       <c r="D70">
-        <v>1206.826086956522</v>
+        <v>1264.277777777778</v>
       </c>
       <c r="E70">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1893,13 +1896,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.853211009174312</v>
+        <v>1.805555555555556</v>
       </c>
       <c r="C71">
-        <v>931.0252100840336</v>
+        <v>913.3193277310925</v>
       </c>
       <c r="D71">
-        <v>1208.259259259259</v>
+        <v>1166.48</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1910,13 +1913,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.766666666666667</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="C72">
-        <v>1243.083333333333</v>
+        <v>1074.791666666667</v>
       </c>
       <c r="D72">
-        <v>952.9636363636364</v>
+        <v>957.265625</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1927,13 +1930,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.548672566371681</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="C73">
-        <v>846.7666666666667</v>
+        <v>806.3666666666667</v>
       </c>
       <c r="D73">
-        <v>788.05</v>
+        <v>826.4625</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1944,13 +1947,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.833333333333333</v>
+        <v>1.80188679245283</v>
       </c>
       <c r="C74">
-        <v>1510.991666666667</v>
+        <v>1474.15</v>
       </c>
       <c r="D74">
-        <v>1168.397959183673</v>
+        <v>1001.959183673469</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1961,16 +1964,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.275862068965517</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="C75">
-        <v>1105.466666666667</v>
+        <v>1073.40625</v>
       </c>
       <c r="D75">
-        <v>1348.411764705882</v>
+        <v>1345.722222222222</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1978,13 +1981,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.821428571428571</v>
+        <v>1.848214285714286</v>
       </c>
       <c r="C76">
-        <v>970.9747899159664</v>
+        <v>1034.066666666667</v>
       </c>
       <c r="D76">
-        <v>1139.5</v>
+        <v>1196.845070422535</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1995,13 +1998,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.514285714285714</v>
+        <v>1.28695652173913</v>
       </c>
       <c r="C77">
-        <v>1416.641666666667</v>
+        <v>1492.441666666667</v>
       </c>
       <c r="D77">
-        <v>777.7843137254902</v>
+        <v>842.7831325301205</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2012,16 +2015,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>1.884615384615385</v>
+        <v>1.92</v>
       </c>
       <c r="C78">
-        <v>798</v>
+        <v>808.72</v>
       </c>
       <c r="D78">
-        <v>1124</v>
+        <v>1244</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2029,13 +2032,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.26605504587156</v>
+        <v>2.345132743362832</v>
       </c>
       <c r="C79">
-        <v>1524.725</v>
+        <v>1527.091666666667</v>
       </c>
       <c r="D79">
-        <v>975.0204081632653</v>
+        <v>974.3720930232558</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2046,16 +2049,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="C80">
-        <v>876.6</v>
+        <v>856</v>
       </c>
       <c r="D80">
         <v>664.75</v>
       </c>
       <c r="E80">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2063,13 +2066,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.927272727272727</v>
+        <v>1.963636363636364</v>
       </c>
       <c r="C81">
-        <v>1275.739495798319</v>
+        <v>1278.655462184874</v>
       </c>
       <c r="D81">
-        <v>1452.272727272727</v>
+        <v>1443.181818181818</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2080,16 +2083,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>1.816901408450704</v>
+        <v>1.852941176470588</v>
       </c>
       <c r="C82">
-        <v>773.5</v>
+        <v>785.5</v>
       </c>
       <c r="D82">
-        <v>866.5555555555555</v>
+        <v>873.6666666666666</v>
       </c>
       <c r="E82">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2097,16 +2100,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.732758620689655</v>
+        <v>1.827272727272727</v>
       </c>
       <c r="C83">
-        <v>1037.308333333333</v>
+        <v>996.6521739130435</v>
       </c>
       <c r="D83">
-        <v>925.2916666666666</v>
+        <v>1025.911764705882</v>
       </c>
       <c r="E83">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2114,16 +2117,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.566666666666667</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="C84">
-        <v>1062.515625</v>
+        <v>1061.938461538462</v>
       </c>
       <c r="D84">
-        <v>1303.923076923077</v>
+        <v>1282.214285714286</v>
       </c>
       <c r="E84">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2131,13 +2134,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.693693693693694</v>
+        <v>1.536363636363636</v>
       </c>
       <c r="C85">
-        <v>1405.116666666667</v>
+        <v>1359.633333333333</v>
       </c>
       <c r="D85">
-        <v>917.4222222222222</v>
+        <v>969.7021276595744</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2148,16 +2151,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.717391304347826</v>
+        <v>1.717171717171717</v>
       </c>
       <c r="C86">
-        <v>872.5436893203884</v>
+        <v>850.8660714285714</v>
       </c>
       <c r="D86">
-        <v>1187.694444444444</v>
+        <v>1231.878787878788</v>
       </c>
       <c r="E86">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2165,16 +2168,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>2.050632911392405</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="C87">
-        <v>877.3820224719101</v>
+        <v>856.1354166666666</v>
       </c>
       <c r="D87">
-        <v>1189.166666666667</v>
+        <v>1036.333333333333</v>
       </c>
       <c r="E87">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2182,16 +2185,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.018867924528302</v>
+        <v>2.017241379310345</v>
       </c>
       <c r="C88">
-        <v>779.6896551724138</v>
+        <v>779.9047619047619</v>
       </c>
       <c r="D88">
-        <v>962.3571428571429</v>
+        <v>933.6470588235294</v>
       </c>
       <c r="E88">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2199,16 +2202,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>1.795454545454545</v>
+        <v>2.060606060606061</v>
       </c>
       <c r="C89">
-        <v>872.0862068965517</v>
+        <v>950.5106382978723</v>
       </c>
       <c r="D89">
-        <v>1049.625</v>
+        <v>1085.727272727273</v>
       </c>
       <c r="E89">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2216,13 +2219,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.482758620689655</v>
+        <v>1.594827586206897</v>
       </c>
       <c r="C90">
-        <v>3124.116666666667</v>
+        <v>980.2083333333334</v>
       </c>
       <c r="D90">
-        <v>887.7564102564103</v>
+        <v>871.9111111111112</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2233,16 +2236,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>3.240740740740741</v>
+        <v>3.298245614035088</v>
       </c>
       <c r="C91">
-        <v>2227.363636363636</v>
+        <v>2285.948275862069</v>
       </c>
       <c r="D91">
-        <v>1910</v>
+        <v>1820.555555555556</v>
       </c>
       <c r="E91">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2250,16 +2253,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="C92">
-        <v>878.2777777777778</v>
+        <v>829.7619047619048</v>
       </c>
       <c r="D92">
         <v>1870</v>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2267,13 +2270,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.391666666666667</v>
+        <v>1.408333333333333</v>
       </c>
       <c r="C93">
-        <v>1226.083333333333</v>
+        <v>1198.75</v>
       </c>
       <c r="D93">
-        <v>839.2222222222222</v>
+        <v>835.771186440678</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2284,16 +2287,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>2.133333333333333</v>
+        <v>2.411764705882353</v>
       </c>
       <c r="C94">
-        <v>1273.611111111111</v>
+        <v>1386.764705882353</v>
       </c>
       <c r="D94">
-        <v>1840.333333333333</v>
+        <v>1805.727272727273</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2301,13 +2304,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.130434782608696</v>
+        <v>3.160714285714286</v>
       </c>
       <c r="C95">
-        <v>1783.941666666667</v>
+        <v>1832.35</v>
       </c>
       <c r="D95">
-        <v>2449.125</v>
+        <v>2457.222222222222</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2397,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2.16</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="C101">
-        <v>1276.551724137931</v>
+        <v>1286.166666666667</v>
       </c>
       <c r="D101">
-        <v>1250.333333333333</v>
+        <v>1165.285714285714</v>
       </c>
       <c r="E101">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2414,16 +2417,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.265625</v>
+        <v>1.25</v>
       </c>
       <c r="C102">
-        <v>749.1076923076923</v>
+        <v>748.5507246376811</v>
       </c>
       <c r="D102">
-        <v>800.4615384615385</v>
+        <v>776.0666666666667</v>
       </c>
       <c r="E102">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2454,7 +2457,7 @@
         <v>1200</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2462,16 +2465,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>1.952380952380952</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>682</v>
+        <v>706.7692307692307</v>
       </c>
       <c r="D105">
         <v>855</v>
       </c>
       <c r="E105">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2479,16 +2482,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>2.333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="C106">
-        <v>730.5555555555555</v>
+        <v>732.5</v>
       </c>
       <c r="D106">
         <v>1200</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2496,30 +2499,33 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="C107">
-        <v>785.3571428571429</v>
+        <v>768.125</v>
       </c>
       <c r="D107">
-        <v>1052</v>
+        <v>950</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
       <c r="C108">
-        <v>635</v>
+        <v>1242.5</v>
       </c>
       <c r="D108">
-        <v>780</v>
+        <v>1564</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2527,16 +2533,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>1.829268292682927</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="C109">
-        <v>797.9047619047619</v>
+        <v>794.8139534883721</v>
       </c>
       <c r="D109">
-        <v>950.25</v>
+        <v>1029.153846153846</v>
       </c>
       <c r="E109">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2544,16 +2550,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1.621621621621622</v>
+        <v>1.560975609756098</v>
       </c>
       <c r="C110">
-        <v>1565.263157894737</v>
+        <v>1568.095238095238</v>
       </c>
       <c r="D110">
-        <v>978.516129032258</v>
+        <v>973.8857142857142</v>
       </c>
       <c r="E110">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2561,16 +2567,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>2.1875</v>
+        <v>2.3</v>
       </c>
       <c r="C111">
-        <v>733.1764705882352</v>
+        <v>752.5833333333334</v>
       </c>
       <c r="D111">
         <v>900</v>
       </c>
       <c r="E111">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2578,16 +2584,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.217391304347826</v>
+        <v>2.275</v>
       </c>
       <c r="C112">
-        <v>781.7254901960785</v>
+        <v>786.1111111111111</v>
       </c>
       <c r="D112">
-        <v>992.1904761904761</v>
+        <v>994.8421052631579</v>
       </c>
       <c r="E112">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2595,16 +2601,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>2.333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="C113">
-        <v>575</v>
+        <v>522.5</v>
       </c>
       <c r="D113">
         <v>1700</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2612,16 +2618,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>1.925925925925926</v>
+        <v>1.796875</v>
       </c>
       <c r="C114">
-        <v>1643.070175438596</v>
+        <v>1633.731343283582</v>
       </c>
       <c r="D114">
-        <v>1102.068181818182</v>
+        <v>1079.5</v>
       </c>
       <c r="E114">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2629,16 +2635,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>2.222222222222222</v>
+        <v>2.25</v>
       </c>
       <c r="C115">
-        <v>751.8181818181819</v>
+        <v>765.7142857142857</v>
       </c>
       <c r="D115">
-        <v>933.3333333333334</v>
+        <v>1040</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -750,16 +750,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.105263157894737</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="C2">
-        <v>1025.2</v>
+        <v>1026.526315789474</v>
       </c>
       <c r="D2">
         <v>1006.6</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -767,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.88</v>
+        <v>1.826086956521739</v>
       </c>
       <c r="C3">
-        <v>649.375</v>
+        <v>637.4137931034483</v>
       </c>
       <c r="D3">
-        <v>1550</v>
+        <v>1666.666666666667</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -787,10 +787,10 @@
         <v>2.166666666666667</v>
       </c>
       <c r="C4">
-        <v>887.1428571428571</v>
+        <v>904.2857142857143</v>
       </c>
       <c r="D4">
-        <v>1094.666666666667</v>
+        <v>1042</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.508333333333333</v>
+        <v>1.516949152542373</v>
       </c>
       <c r="C7">
-        <v>865.325</v>
+        <v>866.8333333333334</v>
       </c>
       <c r="D7">
-        <v>880.625</v>
+        <v>896.6410256410256</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -849,13 +849,13 @@
         <v>2.179487179487179</v>
       </c>
       <c r="C8">
-        <v>667.5714285714286</v>
+        <v>663.0666666666667</v>
       </c>
       <c r="D8">
-        <v>874.1</v>
+        <v>889.7777777777778</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -863,16 +863,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.266666666666667</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="C9">
-        <v>717.5</v>
+        <v>711.0714285714286</v>
       </c>
       <c r="D9">
-        <v>1130</v>
+        <v>1220</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -897,10 +897,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.888888888888889</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="C11">
-        <v>887.2222222222222</v>
+        <v>852.5</v>
       </c>
       <c r="D11">
         <v>1178</v>
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.734513274336283</v>
+        <v>2.705357142857143</v>
       </c>
       <c r="C14">
-        <v>569.1769911504425</v>
+        <v>582.2212389380531</v>
       </c>
       <c r="D14">
-        <v>1328</v>
+        <v>1408.5</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="C15">
-        <v>867.5</v>
+        <v>881</v>
       </c>
       <c r="D15">
         <v>1600</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,16 +970,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2.071428571428572</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="C16">
-        <v>736.1020408163265</v>
+        <v>724.7115384615385</v>
       </c>
       <c r="D16">
-        <v>889.1538461538462</v>
+        <v>867.2666666666667</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1004,13 +1004,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.555555555555556</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="C18">
-        <v>824.8559322033898</v>
+        <v>853.0338983050848</v>
       </c>
       <c r="D18">
-        <v>902.8367346938776</v>
+        <v>980.4791666666666</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1021,16 +1021,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2.543478260869565</v>
+        <v>2.452380952380953</v>
       </c>
       <c r="C19">
-        <v>688.0943396226415</v>
+        <v>697.1836734693877</v>
       </c>
       <c r="D19">
         <v>1368.857142857143</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1038,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1.538461538461539</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="C20">
-        <v>518.0769230769231</v>
+        <v>507.7272727272727</v>
       </c>
       <c r="D20">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,33 +1055,24 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="C21">
-        <v>891.6666666666666</v>
+        <v>1256.25</v>
       </c>
       <c r="D21">
-        <v>1270</v>
+        <v>1624</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>900</v>
-      </c>
-      <c r="D22">
-        <v>1100</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,16 +1080,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.714285714285714</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="C23">
-        <v>856.6666666666666</v>
+        <v>871.4285714285714</v>
       </c>
       <c r="D23">
         <v>1047</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,16 +1097,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.764705882352941</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="C24">
-        <v>511.7777777777778</v>
+        <v>516.35</v>
       </c>
       <c r="D24">
         <v>983.3333333333334</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1114,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1.794871794871795</v>
+        <v>1.784810126582278</v>
       </c>
       <c r="C25">
-        <v>647.1927710843373</v>
+        <v>646.6309523809524</v>
       </c>
       <c r="D25">
         <v>754.7619047619048</v>
       </c>
       <c r="E25">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,16 +1131,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1.914893617021277</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="C26">
-        <v>739.48</v>
+        <v>739.5625</v>
       </c>
       <c r="D26">
-        <v>903.5</v>
+        <v>918.2857142857143</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1177,10 +1168,13 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>975</v>
+        <v>898.75</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1205,13 +1199,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="C30">
-        <v>645.3846153846154</v>
+        <v>616.7857142857143</v>
       </c>
       <c r="D30">
-        <v>1075</v>
+        <v>900</v>
       </c>
       <c r="E30">
         <v>14</v>
@@ -1222,16 +1216,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>1.733333333333333</v>
+        <v>1.8125</v>
       </c>
       <c r="C31">
-        <v>829.4117647058823</v>
+        <v>855.5555555555555</v>
       </c>
       <c r="D31">
-        <v>1006.4</v>
+        <v>980.3333333333334</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1256,16 +1250,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="C33">
-        <v>1138</v>
+        <v>1222.5</v>
       </c>
       <c r="D33">
         <v>1375</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,16 +1267,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>2.317073170731707</v>
+        <v>2.238095238095238</v>
       </c>
       <c r="C34">
-        <v>824.8936170212766</v>
+        <v>802.7083333333334</v>
       </c>
       <c r="D34">
-        <v>1251.304347826087</v>
+        <v>1216.25</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>820.625</v>
+        <v>817.5</v>
       </c>
       <c r="D35">
         <v>1025</v>
@@ -1321,16 +1315,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.757142857142857</v>
+        <v>1.761194029850746</v>
       </c>
       <c r="C37">
-        <v>628.2625</v>
+        <v>625.7922077922078</v>
       </c>
       <c r="D37">
-        <v>824.6666666666666</v>
+        <v>830.1836734693877</v>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,16 +1332,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1.692307692307692</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="C38">
-        <v>1275.625</v>
+        <v>1244.705882352941</v>
       </c>
       <c r="D38">
-        <v>976.6666666666666</v>
+        <v>924.2857142857143</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1389,16 +1383,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.048780487804878</v>
+        <v>1.953488372093023</v>
       </c>
       <c r="C41">
-        <v>615.7142857142857</v>
+        <v>623.448275862069</v>
       </c>
       <c r="D41">
-        <v>1218.090909090909</v>
+        <v>1205.545454545455</v>
       </c>
       <c r="E41">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,16 +1400,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>2.390243902439024</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="C42">
-        <v>813.025</v>
+        <v>825.5526315789474</v>
       </c>
       <c r="D42">
         <v>961.9411764705883</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,16 +1417,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.9125</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="C43">
-        <v>685.8915662650602</v>
+        <v>686.575</v>
       </c>
       <c r="D43">
-        <v>989.8709677419355</v>
+        <v>979.6896551724138</v>
       </c>
       <c r="E43">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1471,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>2.3</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C46">
-        <v>3282.5</v>
+        <v>3561.111111111111</v>
       </c>
       <c r="D46">
         <v>683.3333333333334</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,16 +1482,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>1.981651376146789</v>
+        <v>1.981132075471698</v>
       </c>
       <c r="C47">
-        <v>1108.518181818182</v>
+        <v>1119.691588785047</v>
       </c>
       <c r="D47">
-        <v>1027.714285714286</v>
+        <v>1029.032608695652</v>
       </c>
       <c r="E47">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1522,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="C49">
-        <v>1411.666666666667</v>
+        <v>1402.857142857143</v>
       </c>
       <c r="D49">
-        <v>1637.5</v>
+        <v>1710</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1539,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>2.103448275862069</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="C50">
-        <v>806</v>
+        <v>812.8571428571429</v>
       </c>
       <c r="D50">
         <v>1085.555555555556</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1556,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2.125</v>
+        <v>2.121212121212121</v>
       </c>
       <c r="C51">
-        <v>1032.164556962025</v>
+        <v>1025.197530864197</v>
       </c>
       <c r="D51">
-        <v>1035.642857142857</v>
+        <v>1069.153846153846</v>
       </c>
       <c r="E51">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1573,16 +1567,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1.814814814814815</v>
+        <v>1.804878048780488</v>
       </c>
       <c r="C52">
-        <v>654.1084337349398</v>
+        <v>651.0833333333334</v>
       </c>
       <c r="D52">
-        <v>746.96</v>
+        <v>707.25</v>
       </c>
       <c r="E52">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1590,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>2.666666666666667</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C53">
-        <v>846</v>
+        <v>741.7777777777778</v>
       </c>
       <c r="D53">
-        <v>1406</v>
+        <v>1104</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1607,16 +1601,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1.962962962962963</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="C54">
-        <v>1124.964285714286</v>
+        <v>1074.322580645161</v>
       </c>
       <c r="D54">
-        <v>1173.7</v>
+        <v>1148.7</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1624,10 +1618,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>2.03125</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>684.078947368421</v>
+        <v>678.2631578947369</v>
       </c>
       <c r="D55">
         <v>1100</v>
@@ -1641,13 +1635,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>2.051020408163265</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>1205.083333333333</v>
+        <v>1208.5</v>
       </c>
       <c r="D56">
-        <v>1306.054054054054</v>
+        <v>1298</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -1658,13 +1652,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>1.940594059405941</v>
+        <v>1.9</v>
       </c>
       <c r="C57">
-        <v>778.8833333333333</v>
+        <v>787.65</v>
       </c>
       <c r="D57">
-        <v>1053.25</v>
+        <v>1048.041666666667</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -1675,13 +1669,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1.830508474576271</v>
+        <v>1.974789915966387</v>
       </c>
       <c r="C58">
-        <v>1662.266666666667</v>
+        <v>1648.525</v>
       </c>
       <c r="D58">
-        <v>1113.218181818182</v>
+        <v>1075.216666666667</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -1692,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2.383333333333333</v>
+        <v>2.410714285714286</v>
       </c>
       <c r="C59">
-        <v>791.7903225806451</v>
+        <v>822.4310344827586</v>
       </c>
       <c r="D59">
-        <v>1116.923076923077</v>
+        <v>1110</v>
       </c>
       <c r="E59">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1709,13 +1703,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>1.972222222222222</v>
+        <v>1.981308411214953</v>
       </c>
       <c r="C60">
-        <v>1275.294117647059</v>
+        <v>1326.90756302521</v>
       </c>
       <c r="D60">
-        <v>870.8333333333334</v>
+        <v>873.84</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -1726,13 +1720,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>1.767241379310345</v>
+        <v>1.778761061946903</v>
       </c>
       <c r="C61">
-        <v>1137.216666666667</v>
+        <v>1158.394957983193</v>
       </c>
       <c r="D61">
-        <v>1016.842105263158</v>
+        <v>951.060606060606</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -1743,16 +1737,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>2.421052631578947</v>
+        <v>2.45</v>
       </c>
       <c r="C62">
-        <v>889.3061224489796</v>
+        <v>900.5098039215686</v>
       </c>
       <c r="D62">
-        <v>1160.8125</v>
+        <v>1166.8125</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1760,13 +1754,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>2.067226890756303</v>
+        <v>2.093220338983051</v>
       </c>
       <c r="C63">
-        <v>1155.775</v>
+        <v>1144.066666666667</v>
       </c>
       <c r="D63">
-        <v>1345.896551724138</v>
+        <v>1407.409836065574</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -1777,13 +1771,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>1.787610619469026</v>
+        <v>1.79646017699115</v>
       </c>
       <c r="C64">
-        <v>848.0333333333333</v>
+        <v>848.1916666666667</v>
       </c>
       <c r="D64">
-        <v>752.7884615384615</v>
+        <v>751.8627450980392</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -1794,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>2.523255813953488</v>
+        <v>2.493975903614458</v>
       </c>
       <c r="C65">
-        <v>907.6041666666666</v>
+        <v>908.8279569892474</v>
       </c>
       <c r="D65">
-        <v>1205.214285714286</v>
+        <v>1166.714285714286</v>
       </c>
       <c r="E65">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1811,13 +1805,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>2.203703703703704</v>
+        <v>2.212962962962963</v>
       </c>
       <c r="C66">
-        <v>993.8083333333333</v>
+        <v>991.4833333333333</v>
       </c>
       <c r="D66">
-        <v>1274.833333333333</v>
+        <v>1270.679245283019</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -1831,10 +1825,10 @@
         <v>2.297029702970297</v>
       </c>
       <c r="C67">
-        <v>1030.226890756303</v>
+        <v>1082.764705882353</v>
       </c>
       <c r="D67">
-        <v>967</v>
+        <v>992.7777777777778</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -1845,13 +1839,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.373626373626374</v>
+        <v>2.825581395348837</v>
       </c>
       <c r="C68">
-        <v>1613.358333333333</v>
+        <v>1507.233333333333</v>
       </c>
       <c r="D68">
-        <v>1271.25</v>
+        <v>2150.96</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -1862,16 +1856,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>2.531914893617021</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="C69">
-        <v>1042.969072164949</v>
+        <v>1048.102272727273</v>
       </c>
       <c r="D69">
-        <v>1238.344827586207</v>
+        <v>1120.923076923077</v>
       </c>
       <c r="E69">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1879,16 +1873,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>2.052631578947369</v>
+        <v>2.017857142857143</v>
       </c>
       <c r="C70">
-        <v>1051.649122807018</v>
+        <v>1064.982142857143</v>
       </c>
       <c r="D70">
-        <v>1264.277777777778</v>
+        <v>1323.076923076923</v>
       </c>
       <c r="E70">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1896,13 +1890,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1.805555555555556</v>
+        <v>1.813084112149533</v>
       </c>
       <c r="C71">
-        <v>913.3193277310925</v>
+        <v>905.8403361344538</v>
       </c>
       <c r="D71">
-        <v>1166.48</v>
+        <v>1148.592592592593</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -1913,13 +1907,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1.636363636363636</v>
+        <v>1.757009345794392</v>
       </c>
       <c r="C72">
-        <v>1074.791666666667</v>
+        <v>1122.508333333333</v>
       </c>
       <c r="D72">
-        <v>957.265625</v>
+        <v>1004.298245614035</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -1930,13 +1924,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1.473684210526316</v>
+        <v>1.482142857142857</v>
       </c>
       <c r="C73">
-        <v>806.3666666666667</v>
+        <v>823.5166666666667</v>
       </c>
       <c r="D73">
-        <v>826.4625</v>
+        <v>857.4050632911392</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -1947,13 +1941,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>1.80188679245283</v>
+        <v>1.757009345794392</v>
       </c>
       <c r="C74">
-        <v>1474.15</v>
+        <v>1471.641666666667</v>
       </c>
       <c r="D74">
-        <v>1001.959183673469</v>
+        <v>994.8163265306123</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -1964,13 +1958,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>2.241379310344827</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="C75">
-        <v>1073.40625</v>
+        <v>1015.90625</v>
       </c>
       <c r="D75">
-        <v>1345.722222222222</v>
+        <v>1303.470588235294</v>
       </c>
       <c r="E75">
         <v>32</v>
@@ -1981,13 +1975,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>1.848214285714286</v>
+        <v>1.911504424778761</v>
       </c>
       <c r="C76">
-        <v>1034.066666666667</v>
+        <v>994.5126050420168</v>
       </c>
       <c r="D76">
-        <v>1196.845070422535</v>
+        <v>1205.920634920635</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -1998,13 +1992,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>1.28695652173913</v>
+        <v>1.440366972477064</v>
       </c>
       <c r="C77">
-        <v>1492.441666666667</v>
+        <v>1485.75</v>
       </c>
       <c r="D77">
-        <v>842.7831325301205</v>
+        <v>882</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -2018,13 +2012,13 @@
         <v>1.92</v>
       </c>
       <c r="C78">
-        <v>808.72</v>
+        <v>810.3076923076923</v>
       </c>
       <c r="D78">
-        <v>1244</v>
+        <v>1174.166666666667</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2032,13 +2026,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>2.345132743362832</v>
+        <v>2.181034482758621</v>
       </c>
       <c r="C79">
-        <v>1527.091666666667</v>
+        <v>1386.716666666667</v>
       </c>
       <c r="D79">
-        <v>974.3720930232558</v>
+        <v>969.2978723404256</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -2049,16 +2043,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>1.909090909090909</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="C80">
-        <v>856</v>
+        <v>904.4444444444445</v>
       </c>
       <c r="D80">
-        <v>664.75</v>
+        <v>694.6666666666666</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2066,13 +2060,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>1.963636363636364</v>
+        <v>2.018181818181818</v>
       </c>
       <c r="C81">
-        <v>1278.655462184874</v>
+        <v>1282.764705882353</v>
       </c>
       <c r="D81">
-        <v>1443.181818181818</v>
+        <v>1458.454545454545</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -2083,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>1.852941176470588</v>
+        <v>1.946428571428571</v>
       </c>
       <c r="C82">
-        <v>785.5</v>
+        <v>796.9516129032259</v>
       </c>
       <c r="D82">
-        <v>873.6666666666666</v>
+        <v>857.2258064516129</v>
       </c>
       <c r="E82">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2100,16 +2094,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1.827272727272727</v>
+        <v>1.825688073394495</v>
       </c>
       <c r="C83">
-        <v>996.6521739130435</v>
+        <v>994.2543859649123</v>
       </c>
       <c r="D83">
-        <v>1025.911764705882</v>
+        <v>1023.205882352941</v>
       </c>
       <c r="E83">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2117,16 +2111,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1.590163934426229</v>
+        <v>1.53448275862069</v>
       </c>
       <c r="C84">
-        <v>1061.938461538462</v>
+        <v>1073.483870967742</v>
       </c>
       <c r="D84">
-        <v>1282.214285714286</v>
+        <v>1022.818181818182</v>
       </c>
       <c r="E84">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2134,13 +2128,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1.536363636363636</v>
+        <v>1.626086956521739</v>
       </c>
       <c r="C85">
-        <v>1359.633333333333</v>
+        <v>1405.775</v>
       </c>
       <c r="D85">
-        <v>969.7021276595744</v>
+        <v>1006</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -2151,16 +2145,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.717171717171717</v>
+        <v>1.772277227722772</v>
       </c>
       <c r="C86">
-        <v>850.8660714285714</v>
+        <v>854.3421052631579</v>
       </c>
       <c r="D86">
-        <v>1231.878787878788</v>
+        <v>1242.756756756757</v>
       </c>
       <c r="E86">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2168,16 +2162,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>1.976744186046512</v>
+        <v>1.975903614457831</v>
       </c>
       <c r="C87">
-        <v>856.1354166666666</v>
+        <v>863.9230769230769</v>
       </c>
       <c r="D87">
-        <v>1036.333333333333</v>
+        <v>1018.333333333333</v>
       </c>
       <c r="E87">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2185,16 +2179,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.017241379310345</v>
+        <v>2.1</v>
       </c>
       <c r="C88">
-        <v>779.9047619047619</v>
+        <v>788.6769230769231</v>
       </c>
       <c r="D88">
-        <v>933.6470588235294</v>
+        <v>2285.333333333333</v>
       </c>
       <c r="E88">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2202,16 +2196,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>2.060606060606061</v>
+        <v>2.1</v>
       </c>
       <c r="C89">
-        <v>950.5106382978723</v>
+        <v>976</v>
       </c>
       <c r="D89">
-        <v>1085.727272727273</v>
+        <v>1153.368421052632</v>
       </c>
       <c r="E89">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2219,13 +2213,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1.594827586206897</v>
+        <v>1.620689655172414</v>
       </c>
       <c r="C90">
-        <v>980.2083333333334</v>
+        <v>992.8166666666667</v>
       </c>
       <c r="D90">
-        <v>871.9111111111112</v>
+        <v>865.5851063829788</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -2236,16 +2230,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>3.298245614035088</v>
+        <v>3.310344827586207</v>
       </c>
       <c r="C91">
-        <v>2285.948275862069</v>
+        <v>2297.203389830509</v>
       </c>
       <c r="D91">
         <v>1820.555555555556</v>
       </c>
       <c r="E91">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2253,16 +2247,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2.4</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="C92">
-        <v>829.7619047619048</v>
+        <v>817</v>
       </c>
       <c r="D92">
-        <v>1870</v>
+        <v>1721.25</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2270,13 +2264,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>1.408333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="C93">
-        <v>1198.75</v>
+        <v>1205.041666666667</v>
       </c>
       <c r="D93">
-        <v>835.771186440678</v>
+        <v>834.0683760683761</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -2287,10 +2281,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>2.411764705882353</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="C94">
-        <v>1386.764705882353</v>
+        <v>1404.411764705882</v>
       </c>
       <c r="D94">
         <v>1805.727272727273</v>
@@ -2304,13 +2298,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>3.160714285714286</v>
+        <v>3.096491228070176</v>
       </c>
       <c r="C95">
-        <v>1832.35</v>
+        <v>1780.933333333333</v>
       </c>
       <c r="D95">
-        <v>2457.222222222222</v>
+        <v>2239.424242424242</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -2400,16 +2394,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2.038461538461538</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>1286.166666666667</v>
+        <v>1265.967741935484</v>
       </c>
       <c r="D101">
-        <v>1165.285714285714</v>
+        <v>1128.266666666667</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2417,16 +2411,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.25</v>
+        <v>1.242857142857143</v>
       </c>
       <c r="C102">
-        <v>748.5507246376811</v>
+        <v>751.4084507042254</v>
       </c>
       <c r="D102">
-        <v>776.0666666666667</v>
+        <v>761.2352941176471</v>
       </c>
       <c r="E102">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2434,10 +2428,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>1.571428571428571</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C103">
-        <v>735</v>
+        <v>702.8571428571429</v>
       </c>
       <c r="D103">
         <v>1377</v>
@@ -2468,13 +2462,13 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>706.7692307692307</v>
+        <v>714</v>
       </c>
       <c r="D105">
         <v>855</v>
       </c>
       <c r="E105">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2499,16 +2493,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>1.785714285714286</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C107">
-        <v>768.125</v>
+        <v>779.3333333333334</v>
       </c>
       <c r="D107">
         <v>950</v>
       </c>
       <c r="E107">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2533,16 +2527,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>1.86046511627907</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="C109">
-        <v>794.8139534883721</v>
+        <v>820.7608695652174</v>
       </c>
       <c r="D109">
-        <v>1029.153846153846</v>
+        <v>1102.6</v>
       </c>
       <c r="E109">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2567,16 +2561,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>2.3</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="C111">
-        <v>752.5833333333334</v>
+        <v>744.6923076923077</v>
       </c>
       <c r="D111">
-        <v>900</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2584,13 +2578,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>2.275</v>
+        <v>2.35</v>
       </c>
       <c r="C112">
-        <v>786.1111111111111</v>
+        <v>786.0222222222222</v>
       </c>
       <c r="D112">
-        <v>994.8421052631579</v>
+        <v>1007.470588235294</v>
       </c>
       <c r="E112">
         <v>45</v>
@@ -2618,16 +2612,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>1.796875</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="C114">
-        <v>1633.731343283582</v>
+        <v>1590.642857142857</v>
       </c>
       <c r="D114">
-        <v>1079.5</v>
+        <v>1058.094339622641</v>
       </c>
       <c r="E114">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2635,16 +2629,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>2.25</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="C115">
-        <v>765.7142857142857</v>
+        <v>774.6153846153846</v>
       </c>
       <c r="D115">
         <v>1040</v>
       </c>
       <c r="E115">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colto\OneDrive\Documents\GitHub\Homi_DFP2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC02271AEE0C0160B5B6B48D47E53FC10FF" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{E13FE7C8-8A7E-4340-9BD0-501FE3E002C3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -379,8 +373,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,14 +437,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -497,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,27 +515,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,24 +549,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,19 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="5" max="5" width="18.15625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>2.0555555555555549</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D2">
         <v>1001.2</v>
@@ -823,13 +768,13 @@
         <v>1006.6</v>
       </c>
       <c r="F2">
-        <v>541.18918918918916</v>
+        <v>541.1891891891892</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,19 +785,19 @@
         <v>1.826086956521739</v>
       </c>
       <c r="D3">
-        <v>635.86206896551721</v>
+        <v>635.8620689655172</v>
       </c>
       <c r="E3">
         <v>1666.666666666667</v>
       </c>
       <c r="F3">
-        <v>439.04761904761898</v>
+        <v>439.047619047619</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,19 +808,19 @@
         <v>2.166666666666667</v>
       </c>
       <c r="D4">
-        <v>904.28571428571433</v>
+        <v>904.2857142857143</v>
       </c>
       <c r="E4">
         <v>1042</v>
       </c>
       <c r="F4">
-        <v>486.92307692307691</v>
+        <v>486.9230769230769</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,45 +848,45 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>1.5338983050847459</v>
+        <v>1.550847457627119</v>
       </c>
       <c r="D6">
-        <v>870.7</v>
+        <v>884.925</v>
       </c>
       <c r="E6">
-        <v>901</v>
+        <v>915.4047619047619</v>
       </c>
       <c r="F6">
-        <v>577.25966850828729</v>
+        <v>580.2786885245902</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>2.15</v>
+        <v>2.175</v>
       </c>
       <c r="D7">
-        <v>659.52173913043475</v>
+        <v>663.0666666666667</v>
       </c>
       <c r="E7">
-        <v>889.77777777777783</v>
+        <v>889.7777777777778</v>
       </c>
       <c r="F7">
-        <v>352.76744186046511</v>
+        <v>342.9655172413793</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,22 +894,22 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>2.3571428571428572</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D8">
         <v>710</v>
       </c>
       <c r="E8">
-        <v>1278.4000000000001</v>
+        <v>1278.4</v>
       </c>
       <c r="F8">
-        <v>322.72727272727269</v>
+        <v>322.7272727272727</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,13 +926,13 @@
         <v>2000</v>
       </c>
       <c r="F9">
-        <v>666.66666666666663</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -995,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1.7894736842105261</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="D10">
         <v>851.0526315789474</v>
@@ -1004,13 +949,13 @@
         <v>1145.75</v>
       </c>
       <c r="F10">
-        <v>475.58823529411762</v>
+        <v>475.5882352941176</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,13 +969,13 @@
         <v>1025</v>
       </c>
       <c r="F11">
-        <v>341.66666666666669</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1038,22 +983,22 @@
         <v>120</v>
       </c>
       <c r="C12">
-        <v>2.7053571428571428</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D12">
-        <v>582.12389380530976</v>
+        <v>578.4955752212389</v>
       </c>
       <c r="E12">
-        <v>1408.5</v>
+        <v>1384</v>
       </c>
       <c r="F12">
-        <v>217.0957095709571</v>
+        <v>215.0328947368421</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1070,36 +1015,36 @@
         <v>1600</v>
       </c>
       <c r="F13">
-        <v>367.08333333333331</v>
+        <v>367.0833333333333</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>2.0217391304347831</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>723.47169811320759</v>
+        <v>718.2222222222222</v>
       </c>
       <c r="E14">
-        <v>881.05555555555554</v>
+        <v>881.0555555555555</v>
       </c>
       <c r="F14">
-        <v>412.30107526881721</v>
+        <v>412.5957446808511</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1116,13 +1061,13 @@
         <v>1240</v>
       </c>
       <c r="F15">
-        <v>426.33333333333331</v>
+        <v>426.3333333333333</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1130,45 +1075,45 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>1.6111111111111109</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D16">
-        <v>855.95762711864404</v>
+        <v>855.957627118644</v>
       </c>
       <c r="E16">
-        <v>975.77551020408168</v>
+        <v>975.7755102040817</v>
       </c>
       <c r="F16">
-        <v>580.47701149425291</v>
+        <v>580.4770114942529</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>2.4888888888888889</v>
+        <v>2.477272727272727</v>
       </c>
       <c r="D17">
-        <v>697.38461538461536</v>
+        <v>687.5294117647059</v>
       </c>
       <c r="E17">
-        <v>1368.8571428571429</v>
+        <v>1368.857142857143</v>
       </c>
       <c r="F17">
-        <v>323.78571428571428</v>
+        <v>321.6880733944954</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1179,19 +1124,19 @@
         <v>1.615384615384615</v>
       </c>
       <c r="D18">
-        <v>504.61538461538458</v>
+        <v>504.6153846153846</v>
       </c>
       <c r="E18">
         <v>700</v>
       </c>
       <c r="F18">
-        <v>312.38095238095241</v>
+        <v>312.3809523809524</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1208,13 +1153,13 @@
         <v>1624</v>
       </c>
       <c r="F19">
-        <v>456.81818181818181</v>
+        <v>456.8181818181818</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1233,22 +1178,22 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>2.7272727272727271</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="D21">
-        <v>850.83333333333337</v>
+        <v>850.8333333333334</v>
       </c>
       <c r="E21">
         <v>1030.666666666667</v>
       </c>
       <c r="F21">
-        <v>340.33333333333331</v>
+        <v>340.3333333333333</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1204,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D22">
-        <v>525.31818181818187</v>
+        <v>525.3181818181819</v>
       </c>
       <c r="E22">
         <v>993.5</v>
@@ -1271,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1279,45 +1224,45 @@
         <v>87</v>
       </c>
       <c r="C23">
-        <v>1.7654320987654319</v>
+        <v>1.765432098765432</v>
       </c>
       <c r="D23">
-        <v>646.34482758620686</v>
+        <v>646.3448275862069</v>
       </c>
       <c r="E23">
-        <v>754.76190476190482</v>
+        <v>754.7619047619048</v>
       </c>
       <c r="F23">
-        <v>393.23076923076923</v>
+        <v>393.2307692307692</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>1.9130434782608701</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="D24">
-        <v>741.81632653061229</v>
+        <v>736.156862745098</v>
       </c>
       <c r="E24">
-        <v>918.28571428571433</v>
+        <v>884.75</v>
       </c>
       <c r="F24">
-        <v>413.05681818181819</v>
+        <v>426.6363636363636</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1334,13 +1279,13 @@
         <v>1050</v>
       </c>
       <c r="F25">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,13 +1325,13 @@
         <v>1101</v>
       </c>
       <c r="F27">
-        <v>548.88888888888891</v>
+        <v>548.8888888888889</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1403,13 +1348,13 @@
         <v>850</v>
       </c>
       <c r="F28">
-        <v>348.80769230769232</v>
+        <v>348.8076923076923</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1417,22 +1362,22 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>1.8666666666666669</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="D29">
         <v>870</v>
       </c>
       <c r="E29">
-        <v>980.33333333333337</v>
+        <v>980.3333333333334</v>
       </c>
       <c r="F29">
-        <v>528.21428571428567</v>
+        <v>528.2142857142857</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +1400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1472,36 +1417,36 @@
         <v>1375</v>
       </c>
       <c r="F31">
-        <v>376.15384615384608</v>
+        <v>376.1538461538461</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>2.2051282051282048</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="D32">
-        <v>803.55555555555554</v>
+        <v>806.7045454545455</v>
       </c>
       <c r="E32">
         <v>1211.739130434783</v>
       </c>
       <c r="F32">
-        <v>420.46511627906978</v>
+        <v>422.5595238095238</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1524,7 +1469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1555,19 +1500,19 @@
         <v>1.75</v>
       </c>
       <c r="D35">
-        <v>623.15384615384619</v>
+        <v>623.1538461538462</v>
       </c>
       <c r="E35">
         <v>826.88</v>
       </c>
       <c r="F35">
-        <v>408.45378151260502</v>
+        <v>408.453781512605</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1526,7 @@
         <v>1244.705882352941</v>
       </c>
       <c r="E36">
-        <v>924.28571428571433</v>
+        <v>924.2857142857143</v>
       </c>
       <c r="F36">
         <v>920</v>
@@ -1590,7 +1535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1607,13 +1552,13 @@
         <v>2300</v>
       </c>
       <c r="F37">
-        <v>701.19047619047615</v>
+        <v>701.1904761904761</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1621,13 +1566,13 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>1.8888888888888891</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D38">
-        <v>663.33333333333337</v>
+        <v>663.3333333333334</v>
       </c>
       <c r="E38">
-        <v>833.33333333333337</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="F38">
         <v>351.1764705882353</v>
@@ -1636,30 +1581,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>1.928571428571429</v>
+        <v>1.953488372093023</v>
       </c>
       <c r="D39">
-        <v>622.06896551724139</v>
+        <v>623.8135593220339</v>
       </c>
       <c r="E39">
-        <v>1205.545454545455</v>
+        <v>1228.5</v>
       </c>
       <c r="F39">
-        <v>445.4320987654321</v>
+        <v>438.1547619047619</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1667,45 +1612,45 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>2.4210526315789469</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="D40">
-        <v>822.18918918918916</v>
+        <v>822.1891891891892</v>
       </c>
       <c r="E40">
-        <v>961.94117647058829</v>
+        <v>961.9411764705883</v>
       </c>
       <c r="F40">
-        <v>330.66304347826087</v>
+        <v>330.6630434782609</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41">
-        <v>1.8701298701298701</v>
+        <v>1.884615384615385</v>
       </c>
       <c r="D41">
-        <v>681.95</v>
+        <v>683.7160493827161</v>
       </c>
       <c r="E41">
-        <v>979.68965517241384</v>
+        <v>979.6896551724138</v>
       </c>
       <c r="F41">
-        <v>378.86111111111109</v>
+        <v>376.7414965986395</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1725,30 +1670,30 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>1.846153846153846</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D43">
-        <v>729.6875</v>
+        <v>734.6666666666666</v>
       </c>
       <c r="E43">
-        <v>903.75</v>
+        <v>925.7142857142857</v>
       </c>
       <c r="F43">
-        <v>486.45833333333331</v>
+        <v>479.1304347826087</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1756,13 +1701,13 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2.2222222222222219</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D44">
-        <v>3561.1111111111109</v>
+        <v>3561.111111111111</v>
       </c>
       <c r="E44">
-        <v>683.33333333333337</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="F44">
         <v>1602.5</v>
@@ -1771,30 +1716,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45">
-        <v>1.971428571428572</v>
+        <v>1.971698113207547</v>
       </c>
       <c r="D45">
-        <v>1115.6226415094341</v>
+        <v>1114.448598130841</v>
       </c>
       <c r="E45">
-        <v>1026.5934065934071</v>
+        <v>1025.619565217391</v>
       </c>
       <c r="F45">
-        <v>571.28502415458934</v>
+        <v>570.555023923445</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1817,7 +1762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1828,19 +1773,19 @@
         <v>2.714285714285714</v>
       </c>
       <c r="D47">
-        <v>1402.8571428571429</v>
+        <v>1402.857142857143</v>
       </c>
       <c r="E47">
         <v>1710</v>
       </c>
       <c r="F47">
-        <v>516.84210526315792</v>
+        <v>516.8421052631579</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1848,22 +1793,22 @@
         <v>28</v>
       </c>
       <c r="C48">
-        <v>2.1111111111111112</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D48">
-        <v>812.85714285714289</v>
+        <v>812.8571428571429</v>
       </c>
       <c r="E48">
-        <v>1085.5555555555561</v>
+        <v>1085.555555555556</v>
       </c>
       <c r="F48">
-        <v>399.29824561403512</v>
+        <v>399.2982456140351</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1871,22 +1816,22 @@
         <v>82</v>
       </c>
       <c r="C49">
-        <v>2.1515151515151509</v>
+        <v>2.151515151515151</v>
       </c>
       <c r="D49">
         <v>1033.325</v>
       </c>
       <c r="E49">
-        <v>1035.6428571428571</v>
+        <v>1035.642857142857</v>
       </c>
       <c r="F49">
-        <v>582.15492957746483</v>
+        <v>582.1549295774648</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1894,22 +1839,22 @@
         <v>89</v>
       </c>
       <c r="C50">
-        <v>1.7882352941176469</v>
+        <v>1.788235294117647</v>
       </c>
       <c r="D50">
-        <v>649.42528735632186</v>
+        <v>649.4252873563219</v>
       </c>
       <c r="E50">
         <v>707.25</v>
       </c>
       <c r="F50">
-        <v>371.71052631578948</v>
+        <v>371.7105263157895</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1917,10 +1862,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>2.2222222222222219</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D51">
-        <v>741.77777777777783</v>
+        <v>741.7777777777778</v>
       </c>
       <c r="E51">
         <v>1104</v>
@@ -1932,7 +1877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1940,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="C52">
-        <v>1.9333333333333329</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="D52">
         <v>1074.322580645161</v>
@@ -1949,13 +1894,13 @@
         <v>1148.7</v>
       </c>
       <c r="F52">
-        <v>574.20689655172418</v>
+        <v>574.2068965517242</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1966,19 +1911,19 @@
         <v>2.1</v>
       </c>
       <c r="D53">
-        <v>683.41666666666663</v>
+        <v>683.4166666666666</v>
       </c>
       <c r="E53">
         <v>1100</v>
       </c>
       <c r="F53">
-        <v>390.52380952380952</v>
+        <v>390.5238095238095</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -1986,22 +1931,22 @@
         <v>120</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1.98989898989899</v>
       </c>
       <c r="D54">
-        <v>1222.075</v>
+        <v>1224.575</v>
       </c>
       <c r="E54">
-        <v>1263.7777777777781</v>
+        <v>1226.210526315789</v>
       </c>
       <c r="F54">
-        <v>748.2091836734694</v>
+        <v>745.9340101522843</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2009,22 +1954,22 @@
         <v>120</v>
       </c>
       <c r="C55">
-        <v>1.891089108910891</v>
+        <v>1.91</v>
       </c>
       <c r="D55">
-        <v>771.5916666666667</v>
+        <v>770.2583333333333</v>
       </c>
       <c r="E55">
-        <v>1026.217391304348</v>
+        <v>1045.590909090909</v>
       </c>
       <c r="F55">
-        <v>484.76963350785343</v>
+        <v>483.9319371727749</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2032,22 +1977,22 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>1.9830508474576269</v>
+        <v>2.068376068376069</v>
       </c>
       <c r="D56">
-        <v>1618.6</v>
+        <v>1609.966666666667</v>
       </c>
       <c r="E56">
-        <v>1085.0701754385959</v>
+        <v>1189.87037037037</v>
       </c>
       <c r="F56">
-        <v>830.0512820512821</v>
+        <v>798.3305785123966</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2055,22 +2000,22 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>2.4406779661016951</v>
+        <v>2.440677966101695</v>
       </c>
       <c r="D57">
-        <v>803.09375</v>
+        <v>799.1875</v>
       </c>
       <c r="E57">
         <v>1110</v>
       </c>
       <c r="F57">
-        <v>356.93055555555549</v>
+        <v>355.1944444444445</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2081,19 +2026,19 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>1335.0504201680669</v>
+        <v>1352.747899159664</v>
       </c>
       <c r="E58">
-        <v>911.66666666666663</v>
+        <v>929.3913043478261</v>
       </c>
       <c r="F58">
-        <v>728.76605504587155</v>
+        <v>731.7136363636364</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2101,45 +2046,45 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1.787610619469026</v>
+        <v>1.823008849557522</v>
       </c>
       <c r="D59">
-        <v>1135.3949579831931</v>
+        <v>1140.521008403361</v>
       </c>
       <c r="E59">
-        <v>1044.285714285714</v>
+        <v>1039.666666666667</v>
       </c>
       <c r="F59">
-        <v>668.87128712871288</v>
+        <v>658.8446601941747</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60">
-        <v>2.463414634146341</v>
+        <v>2.452380952380953</v>
       </c>
       <c r="D60">
-        <v>905.78846153846155</v>
+        <v>906.6226415094339</v>
       </c>
       <c r="E60">
-        <v>1166.8125</v>
+        <v>1191.117647058823</v>
       </c>
       <c r="F60">
-        <v>466.34653465346543</v>
+        <v>466.5145631067961</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2147,22 +2092,22 @@
         <v>120</v>
       </c>
       <c r="C61">
-        <v>2.101694915254237</v>
+        <v>2.127118644067797</v>
       </c>
       <c r="D61">
-        <v>1150.0916666666669</v>
+        <v>1162.008333333333</v>
       </c>
       <c r="E61">
-        <v>1412.7377049180329</v>
+        <v>1421.142857142857</v>
       </c>
       <c r="F61">
-        <v>556.49596774193549</v>
+        <v>555.5418326693227</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2173,19 +2118,19 @@
         <v>1.778761061946903</v>
       </c>
       <c r="D62">
-        <v>851.57500000000005</v>
+        <v>852.2833333333333</v>
       </c>
       <c r="E62">
-        <v>750.48543689320388</v>
+        <v>751.0679611650486</v>
       </c>
       <c r="F62">
-        <v>508.40298507462688</v>
+        <v>508.8258706467662</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2193,22 +2138,22 @@
         <v>94</v>
       </c>
       <c r="C63">
-        <v>2.4819277108433742</v>
+        <v>2.481927710843374</v>
       </c>
       <c r="D63">
-        <v>905.97849462365593</v>
+        <v>905.9784946236559</v>
       </c>
       <c r="E63">
         <v>1166.714285714286</v>
       </c>
       <c r="F63">
-        <v>409.00970873786412</v>
+        <v>409.0097087378641</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2216,7 +2161,7 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>2.1941747572815529</v>
+        <v>2.194174757281553</v>
       </c>
       <c r="D64">
         <v>1000.669565217391</v>
@@ -2225,13 +2170,13 @@
         <v>1235.788461538461</v>
       </c>
       <c r="F64">
-        <v>509.19026548672571</v>
+        <v>509.1902654867257</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2239,22 +2184,22 @@
         <v>120</v>
       </c>
       <c r="C65">
-        <v>2.2574257425742572</v>
+        <v>2.267326732673267</v>
       </c>
       <c r="D65">
-        <v>1072.4789915966389</v>
+        <v>1066.084033613445</v>
       </c>
       <c r="E65">
-        <v>987.50505050505046</v>
+        <v>981.5050505050505</v>
       </c>
       <c r="F65">
-        <v>559.75877192982455</v>
+        <v>553.9912663755458</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2262,22 +2207,22 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>3.0315789473684212</v>
+        <v>2.911764705882353</v>
       </c>
       <c r="D66">
-        <v>1699.9666666666669</v>
+        <v>1703.4</v>
       </c>
       <c r="E66">
-        <v>2334.227272727273</v>
+        <v>2054.555555555556</v>
       </c>
       <c r="F66">
-        <v>708.31944444444446</v>
+        <v>688.2424242424242</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2285,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="C67">
-        <v>2.5180722891566258</v>
+        <v>2.518072289156626</v>
       </c>
       <c r="D67">
         <v>1046.720930232558</v>
@@ -2294,13 +2239,13 @@
         <v>1119.76</v>
       </c>
       <c r="F67">
-        <v>430.70813397129189</v>
+        <v>430.7081339712919</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2308,10 +2253,10 @@
         <v>54</v>
       </c>
       <c r="C68">
-        <v>2.0370370370370372</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="D68">
-        <v>1064.2407407407411</v>
+        <v>1064.240740740741</v>
       </c>
       <c r="E68">
         <v>1338.461538461539</v>
@@ -2323,7 +2268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2331,22 +2276,22 @@
         <v>120</v>
       </c>
       <c r="C69">
-        <v>1.8224299065420559</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="D69">
-        <v>913.23529411764707</v>
+        <v>914.0336134453781</v>
       </c>
       <c r="E69">
-        <v>1174.6896551724139</v>
+        <v>1157.2</v>
       </c>
       <c r="F69">
-        <v>557.30769230769226</v>
+        <v>557.7948717948718</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -2354,22 +2299,22 @@
         <v>120</v>
       </c>
       <c r="C70">
-        <v>1.736842105263158</v>
+        <v>1.774774774774775</v>
       </c>
       <c r="D70">
-        <v>1178.3499999999999</v>
+        <v>1189.283333333333</v>
       </c>
       <c r="E70">
-        <v>962.24193548387098</v>
+        <v>957.0833333333334</v>
       </c>
       <c r="F70">
-        <v>714.15151515151513</v>
+        <v>724.4365482233502</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2377,22 +2322,22 @@
         <v>120</v>
       </c>
       <c r="C71">
-        <v>1.5221238938053101</v>
+        <v>1.477477477477477</v>
       </c>
       <c r="D71">
-        <v>828.29166666666663</v>
+        <v>816.5166666666667</v>
       </c>
       <c r="E71">
-        <v>774.04109589041093</v>
+        <v>772.2191780821918</v>
       </c>
       <c r="F71">
-        <v>577.87790697674416</v>
+        <v>597.4512195121952</v>
       </c>
       <c r="G71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2403,42 +2348,42 @@
         <v>1.747663551401869</v>
       </c>
       <c r="D72">
-        <v>1470.5583333333329</v>
+        <v>1455.85</v>
       </c>
       <c r="E72">
-        <v>976.67346938775506</v>
+        <v>973.1666666666666</v>
       </c>
       <c r="F72">
-        <v>943.67379679144381</v>
+        <v>934.2352941176471</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73">
-        <v>2.2424242424242422</v>
+        <v>2.21875</v>
       </c>
       <c r="D73">
-        <v>1025.1111111111111</v>
+        <v>1020.114285714286</v>
       </c>
       <c r="E73">
         <v>1292.578947368421</v>
       </c>
       <c r="F73">
-        <v>498.70270270270271</v>
+        <v>502.8732394366197</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -2446,22 +2391,22 @@
         <v>120</v>
       </c>
       <c r="C74">
-        <v>1.956521739130435</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="D74">
-        <v>1012.823529411765</v>
+        <v>1019.596638655462</v>
       </c>
       <c r="E74">
-        <v>1252.1803278688519</v>
+        <v>1271.457627118644</v>
       </c>
       <c r="F74">
-        <v>535.67111111111114</v>
+        <v>539.2533333333333</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -2469,22 +2414,22 @@
         <v>120</v>
       </c>
       <c r="C75">
-        <v>1.325</v>
+        <v>1.378151260504202</v>
       </c>
       <c r="D75">
-        <v>1462.575</v>
+        <v>1478.133333333333</v>
       </c>
       <c r="E75">
-        <v>825.21495327102809</v>
+        <v>849.59375</v>
       </c>
       <c r="F75">
-        <v>1103.8301886792451</v>
+        <v>1081.560975609756</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -2492,22 +2437,22 @@
         <v>23</v>
       </c>
       <c r="C76">
-        <v>2.0909090909090908</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="D76">
-        <v>834.26086956521738</v>
+        <v>834.2173913043479</v>
       </c>
       <c r="E76">
         <v>1174.166666666667</v>
       </c>
       <c r="F76">
-        <v>417.13043478260869</v>
+        <v>417.1086956521739</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -2515,22 +2460,22 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>2.1592920353982299</v>
+        <v>2.15929203539823</v>
       </c>
       <c r="D77">
-        <v>1337.8166666666671</v>
+        <v>1362.616666666667</v>
       </c>
       <c r="E77">
-        <v>922.063829787234</v>
+        <v>929.9583333333334</v>
       </c>
       <c r="F77">
-        <v>657.94262295081967</v>
+        <v>670.139344262295</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -2538,22 +2483,22 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>2.1111111111111112</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D78">
-        <v>904.44444444444446</v>
+        <v>904.4444444444445</v>
       </c>
       <c r="E78">
-        <v>694.66666666666663</v>
+        <v>694.6666666666666</v>
       </c>
       <c r="F78">
-        <v>428.42105263157902</v>
+        <v>428.421052631579</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2564,65 +2509,65 @@
         <v>1.990909090909091</v>
       </c>
       <c r="D79">
-        <v>1285.932773109244</v>
+        <v>1284.588235294118</v>
       </c>
       <c r="E79">
-        <v>1487.181818181818</v>
+        <v>1470.761904761905</v>
       </c>
       <c r="F79">
-        <v>698.7488584474886</v>
+        <v>698.0182648401826</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B80">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C80">
-        <v>1.896551724137931</v>
+        <v>1.870967741935484</v>
       </c>
       <c r="D80">
-        <v>813.140625</v>
+        <v>799.5735294117648</v>
       </c>
       <c r="E80">
-        <v>874.125</v>
+        <v>871.8787878787879</v>
       </c>
       <c r="F80">
-        <v>473.1</v>
+        <v>468.7155172413793</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B81">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81">
-        <v>1.849557522123894</v>
+        <v>1.852173913043478</v>
       </c>
       <c r="D81">
-        <v>997.71186440677968</v>
+        <v>1007.375</v>
       </c>
       <c r="E81">
-        <v>1011.135135135135</v>
+        <v>1012</v>
       </c>
       <c r="F81">
-        <v>563.3014354066986</v>
+        <v>567.5352112676056</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2630,7 +2575,7 @@
         <v>62</v>
       </c>
       <c r="C82">
-        <v>1.5344827586206899</v>
+        <v>1.53448275862069</v>
       </c>
       <c r="D82">
         <v>1073.483870967742</v>
@@ -2639,13 +2584,13 @@
         <v>1022.818181818182</v>
       </c>
       <c r="F82">
-        <v>747.82022471910113</v>
+        <v>747.8202247191011</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2653,22 +2598,22 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.7565217391304351</v>
+        <v>1.719298245614035</v>
       </c>
       <c r="D83">
-        <v>1494.1833333333329</v>
+        <v>1477.433333333333</v>
       </c>
       <c r="E83">
-        <v>1064.1199999999999</v>
+        <v>1049.452830188679</v>
       </c>
       <c r="F83">
-        <v>887.63366336633658</v>
+        <v>904.5510204081633</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -2676,45 +2621,45 @@
         <v>118</v>
       </c>
       <c r="C84">
-        <v>1.7619047619047621</v>
+        <v>1.761904761904762</v>
       </c>
       <c r="D84">
-        <v>850.19491525423734</v>
+        <v>850.1949152542373</v>
       </c>
       <c r="E84">
-        <v>1210.9142857142861</v>
+        <v>1210.914285714286</v>
       </c>
       <c r="F84">
-        <v>542.28648648648652</v>
+        <v>542.2864864864865</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B85">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85">
-        <v>1.9647058823529411</v>
+        <v>1.964705882352941</v>
       </c>
       <c r="D85">
-        <v>847.76530612244903</v>
+        <v>845.1111111111111</v>
       </c>
       <c r="E85">
         <v>957.5</v>
       </c>
       <c r="F85">
-        <v>497.49101796407177</v>
+        <v>500.9940119760479</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -2722,7 +2667,7 @@
         <v>65</v>
       </c>
       <c r="C86">
-        <v>2.1186440677966099</v>
+        <v>2.11864406779661</v>
       </c>
       <c r="D86">
         <v>790.453125</v>
@@ -2731,36 +2676,36 @@
         <v>2285.333333333333</v>
       </c>
       <c r="F86">
-        <v>404.71199999999999</v>
+        <v>404.712</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B87">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>959.26530612244903</v>
+        <v>919.4193548387096</v>
       </c>
       <c r="E87">
-        <v>1069.666666666667</v>
+        <v>936.0540540540541</v>
       </c>
       <c r="F87">
-        <v>635.18918918918916</v>
+        <v>570.04</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -2768,22 +2713,22 @@
         <v>120</v>
       </c>
       <c r="C88">
-        <v>1.6293103448275861</v>
+        <v>1.629310344827586</v>
       </c>
       <c r="D88">
-        <v>990.35833333333335</v>
+        <v>990.3583333333333</v>
       </c>
       <c r="E88">
-        <v>861.57894736842104</v>
+        <v>861.578947368421</v>
       </c>
       <c r="F88">
-        <v>628.79894179894177</v>
+        <v>628.7989417989418</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -2791,22 +2736,22 @@
         <v>61</v>
       </c>
       <c r="C89">
-        <v>3.2666666666666671</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="D89">
-        <v>2256.2295081967209</v>
+        <v>2256.229508196721</v>
       </c>
       <c r="E89">
-        <v>1820.5555555555561</v>
+        <v>1820.555555555556</v>
       </c>
       <c r="F89">
-        <v>702.19387755102036</v>
+        <v>702.1938775510204</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -2814,22 +2759,22 @@
         <v>21</v>
       </c>
       <c r="C90">
-        <v>2.5789473684210531</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="D90">
-        <v>816.19047619047615</v>
+        <v>816.1904761904761</v>
       </c>
       <c r="E90">
         <v>1721.25</v>
       </c>
       <c r="F90">
-        <v>349.79591836734693</v>
+        <v>349.7959183673469</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -2837,22 +2782,22 @@
         <v>120</v>
       </c>
       <c r="C91">
-        <v>1.408333333333333</v>
+        <v>1.441666666666667</v>
       </c>
       <c r="D91">
-        <v>1194.75</v>
+        <v>1204.583333333333</v>
       </c>
       <c r="E91">
-        <v>834.92307692307691</v>
+        <v>848.9316239316239</v>
       </c>
       <c r="F91">
-        <v>848.34319526627223</v>
+        <v>835.5491329479769</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -2860,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="C92">
-        <v>2.4705882352941182</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="D92">
         <v>1404.411764705882</v>
@@ -2869,13 +2814,13 @@
         <v>1805.727272727273</v>
       </c>
       <c r="F92">
-        <v>568.45238095238096</v>
+        <v>568.452380952381</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -2883,22 +2828,22 @@
         <v>120</v>
       </c>
       <c r="C93">
-        <v>3.0619469026548671</v>
+        <v>3.035398230088496</v>
       </c>
       <c r="D93">
-        <v>1721.133333333333</v>
+        <v>1686.55</v>
       </c>
       <c r="E93">
-        <v>2222.6129032258059</v>
+        <v>2249</v>
       </c>
       <c r="F93">
-        <v>596.92485549132948</v>
+        <v>590.0466472303207</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -2915,13 +2860,13 @@
         <v>1124</v>
       </c>
       <c r="F94">
-        <v>341.66666666666669</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="G94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -2944,7 +2889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -2964,7 +2909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -2984,7 +2929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -3007,7 +2952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -3015,45 +2960,45 @@
         <v>30</v>
       </c>
       <c r="C99">
-        <v>2.0384615384615379</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="D99">
         <v>1283.833333333333</v>
       </c>
       <c r="E99">
-        <v>1168.1428571428571</v>
+        <v>1168.142857142857</v>
       </c>
       <c r="F99">
-        <v>726.69811320754718</v>
+        <v>726.6981132075472</v>
       </c>
       <c r="G99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B100">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>1.2361111111111109</v>
+        <v>1.232876712328767</v>
       </c>
       <c r="D100">
-        <v>754.10958904109589</v>
+        <v>752.418918918919</v>
       </c>
       <c r="E100">
-        <v>749.52631578947364</v>
+        <v>749.5263157894736</v>
       </c>
       <c r="F100">
-        <v>618.5393258426966</v>
+        <v>618.6555555555556</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -3064,7 +3009,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D101">
-        <v>702.85714285714289</v>
+        <v>702.8571428571429</v>
       </c>
       <c r="E101">
         <v>1377</v>
@@ -3076,7 +3021,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -3096,7 +3041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
@@ -3119,7 +3064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -3136,13 +3081,13 @@
         <v>1200</v>
       </c>
       <c r="F104">
-        <v>305.20833333333331</v>
+        <v>305.2083333333333</v>
       </c>
       <c r="G104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -3153,19 +3098,19 @@
         <v>1.833333333333333</v>
       </c>
       <c r="D105">
-        <v>783.21428571428567</v>
+        <v>783.2142857142857</v>
       </c>
       <c r="E105">
         <v>950</v>
       </c>
       <c r="F105">
-        <v>498.40909090909088</v>
+        <v>498.4090909090909</v>
       </c>
       <c r="G105" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -3182,36 +3127,36 @@
         <v>1564</v>
       </c>
       <c r="F106">
-        <v>828.33333333333337</v>
+        <v>828.3333333333334</v>
       </c>
       <c r="G106" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B107">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C107">
-        <v>1.9148936170212769</v>
+        <v>1.911111111111111</v>
       </c>
       <c r="D107">
-        <v>818.08510638297878</v>
+        <v>818.8888888888889</v>
       </c>
       <c r="E107">
-        <v>1102.5999999999999</v>
+        <v>1102.6</v>
       </c>
       <c r="F107">
-        <v>427.22222222222217</v>
+        <v>428.4883720930233</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -3219,13 +3164,13 @@
         <v>42</v>
       </c>
       <c r="C108">
-        <v>1.5609756097560981</v>
+        <v>1.560975609756098</v>
       </c>
       <c r="D108">
-        <v>1568.0952380952381</v>
+        <v>1568.095238095238</v>
       </c>
       <c r="E108">
-        <v>973.88571428571424</v>
+        <v>973.8857142857142</v>
       </c>
       <c r="F108">
         <v>1029.0625</v>
@@ -3234,53 +3179,53 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109">
-        <v>2.2999999999999998</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="D109">
-        <v>742.16666666666663</v>
+        <v>718.9230769230769</v>
       </c>
       <c r="E109">
-        <v>933.33333333333337</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="F109">
-        <v>387.21739130434781</v>
+        <v>389.4166666666667</v>
       </c>
       <c r="G109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B110">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C110">
-        <v>2.2820512820512819</v>
+        <v>2.289473684210526</v>
       </c>
       <c r="D110">
-        <v>771.84090909090912</v>
+        <v>774.3255813953489</v>
       </c>
       <c r="E110">
-        <v>995.66666666666663</v>
+        <v>995.6666666666666</v>
       </c>
       <c r="F110">
-        <v>381.58426966292137</v>
+        <v>382.7126436781609</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -3303,30 +3248,30 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B112">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C112">
-        <v>1.835820895522388</v>
+        <v>1.788732394366197</v>
       </c>
       <c r="D112">
-        <v>1596.4084507042251</v>
+        <v>1598.866666666667</v>
       </c>
       <c r="E112">
-        <v>1079.5</v>
+        <v>1071.948275862069</v>
       </c>
       <c r="F112">
-        <v>921.5040650406504</v>
+        <v>944.2125984251968</v>
       </c>
       <c r="G112" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -3334,16 +3279,16 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D113">
-        <v>777.91666666666663</v>
+        <v>777.9166666666666</v>
       </c>
       <c r="E113">
         <v>1100</v>
       </c>
       <c r="F113">
-        <v>424.31818181818181</v>
+        <v>424.3181818181818</v>
       </c>
       <c r="G113" t="s">
         <v>117</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -937,19 +937,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1.789473684210526</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D10">
-        <v>851.0526315789474</v>
+        <v>852.5</v>
       </c>
       <c r="E10">
-        <v>1145.75</v>
+        <v>1178</v>
       </c>
       <c r="F10">
-        <v>475.5882352941176</v>
+        <v>479.53125</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1934,13 +1934,13 @@
         <v>1.98989898989899</v>
       </c>
       <c r="D54">
-        <v>1224.575</v>
+        <v>1227.491666666667</v>
       </c>
       <c r="E54">
         <v>1226.210526315789</v>
       </c>
       <c r="F54">
-        <v>745.9340101522843</v>
+        <v>747.7106598984772</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -2026,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>1352.747899159664</v>
+        <v>1343.873949579832</v>
       </c>
       <c r="E58">
-        <v>929.3913043478261</v>
+        <v>911.6666666666666</v>
       </c>
       <c r="F58">
-        <v>731.7136363636364</v>
+        <v>733.5825688073395</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2046,16 +2046,16 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1.823008849557522</v>
+        <v>1.805309734513274</v>
       </c>
       <c r="D59">
-        <v>1140.521008403361</v>
+        <v>1137.46218487395</v>
       </c>
       <c r="E59">
-        <v>1039.666666666667</v>
+        <v>1036.95652173913</v>
       </c>
       <c r="F59">
-        <v>658.8446601941747</v>
+        <v>663.5196078431372</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2184,16 +2184,16 @@
         <v>120</v>
       </c>
       <c r="C65">
-        <v>2.267326732673267</v>
+        <v>2.257425742574257</v>
       </c>
       <c r="D65">
-        <v>1066.084033613445</v>
+        <v>1062.55462184874</v>
       </c>
       <c r="E65">
         <v>981.5050505050505</v>
       </c>
       <c r="F65">
-        <v>553.9912663755458</v>
+        <v>554.578947368421</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2207,16 +2207,16 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>2.911764705882353</v>
+        <v>2.938144329896907</v>
       </c>
       <c r="D66">
-        <v>1703.4</v>
+        <v>1682.65</v>
       </c>
       <c r="E66">
-        <v>2054.555555555556</v>
+        <v>2202.416666666667</v>
       </c>
       <c r="F66">
-        <v>688.2424242424242</v>
+        <v>708.4842105263158</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2299,16 +2299,16 @@
         <v>120</v>
       </c>
       <c r="C70">
-        <v>1.774774774774775</v>
+        <v>1.75</v>
       </c>
       <c r="D70">
-        <v>1189.283333333333</v>
+        <v>1189.2</v>
       </c>
       <c r="E70">
-        <v>957.0833333333334</v>
+        <v>958.9180327868852</v>
       </c>
       <c r="F70">
-        <v>724.4365482233502</v>
+        <v>728.0816326530612</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2365,19 +2365,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>2.21875</v>
+        <v>2.193548387096774</v>
       </c>
       <c r="D73">
-        <v>1020.114285714286</v>
+        <v>1025.117647058823</v>
       </c>
       <c r="E73">
-        <v>1292.578947368421</v>
+        <v>1297.722222222222</v>
       </c>
       <c r="F73">
-        <v>502.8732394366197</v>
+        <v>512.5588235294117</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2414,16 +2414,16 @@
         <v>120</v>
       </c>
       <c r="C75">
-        <v>1.378151260504202</v>
+        <v>1.386554621848739</v>
       </c>
       <c r="D75">
-        <v>1478.133333333333</v>
+        <v>1484.258333333333</v>
       </c>
       <c r="E75">
-        <v>849.59375</v>
+        <v>854.1157894736842</v>
       </c>
       <c r="F75">
-        <v>1081.560975609756</v>
+        <v>1079.460606060606</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2460,16 +2460,16 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>2.15929203539823</v>
+        <v>2.149122807017544</v>
       </c>
       <c r="D77">
-        <v>1362.616666666667</v>
+        <v>1439.133333333333</v>
       </c>
       <c r="E77">
-        <v>929.9583333333334</v>
+        <v>954.46</v>
       </c>
       <c r="F77">
-        <v>670.139344262295</v>
+        <v>704.8816326530613</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2598,16 +2598,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.719298245614035</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="D83">
-        <v>1477.433333333333</v>
+        <v>1514.35</v>
       </c>
       <c r="E83">
-        <v>1049.452830188679</v>
+        <v>1043.879310344828</v>
       </c>
       <c r="F83">
-        <v>904.5510204081633</v>
+        <v>917.7878787878788</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2687,19 +2687,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>2.018867924528302</v>
       </c>
       <c r="D87">
-        <v>919.4193548387096</v>
+        <v>913.7727272727273</v>
       </c>
       <c r="E87">
-        <v>936.0540540540541</v>
+        <v>921.075</v>
       </c>
       <c r="F87">
-        <v>570.04</v>
+        <v>563.6355140186915</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -2785,13 +2785,13 @@
         <v>1.441666666666667</v>
       </c>
       <c r="D91">
-        <v>1204.583333333333</v>
+        <v>1208.75</v>
       </c>
       <c r="E91">
-        <v>848.9316239316239</v>
+        <v>849.9230769230769</v>
       </c>
       <c r="F91">
-        <v>835.5491329479769</v>
+        <v>838.4393063583815</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -983,16 +983,16 @@
         <v>120</v>
       </c>
       <c r="C12">
-        <v>2.714285714285714</v>
+        <v>2.705357142857143</v>
       </c>
       <c r="D12">
-        <v>578.4955752212389</v>
+        <v>585</v>
       </c>
       <c r="E12">
-        <v>1384</v>
+        <v>1331.625</v>
       </c>
       <c r="F12">
-        <v>215.0328947368421</v>
+        <v>218.1683168316832</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1290,19 +1290,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>824</v>
+        <v>786.6666666666666</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F26">
-        <v>412</v>
+        <v>393.3333333333333</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1977,16 +1977,16 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>2.068376068376069</v>
+        <v>2.102564102564103</v>
       </c>
       <c r="D56">
-        <v>1609.966666666667</v>
+        <v>1599.975</v>
       </c>
       <c r="E56">
         <v>1189.87037037037</v>
       </c>
       <c r="F56">
-        <v>798.3305785123966</v>
+        <v>780.4756097560976</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2414,16 +2414,16 @@
         <v>120</v>
       </c>
       <c r="C75">
-        <v>1.386554621848739</v>
+        <v>1.394957983193277</v>
       </c>
       <c r="D75">
-        <v>1484.258333333333</v>
+        <v>1491.55</v>
       </c>
       <c r="E75">
-        <v>854.1157894736842</v>
+        <v>863.8947368421053</v>
       </c>
       <c r="F75">
-        <v>1079.460606060606</v>
+        <v>1078.228915662651</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2460,16 +2460,16 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>2.149122807017544</v>
+        <v>2.131578947368421</v>
       </c>
       <c r="D77">
-        <v>1439.133333333333</v>
+        <v>1450.016666666667</v>
       </c>
       <c r="E77">
-        <v>954.46</v>
+        <v>936.0392156862745</v>
       </c>
       <c r="F77">
-        <v>704.8816326530613</v>
+        <v>716.0576131687243</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2598,16 +2598,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.736842105263158</v>
+        <v>1.719298245614035</v>
       </c>
       <c r="D83">
-        <v>1514.35</v>
+        <v>1510.058333333333</v>
       </c>
       <c r="E83">
-        <v>1043.879310344828</v>
+        <v>1032.081967213115</v>
       </c>
       <c r="F83">
-        <v>917.7878787878788</v>
+        <v>924.5255102040817</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2687,19 +2687,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87">
-        <v>2.018867924528302</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>913.7727272727273</v>
+        <v>910.6567164179105</v>
       </c>
       <c r="E87">
-        <v>921.075</v>
+        <v>911.4146341463414</v>
       </c>
       <c r="F87">
-        <v>563.6355140186915</v>
+        <v>564.9444444444445</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -2782,16 +2782,16 @@
         <v>120</v>
       </c>
       <c r="C91">
-        <v>1.441666666666667</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="D91">
-        <v>1208.75</v>
+        <v>1211.5</v>
       </c>
       <c r="E91">
-        <v>849.9230769230769</v>
+        <v>849.1196581196581</v>
       </c>
       <c r="F91">
-        <v>838.4393063583815</v>
+        <v>845.2325581395348</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -851,13 +851,13 @@
         <v>1.550847457627119</v>
       </c>
       <c r="D6">
-        <v>884.925</v>
+        <v>890.6416666666667</v>
       </c>
       <c r="E6">
-        <v>915.4047619047619</v>
+        <v>919.0697674418604</v>
       </c>
       <c r="F6">
-        <v>580.2786885245902</v>
+        <v>584.0273224043716</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1428,19 +1428,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>2.210526315789474</v>
+        <v>2.243243243243243</v>
       </c>
       <c r="D32">
-        <v>806.7045454545455</v>
+        <v>811.5116279069767</v>
       </c>
       <c r="E32">
-        <v>1211.739130434783</v>
+        <v>1228.181818181818</v>
       </c>
       <c r="F32">
-        <v>422.5595238095238</v>
+        <v>420.421686746988</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1451,19 +1451,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>818.125</v>
+        <v>815.5555555555555</v>
       </c>
       <c r="E33">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="F33">
-        <v>409.0625</v>
+        <v>407.7777777777778</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -2046,16 +2046,16 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1.805309734513274</v>
+        <v>1.79646017699115</v>
       </c>
       <c r="D59">
-        <v>1137.46218487395</v>
+        <v>1138.294117647059</v>
       </c>
       <c r="E59">
         <v>1036.95652173913</v>
       </c>
       <c r="F59">
-        <v>663.5196078431372</v>
+        <v>667.2758620689655</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2276,16 +2276,16 @@
         <v>120</v>
       </c>
       <c r="C69">
-        <v>1.822429906542056</v>
+        <v>1.803738317757009</v>
       </c>
       <c r="D69">
-        <v>914.0336134453781</v>
+        <v>918.109243697479</v>
       </c>
       <c r="E69">
-        <v>1157.2</v>
+        <v>1163.193548387097</v>
       </c>
       <c r="F69">
-        <v>557.7948717948718</v>
+        <v>566.0880829015545</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2299,16 +2299,16 @@
         <v>120</v>
       </c>
       <c r="C70">
-        <v>1.75</v>
+        <v>1.758928571428571</v>
       </c>
       <c r="D70">
-        <v>1189.2</v>
+        <v>1193.075</v>
       </c>
       <c r="E70">
-        <v>958.9180327868852</v>
+        <v>964.4193548387096</v>
       </c>
       <c r="F70">
-        <v>728.0816326530612</v>
+        <v>726.746192893401</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2414,16 +2414,16 @@
         <v>120</v>
       </c>
       <c r="C75">
-        <v>1.394957983193277</v>
+        <v>1.403361344537815</v>
       </c>
       <c r="D75">
-        <v>1491.55</v>
+        <v>1490.716666666667</v>
       </c>
       <c r="E75">
-        <v>863.8947368421053</v>
+        <v>866.3684210526316</v>
       </c>
       <c r="F75">
-        <v>1078.228915662651</v>
+        <v>1071.173652694611</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2460,16 +2460,16 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>2.131578947368421</v>
+        <v>2.114035087719298</v>
       </c>
       <c r="D77">
-        <v>1450.016666666667</v>
+        <v>1454.141666666667</v>
       </c>
       <c r="E77">
         <v>936.0392156862745</v>
       </c>
       <c r="F77">
-        <v>716.0576131687243</v>
+        <v>724.0539419087137</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2555,13 +2555,13 @@
         <v>1.852173913043478</v>
       </c>
       <c r="D81">
-        <v>1007.375</v>
+        <v>1011.625</v>
       </c>
       <c r="E81">
-        <v>1012</v>
+        <v>1013.871794871795</v>
       </c>
       <c r="F81">
-        <v>567.5352112676056</v>
+        <v>569.9295774647887</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2598,16 +2598,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.719298245614035</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="D83">
-        <v>1510.058333333333</v>
+        <v>1509.766666666667</v>
       </c>
       <c r="E83">
-        <v>1032.081967213115</v>
+        <v>1033.338709677419</v>
       </c>
       <c r="F83">
-        <v>924.5255102040817</v>
+        <v>915.010101010101</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2618,19 +2618,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84">
-        <v>1.761904761904762</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="D84">
-        <v>850.1949152542373</v>
+        <v>851.0512820512821</v>
       </c>
       <c r="E84">
-        <v>1210.914285714286</v>
+        <v>1214.176470588235</v>
       </c>
       <c r="F84">
-        <v>542.2864864864865</v>
+        <v>541.1576086956521</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -1428,19 +1428,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>2.243243243243243</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="D32">
-        <v>811.5116279069767</v>
+        <v>806.7045454545455</v>
       </c>
       <c r="E32">
-        <v>1228.181818181818</v>
+        <v>1211.739130434783</v>
       </c>
       <c r="F32">
-        <v>420.421686746988</v>
+        <v>422.5595238095238</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1721,19 +1721,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45">
-        <v>1.971698113207547</v>
+        <v>1.962616822429907</v>
       </c>
       <c r="D45">
-        <v>1114.448598130841</v>
+        <v>1112.324074074074</v>
       </c>
       <c r="E45">
-        <v>1025.619565217391</v>
+        <v>1021.709677419355</v>
       </c>
       <c r="F45">
-        <v>570.555023923445</v>
+        <v>572.052380952381</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -2207,16 +2207,16 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>2.938144329896907</v>
+        <v>2.939393939393939</v>
       </c>
       <c r="D66">
-        <v>1682.65</v>
+        <v>1680.45</v>
       </c>
       <c r="E66">
-        <v>2202.416666666667</v>
+        <v>2268.086956521739</v>
       </c>
       <c r="F66">
-        <v>708.4842105263158</v>
+        <v>692.9690721649484</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2276,16 +2276,16 @@
         <v>120</v>
       </c>
       <c r="C69">
-        <v>1.803738317757009</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="D69">
-        <v>918.109243697479</v>
+        <v>914.0336134453781</v>
       </c>
       <c r="E69">
-        <v>1163.193548387097</v>
+        <v>1157.2</v>
       </c>
       <c r="F69">
-        <v>566.0880829015545</v>
+        <v>557.7948717948718</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2299,16 +2299,16 @@
         <v>120</v>
       </c>
       <c r="C70">
-        <v>1.758928571428571</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="D70">
-        <v>1193.075</v>
+        <v>1191.075</v>
       </c>
       <c r="E70">
-        <v>964.4193548387096</v>
+        <v>967.6065573770492</v>
       </c>
       <c r="F70">
-        <v>726.746192893401</v>
+        <v>732.9692307692308</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2414,16 +2414,16 @@
         <v>120</v>
       </c>
       <c r="C75">
-        <v>1.403361344537815</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="D75">
-        <v>1490.716666666667</v>
+        <v>1495.883333333333</v>
       </c>
       <c r="E75">
-        <v>866.3684210526316</v>
+        <v>868.8829787234042</v>
       </c>
       <c r="F75">
-        <v>1071.173652694611</v>
+        <v>1068.488095238095</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2506,16 +2506,16 @@
         <v>120</v>
       </c>
       <c r="C79">
-        <v>1.990909090909091</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1284.588235294118</v>
+        <v>1288.327731092437</v>
       </c>
       <c r="E79">
-        <v>1470.761904761905</v>
+        <v>1481.809523809524</v>
       </c>
       <c r="F79">
-        <v>698.0182648401826</v>
+        <v>696.8681818181818</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2598,16 +2598,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.736842105263158</v>
+        <v>1.745614035087719</v>
       </c>
       <c r="D83">
-        <v>1509.766666666667</v>
+        <v>1508.516666666667</v>
       </c>
       <c r="E83">
         <v>1033.338709677419</v>
       </c>
       <c r="F83">
-        <v>915.010101010101</v>
+        <v>909.6582914572864</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2618,19 +2618,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84">
-        <v>1.769230769230769</v>
+        <v>1.761904761904762</v>
       </c>
       <c r="D84">
-        <v>851.0512820512821</v>
+        <v>850.1949152542373</v>
       </c>
       <c r="E84">
-        <v>1214.176470588235</v>
+        <v>1210.914285714286</v>
       </c>
       <c r="F84">
-        <v>541.1576086956521</v>
+        <v>542.2864864864865</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -779,19 +779,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>1.826086956521739</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D3">
-        <v>635.8620689655172</v>
+        <v>633.5</v>
       </c>
       <c r="E3">
         <v>1666.666666666667</v>
       </c>
       <c r="F3">
-        <v>439.047619047619</v>
+        <v>431.9318181818182</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -983,16 +983,16 @@
         <v>120</v>
       </c>
       <c r="C12">
-        <v>2.705357142857143</v>
+        <v>2.723214285714286</v>
       </c>
       <c r="D12">
-        <v>585</v>
+        <v>594.6902654867257</v>
       </c>
       <c r="E12">
         <v>1331.625</v>
       </c>
       <c r="F12">
-        <v>218.1683168316832</v>
+        <v>220.327868852459</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1075,16 +1075,16 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>1.611111111111111</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D16">
-        <v>855.957627118644</v>
+        <v>849.8559322033898</v>
       </c>
       <c r="E16">
-        <v>975.7755102040817</v>
+        <v>944.9574468085107</v>
       </c>
       <c r="F16">
-        <v>580.4770114942529</v>
+        <v>586.4502923976609</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1095,19 +1095,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>2.477272727272727</v>
+        <v>2.488888888888889</v>
       </c>
       <c r="D17">
-        <v>687.5294117647059</v>
+        <v>683.5769230769231</v>
       </c>
       <c r="E17">
         <v>1368.857142857143</v>
       </c>
       <c r="F17">
-        <v>321.6880733944954</v>
+        <v>317.375</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1221,19 +1221,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>1.765432098765432</v>
+        <v>1.780487804878049</v>
       </c>
       <c r="D23">
-        <v>646.3448275862069</v>
+        <v>648.0340909090909</v>
       </c>
       <c r="E23">
         <v>754.7619047619048</v>
       </c>
       <c r="F23">
-        <v>393.2307692307692</v>
+        <v>390.5958904109589</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1290,19 +1290,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>786.6666666666666</v>
+        <v>777.8571428571429</v>
       </c>
       <c r="E26">
         <v>1500</v>
       </c>
       <c r="F26">
-        <v>393.3333333333333</v>
+        <v>388.9285714285714</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1428,19 +1428,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>2.210526315789474</v>
+        <v>2.205128205128205</v>
       </c>
       <c r="D32">
-        <v>806.7045454545455</v>
+        <v>803.5555555555555</v>
       </c>
       <c r="E32">
         <v>1211.739130434783</v>
       </c>
       <c r="F32">
-        <v>422.5595238095238</v>
+        <v>420.4651162790698</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1494,19 +1494,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>1.75</v>
       </c>
       <c r="D35">
-        <v>623.1538461538462</v>
+        <v>624.7532467532468</v>
       </c>
       <c r="E35">
         <v>826.88</v>
       </c>
       <c r="F35">
-        <v>408.453781512605</v>
+        <v>404.2521008403361</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1609,19 +1609,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>2.421052631578947</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="D40">
-        <v>822.1891891891892</v>
+        <v>822.2631578947369</v>
       </c>
       <c r="E40">
         <v>961.9411764705883</v>
       </c>
       <c r="F40">
-        <v>330.6630434782609</v>
+        <v>328.9052631578948</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -1721,19 +1721,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45">
-        <v>1.962616822429907</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="D45">
-        <v>1112.324074074074</v>
+        <v>1115.880733944954</v>
       </c>
       <c r="E45">
         <v>1021.709677419355</v>
       </c>
       <c r="F45">
-        <v>572.052380952381</v>
+        <v>571.037558685446</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1905,19 +1905,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>2.1</v>
+        <v>2.103448275862069</v>
       </c>
       <c r="D53">
-        <v>683.4166666666666</v>
+        <v>855.0857142857143</v>
       </c>
       <c r="E53">
         <v>1100</v>
       </c>
       <c r="F53">
-        <v>390.5238095238095</v>
+        <v>490.6229508196722</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -1934,13 +1934,13 @@
         <v>1.98989898989899</v>
       </c>
       <c r="D54">
-        <v>1227.491666666667</v>
+        <v>1227.075</v>
       </c>
       <c r="E54">
         <v>1226.210526315789</v>
       </c>
       <c r="F54">
-        <v>747.7106598984772</v>
+        <v>747.4568527918782</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -1957,13 +1957,13 @@
         <v>1.91</v>
       </c>
       <c r="D55">
-        <v>770.2583333333333</v>
+        <v>770.4666666666667</v>
       </c>
       <c r="E55">
         <v>1045.590909090909</v>
       </c>
       <c r="F55">
-        <v>483.9319371727749</v>
+        <v>484.0628272251309</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -1977,16 +1977,16 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>2.102564102564103</v>
+        <v>2.110169491525424</v>
       </c>
       <c r="D56">
-        <v>1599.975</v>
+        <v>1611.558333333333</v>
       </c>
       <c r="E56">
-        <v>1189.87037037037</v>
+        <v>1189.945454545455</v>
       </c>
       <c r="F56">
-        <v>780.4756097560976</v>
+        <v>776.6546184738955</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2023,16 +2023,16 @@
         <v>120</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="D58">
-        <v>1343.873949579832</v>
+        <v>1341.201680672269</v>
       </c>
       <c r="E58">
-        <v>911.6666666666666</v>
+        <v>955.2</v>
       </c>
       <c r="F58">
-        <v>733.5825688073395</v>
+        <v>725.4681818181818</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2046,16 +2046,16 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1.79646017699115</v>
+        <v>1.787610619469026</v>
       </c>
       <c r="D59">
-        <v>1138.294117647059</v>
+        <v>1135.823529411765</v>
       </c>
       <c r="E59">
         <v>1036.95652173913</v>
       </c>
       <c r="F59">
-        <v>667.2758620689655</v>
+        <v>669.1237623762377</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2135,19 +2135,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C63">
-        <v>2.481927710843374</v>
+        <v>2.4875</v>
       </c>
       <c r="D63">
-        <v>905.9784946236559</v>
+        <v>907.8444444444444</v>
       </c>
       <c r="E63">
-        <v>1166.714285714286</v>
+        <v>1156.222222222222</v>
       </c>
       <c r="F63">
-        <v>409.0097087378641</v>
+        <v>410.5829145728643</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2158,19 +2158,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C64">
-        <v>2.194174757281553</v>
+        <v>2.219047619047619</v>
       </c>
       <c r="D64">
-        <v>1000.669565217391</v>
+        <v>1003.863247863248</v>
       </c>
       <c r="E64">
-        <v>1235.788461538461</v>
+        <v>1269.740740740741</v>
       </c>
       <c r="F64">
-        <v>509.1902654867257</v>
+        <v>504.0858369098713</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2184,16 +2184,16 @@
         <v>120</v>
       </c>
       <c r="C65">
-        <v>2.257425742574257</v>
+        <v>2.287128712871287</v>
       </c>
       <c r="D65">
-        <v>1062.55462184874</v>
+        <v>1069.840336134454</v>
       </c>
       <c r="E65">
-        <v>981.5050505050505</v>
+        <v>989.1030927835052</v>
       </c>
       <c r="F65">
-        <v>554.578947368421</v>
+        <v>551.1298701298701</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2207,16 +2207,16 @@
         <v>120</v>
       </c>
       <c r="C66">
-        <v>2.939393939393939</v>
+        <v>3.01980198019802</v>
       </c>
       <c r="D66">
-        <v>1680.45</v>
+        <v>1688.958333333333</v>
       </c>
       <c r="E66">
-        <v>2268.086956521739</v>
+        <v>2425.4</v>
       </c>
       <c r="F66">
-        <v>692.9690721649484</v>
+        <v>664.5081967213115</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2250,19 +2250,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68">
-        <v>2.037037037037037</v>
+        <v>2.036363636363636</v>
       </c>
       <c r="D68">
-        <v>1064.240740740741</v>
+        <v>1064.890909090909</v>
       </c>
       <c r="E68">
         <v>1338.461538461539</v>
       </c>
       <c r="F68">
-        <v>522.4454545454546</v>
+        <v>522.9375</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2299,16 +2299,16 @@
         <v>120</v>
       </c>
       <c r="C70">
-        <v>1.756756756756757</v>
+        <v>1.763636363636364</v>
       </c>
       <c r="D70">
-        <v>1191.075</v>
+        <v>1196.575</v>
       </c>
       <c r="E70">
-        <v>967.6065573770492</v>
+        <v>973.7966101694915</v>
       </c>
       <c r="F70">
-        <v>732.9692307692308</v>
+        <v>740.1494845360825</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2509,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>1288.327731092437</v>
+        <v>1285.638655462185</v>
       </c>
       <c r="E79">
-        <v>1481.809523809524</v>
+        <v>1470.761904761905</v>
       </c>
       <c r="F79">
-        <v>696.8681818181818</v>
+        <v>695.4136363636363</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2552,16 +2552,16 @@
         <v>120</v>
       </c>
       <c r="C81">
-        <v>1.852173913043478</v>
+        <v>1.860869565217391</v>
       </c>
       <c r="D81">
-        <v>1011.625</v>
+        <v>1018.75</v>
       </c>
       <c r="E81">
-        <v>1013.871794871795</v>
+        <v>1021.025</v>
       </c>
       <c r="F81">
-        <v>569.9295774647887</v>
+        <v>571.2616822429907</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2598,16 +2598,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.745614035087719</v>
+        <v>1.765217391304348</v>
       </c>
       <c r="D83">
-        <v>1508.516666666667</v>
+        <v>1522.266666666667</v>
       </c>
       <c r="E83">
         <v>1033.338709677419</v>
       </c>
       <c r="F83">
-        <v>909.6582914572864</v>
+        <v>899.8620689655172</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2618,19 +2618,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84">
-        <v>1.761904761904762</v>
+        <v>1.737864077669903</v>
       </c>
       <c r="D84">
-        <v>850.1949152542373</v>
+        <v>849.3534482758621</v>
       </c>
       <c r="E84">
-        <v>1210.914285714286</v>
+        <v>1192.606060606061</v>
       </c>
       <c r="F84">
-        <v>542.2864864864865</v>
+        <v>550.4189944134079</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -2664,19 +2664,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C86">
-        <v>2.11864406779661</v>
+        <v>2.120689655172414</v>
       </c>
       <c r="D86">
-        <v>790.453125</v>
+        <v>791.6507936507936</v>
       </c>
       <c r="E86">
         <v>2285.333333333333</v>
       </c>
       <c r="F86">
-        <v>404.712</v>
+        <v>405.479674796748</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -2828,16 +2828,16 @@
         <v>120</v>
       </c>
       <c r="C93">
-        <v>3.035398230088496</v>
+        <v>3.043859649122807</v>
       </c>
       <c r="D93">
-        <v>1686.55</v>
+        <v>1695.716666666667</v>
       </c>
       <c r="E93">
         <v>2249</v>
       </c>
       <c r="F93">
-        <v>590.0466472303207</v>
+        <v>586.4149855907781</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -3069,19 +3069,19 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>2.4</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="D104">
-        <v>732.5</v>
+        <v>711.3636363636364</v>
       </c>
       <c r="E104">
         <v>1200</v>
       </c>
       <c r="F104">
-        <v>305.2083333333333</v>
+        <v>300.9615384615385</v>
       </c>
       <c r="G104" t="s">
         <v>108</v>
@@ -3138,19 +3138,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C107">
-        <v>1.911111111111111</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="D107">
-        <v>818.8888888888889</v>
+        <v>815.7608695652174</v>
       </c>
       <c r="E107">
         <v>1102.6</v>
       </c>
       <c r="F107">
-        <v>428.4883720930233</v>
+        <v>426.4204545454546</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
@@ -3207,19 +3207,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110">
-        <v>2.289473684210526</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="D110">
-        <v>774.3255813953489</v>
+        <v>771.8409090909091</v>
       </c>
       <c r="E110">
         <v>995.6666666666666</v>
       </c>
       <c r="F110">
-        <v>382.7126436781609</v>
+        <v>381.5842696629214</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -3276,19 +3276,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113">
-        <v>2.2</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D113">
-        <v>777.9166666666666</v>
+        <v>781.8181818181819</v>
       </c>
       <c r="E113">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F113">
-        <v>424.3181818181818</v>
+        <v>430</v>
       </c>
       <c r="G113" t="s">
         <v>117</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>NumApartments</t>
   </si>
@@ -43,6 +43,9 @@
     <t>15005</t>
   </si>
   <si>
+    <t>15006</t>
+  </si>
+  <si>
     <t>15007</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>15018</t>
+  </si>
+  <si>
+    <t>150220</t>
   </si>
   <si>
     <t>15106</t>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,16 +831,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>975</v>
+        <v>746</v>
       </c>
       <c r="F5">
-        <v>731.25</v>
+        <v>466.25</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -845,19 +851,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1.550847457627119</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>890.6416666666667</v>
-      </c>
-      <c r="E6">
-        <v>919.0697674418604</v>
+        <v>975</v>
       </c>
       <c r="F6">
-        <v>584.0273224043716</v>
+        <v>731.25</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -868,19 +871,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C7">
-        <v>2.175</v>
+        <v>1.550847457627119</v>
       </c>
       <c r="D7">
-        <v>663.0666666666667</v>
+        <v>890.6416666666667</v>
       </c>
       <c r="E7">
-        <v>889.7777777777778</v>
+        <v>919.0697674418604</v>
       </c>
       <c r="F7">
-        <v>342.9655172413793</v>
+        <v>584.0273224043716</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -891,19 +894,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>2.357142857142857</v>
+        <v>2.175</v>
       </c>
       <c r="D8">
-        <v>710</v>
+        <v>663.0666666666667</v>
       </c>
       <c r="E8">
-        <v>1278.4</v>
+        <v>889.7777777777778</v>
       </c>
       <c r="F8">
-        <v>322.7272727272727</v>
+        <v>342.9655172413793</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -914,19 +917,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>710</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>1278.4</v>
       </c>
       <c r="F9">
-        <v>666.6666666666666</v>
+        <v>322.7272727272727</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -937,19 +940,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.777777777777778</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>852.5</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>1178</v>
+        <v>2000</v>
       </c>
       <c r="F10">
-        <v>479.53125</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -960,16 +963,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D11">
-        <v>1025</v>
+        <v>852.5</v>
+      </c>
+      <c r="E11">
+        <v>1178</v>
       </c>
       <c r="F11">
-        <v>341.6666666666667</v>
+        <v>479.53125</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -980,19 +986,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2.723214285714286</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>594.6902654867257</v>
-      </c>
-      <c r="E12">
-        <v>1331.625</v>
+        <v>1025</v>
       </c>
       <c r="F12">
-        <v>220.327868852459</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1003,19 +1006,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>2.4</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="D13">
-        <v>881</v>
+        <v>553.8235294117648</v>
       </c>
       <c r="E13">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="F13">
-        <v>367.0833333333333</v>
+        <v>285.3030303030303</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1026,19 +1029,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>2.723214285714286</v>
       </c>
       <c r="D14">
-        <v>718.2222222222222</v>
+        <v>594.6902654867257</v>
       </c>
       <c r="E14">
-        <v>881.0555555555555</v>
+        <v>1331.625</v>
       </c>
       <c r="F14">
-        <v>412.5957446808511</v>
+        <v>220.327868852459</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1052,16 +1055,16 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D15">
-        <v>1279</v>
+        <v>881</v>
       </c>
       <c r="E15">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="F15">
-        <v>426.3333333333333</v>
+        <v>367.0833333333333</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1072,19 +1075,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>1.583333333333333</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>849.8559322033898</v>
+        <v>718.2222222222222</v>
       </c>
       <c r="E16">
-        <v>944.9574468085107</v>
+        <v>881.0555555555555</v>
       </c>
       <c r="F16">
-        <v>586.4502923976609</v>
+        <v>412.5957446808511</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1095,19 +1098,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>2.488888888888889</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>683.5769230769231</v>
+        <v>1279</v>
       </c>
       <c r="E17">
-        <v>1368.857142857143</v>
+        <v>1240</v>
       </c>
       <c r="F17">
-        <v>317.375</v>
+        <v>426.3333333333333</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1118,19 +1121,19 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>1.615384615384615</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D18">
-        <v>504.6153846153846</v>
+        <v>849.8559322033898</v>
       </c>
       <c r="E18">
-        <v>700</v>
+        <v>944.9574468085107</v>
       </c>
       <c r="F18">
-        <v>312.3809523809524</v>
+        <v>586.4502923976609</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1141,19 +1144,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C19">
-        <v>2.75</v>
+        <v>2.488888888888889</v>
       </c>
       <c r="D19">
-        <v>1256.25</v>
+        <v>683.5769230769231</v>
       </c>
       <c r="E19">
-        <v>1624</v>
+        <v>1368.857142857143</v>
       </c>
       <c r="F19">
-        <v>456.8181818181818</v>
+        <v>317.375</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1164,7 +1167,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1.615384615384615</v>
+      </c>
+      <c r="D20">
+        <v>504.6153846153846</v>
+      </c>
+      <c r="E20">
+        <v>700</v>
+      </c>
+      <c r="F20">
+        <v>312.3809523809524</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1175,19 +1190,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2.727272727272727</v>
+        <v>2.75</v>
       </c>
       <c r="D21">
-        <v>850.8333333333334</v>
+        <v>1256.25</v>
       </c>
       <c r="E21">
-        <v>1030.666666666667</v>
+        <v>1624</v>
       </c>
       <c r="F21">
-        <v>340.3333333333333</v>
+        <v>456.8181818181818</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1198,19 +1213,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="D22">
-        <v>525.3181818181819</v>
-      </c>
-      <c r="E22">
-        <v>993.5</v>
-      </c>
-      <c r="F22">
-        <v>330.2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1221,19 +1224,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1.780487804878049</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="D23">
-        <v>648.0340909090909</v>
+        <v>850.8333333333334</v>
       </c>
       <c r="E23">
-        <v>754.7619047619048</v>
+        <v>1030.666666666667</v>
       </c>
       <c r="F23">
-        <v>390.5958904109589</v>
+        <v>340.3333333333333</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1244,19 +1247,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>1.91304347826087</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D24">
-        <v>736.156862745098</v>
+        <v>525.3181818181819</v>
       </c>
       <c r="E24">
-        <v>884.75</v>
+        <v>993.5</v>
       </c>
       <c r="F24">
-        <v>426.6363636363636</v>
+        <v>330.2</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1267,19 +1270,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C25">
-        <v>2.25</v>
+        <v>1.780487804878049</v>
       </c>
       <c r="D25">
-        <v>600</v>
+        <v>648.0340909090909</v>
       </c>
       <c r="E25">
-        <v>1050</v>
+        <v>754.7619047619048</v>
       </c>
       <c r="F25">
-        <v>266.6666666666667</v>
+        <v>390.5958904109589</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1290,19 +1293,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="D26">
-        <v>777.8571428571429</v>
+        <v>736.156862745098</v>
       </c>
       <c r="E26">
-        <v>1500</v>
+        <v>884.75</v>
       </c>
       <c r="F26">
-        <v>388.9285714285714</v>
+        <v>426.6363636363636</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1313,19 +1316,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D27">
-        <v>988</v>
+        <v>600</v>
       </c>
       <c r="E27">
-        <v>1101</v>
+        <v>1050</v>
       </c>
       <c r="F27">
-        <v>548.8888888888889</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1336,19 +1339,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>1.857142857142857</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>604.6</v>
+        <v>777.8571428571429</v>
       </c>
       <c r="E28">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="F28">
-        <v>348.8076923076923</v>
+        <v>388.9285714285714</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1359,19 +1362,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>1.866666666666667</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>870</v>
+        <v>988</v>
       </c>
       <c r="E29">
-        <v>980.3333333333334</v>
+        <v>1101</v>
       </c>
       <c r="F29">
-        <v>528.2142857142857</v>
+        <v>548.8888888888889</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1382,19 +1385,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D30">
-        <v>975</v>
+        <v>604.6</v>
       </c>
       <c r="E30">
-        <v>1968</v>
+        <v>850</v>
       </c>
       <c r="F30">
-        <v>195</v>
+        <v>348.8076923076923</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1405,19 +1408,19 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>3.25</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="D31">
-        <v>1222.5</v>
+        <v>870</v>
       </c>
       <c r="E31">
-        <v>1375</v>
+        <v>980.3333333333334</v>
       </c>
       <c r="F31">
-        <v>376.1538461538461</v>
+        <v>528.2142857142857</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1428,19 +1431,19 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>2.205128205128205</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>803.5555555555555</v>
+        <v>975</v>
       </c>
       <c r="E32">
-        <v>1211.739130434783</v>
+        <v>1968</v>
       </c>
       <c r="F32">
-        <v>420.4651162790698</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1451,19 +1454,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="D33">
-        <v>815.5555555555555</v>
+        <v>1222.5</v>
       </c>
       <c r="E33">
-        <v>1008</v>
+        <v>1375</v>
       </c>
       <c r="F33">
-        <v>407.7777777777778</v>
+        <v>376.1538461538461</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1474,16 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>2.205128205128205</v>
       </c>
       <c r="D34">
-        <v>875</v>
+        <v>803.5555555555555</v>
+      </c>
+      <c r="E34">
+        <v>1211.739130434783</v>
       </c>
       <c r="F34">
-        <v>437.5</v>
+        <v>420.4651162790698</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1494,19 +1500,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>624.7532467532468</v>
+        <v>815.5555555555555</v>
       </c>
       <c r="E35">
-        <v>826.88</v>
+        <v>1008</v>
       </c>
       <c r="F35">
-        <v>404.2521008403361</v>
+        <v>407.7777777777778</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1517,19 +1523,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1.642857142857143</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1244.705882352941</v>
-      </c>
-      <c r="E36">
-        <v>924.2857142857143</v>
+        <v>875</v>
       </c>
       <c r="F36">
-        <v>920</v>
+        <v>437.5</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1540,19 +1543,19 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>2.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D37">
-        <v>1472.5</v>
+        <v>624.7532467532468</v>
       </c>
       <c r="E37">
-        <v>2300</v>
+        <v>826.88</v>
       </c>
       <c r="F37">
-        <v>701.1904761904761</v>
+        <v>404.2521008403361</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1563,19 +1566,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>1.888888888888889</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="D38">
-        <v>663.3333333333334</v>
+        <v>1244.705882352941</v>
       </c>
       <c r="E38">
-        <v>833.3333333333334</v>
+        <v>924.2857142857143</v>
       </c>
       <c r="F38">
-        <v>351.1764705882353</v>
+        <v>920</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -1586,19 +1589,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>1.953488372093023</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D39">
-        <v>623.8135593220339</v>
+        <v>1472.5</v>
       </c>
       <c r="E39">
-        <v>1228.5</v>
+        <v>2300</v>
       </c>
       <c r="F39">
-        <v>438.1547619047619</v>
+        <v>701.1904761904761</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -1609,19 +1612,19 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>2.435897435897436</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D40">
-        <v>822.2631578947369</v>
+        <v>663.3333333333334</v>
       </c>
       <c r="E40">
-        <v>961.9411764705883</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="F40">
-        <v>328.9052631578948</v>
+        <v>351.1764705882353</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -1632,19 +1635,19 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>1.884615384615385</v>
+        <v>1.953488372093023</v>
       </c>
       <c r="D41">
-        <v>683.7160493827161</v>
+        <v>623.8135593220339</v>
       </c>
       <c r="E41">
-        <v>979.6896551724138</v>
+        <v>1228.5</v>
       </c>
       <c r="F41">
-        <v>376.7414965986395</v>
+        <v>438.1547619047619</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -1655,16 +1658,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>1.666666666666667</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="D42">
-        <v>600</v>
+        <v>822.2631578947369</v>
+      </c>
+      <c r="E42">
+        <v>961.9411764705883</v>
       </c>
       <c r="F42">
-        <v>240</v>
+        <v>328.9052631578948</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1675,19 +1681,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C43">
-        <v>1.916666666666667</v>
+        <v>1.884615384615385</v>
       </c>
       <c r="D43">
-        <v>734.6666666666666</v>
+        <v>683.7160493827161</v>
       </c>
       <c r="E43">
-        <v>925.7142857142857</v>
+        <v>979.6896551724138</v>
       </c>
       <c r="F43">
-        <v>479.1304347826087</v>
+        <v>376.7414965986395</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -1698,19 +1704,16 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2.222222222222222</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D44">
-        <v>3561.111111111111</v>
-      </c>
-      <c r="E44">
-        <v>683.3333333333334</v>
+        <v>600</v>
       </c>
       <c r="F44">
-        <v>1602.5</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -1721,19 +1724,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>1.972222222222222</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D45">
-        <v>1115.880733944954</v>
+        <v>734.6666666666666</v>
       </c>
       <c r="E45">
-        <v>1021.709677419355</v>
+        <v>925.7142857142857</v>
       </c>
       <c r="F45">
-        <v>571.037558685446</v>
+        <v>479.1304347826087</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1744,19 +1747,19 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D46">
-        <v>750</v>
+        <v>3561.111111111111</v>
       </c>
       <c r="E46">
-        <v>576</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="F46">
-        <v>750</v>
+        <v>1602.5</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -1767,19 +1770,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C47">
-        <v>2.714285714285714</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="D47">
-        <v>1402.857142857143</v>
+        <v>1115.880733944954</v>
       </c>
       <c r="E47">
-        <v>1710</v>
+        <v>1021.709677419355</v>
       </c>
       <c r="F47">
-        <v>516.8421052631579</v>
+        <v>571.037558685446</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -1790,19 +1793,19 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2.111111111111111</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>812.8571428571429</v>
+        <v>750</v>
       </c>
       <c r="E48">
-        <v>1085.555555555556</v>
+        <v>576</v>
       </c>
       <c r="F48">
-        <v>399.2982456140351</v>
+        <v>750</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -1813,19 +1816,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>2.151515151515151</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D49">
-        <v>1033.325</v>
+        <v>1402.857142857143</v>
       </c>
       <c r="E49">
-        <v>1035.642857142857</v>
+        <v>1710</v>
       </c>
       <c r="F49">
-        <v>582.1549295774648</v>
+        <v>516.8421052631579</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -1836,19 +1839,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>1.788235294117647</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D50">
-        <v>649.4252873563219</v>
+        <v>812.8571428571429</v>
       </c>
       <c r="E50">
-        <v>707.25</v>
+        <v>1085.555555555556</v>
       </c>
       <c r="F50">
-        <v>371.7105263157895</v>
+        <v>399.2982456140351</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -1859,19 +1862,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C51">
-        <v>2.222222222222222</v>
+        <v>2.151515151515151</v>
       </c>
       <c r="D51">
-        <v>741.7777777777778</v>
+        <v>1033.325</v>
       </c>
       <c r="E51">
-        <v>1104</v>
+        <v>1035.642857142857</v>
       </c>
       <c r="F51">
-        <v>333.8</v>
+        <v>582.1549295774648</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -1882,19 +1885,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C52">
-        <v>1.933333333333333</v>
+        <v>1.788235294117647</v>
       </c>
       <c r="D52">
-        <v>1074.322580645161</v>
+        <v>649.4252873563219</v>
       </c>
       <c r="E52">
-        <v>1148.7</v>
+        <v>707.25</v>
       </c>
       <c r="F52">
-        <v>574.2068965517242</v>
+        <v>371.7105263157895</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -1905,19 +1908,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>2.103448275862069</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D53">
-        <v>855.0857142857143</v>
+        <v>741.7777777777778</v>
       </c>
       <c r="E53">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="F53">
-        <v>490.6229508196722</v>
+        <v>333.8</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -1928,19 +1931,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="C54">
-        <v>1.98989898989899</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="D54">
-        <v>1227.075</v>
+        <v>1074.322580645161</v>
       </c>
       <c r="E54">
-        <v>1226.210526315789</v>
+        <v>1148.7</v>
       </c>
       <c r="F54">
-        <v>747.4568527918782</v>
+        <v>574.2068965517242</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -1951,19 +1954,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>1.91</v>
+        <v>2.103448275862069</v>
       </c>
       <c r="D55">
-        <v>770.4666666666667</v>
+        <v>855.0857142857143</v>
       </c>
       <c r="E55">
-        <v>1045.590909090909</v>
+        <v>1100</v>
       </c>
       <c r="F55">
-        <v>484.0628272251309</v>
+        <v>490.6229508196722</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -1977,16 +1980,16 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>2.110169491525424</v>
+        <v>1.98989898989899</v>
       </c>
       <c r="D56">
-        <v>1611.558333333333</v>
+        <v>1227.075</v>
       </c>
       <c r="E56">
-        <v>1189.945454545455</v>
+        <v>1226.210526315789</v>
       </c>
       <c r="F56">
-        <v>776.6546184738955</v>
+        <v>747.4568527918782</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -1997,19 +2000,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C57">
-        <v>2.440677966101695</v>
+        <v>1.91</v>
       </c>
       <c r="D57">
-        <v>799.1875</v>
+        <v>770.4666666666667</v>
       </c>
       <c r="E57">
-        <v>1110</v>
+        <v>1045.590909090909</v>
       </c>
       <c r="F57">
-        <v>355.1944444444445</v>
+        <v>484.0628272251309</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2023,16 +2026,16 @@
         <v>120</v>
       </c>
       <c r="C58">
-        <v>2.018348623853211</v>
+        <v>2.110169491525424</v>
       </c>
       <c r="D58">
-        <v>1341.201680672269</v>
+        <v>1611.558333333333</v>
       </c>
       <c r="E58">
-        <v>955.2</v>
+        <v>1189.945454545455</v>
       </c>
       <c r="F58">
-        <v>725.4681818181818</v>
+        <v>776.6546184738955</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2043,19 +2046,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>1.787610619469026</v>
+        <v>2.440677966101695</v>
       </c>
       <c r="D59">
-        <v>1135.823529411765</v>
+        <v>799.1875</v>
       </c>
       <c r="E59">
-        <v>1036.95652173913</v>
+        <v>1110</v>
       </c>
       <c r="F59">
-        <v>669.1237623762377</v>
+        <v>355.1944444444445</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2066,19 +2069,19 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C60">
-        <v>2.452380952380953</v>
+        <v>2.009090909090909</v>
       </c>
       <c r="D60">
-        <v>906.6226415094339</v>
+        <v>1346.18487394958</v>
       </c>
       <c r="E60">
-        <v>1191.117647058823</v>
+        <v>974</v>
       </c>
       <c r="F60">
-        <v>466.5145631067961</v>
+        <v>724.868778280543</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2092,16 +2095,16 @@
         <v>120</v>
       </c>
       <c r="C61">
-        <v>2.127118644067797</v>
+        <v>1.787610619469026</v>
       </c>
       <c r="D61">
-        <v>1162.008333333333</v>
+        <v>1135.823529411765</v>
       </c>
       <c r="E61">
-        <v>1421.142857142857</v>
+        <v>1036.95652173913</v>
       </c>
       <c r="F61">
-        <v>555.5418326693227</v>
+        <v>669.1237623762377</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2112,19 +2115,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C62">
-        <v>1.778761061946903</v>
+        <v>2.452380952380953</v>
       </c>
       <c r="D62">
-        <v>852.2833333333333</v>
+        <v>906.6226415094339</v>
       </c>
       <c r="E62">
-        <v>751.0679611650486</v>
+        <v>1191.117647058823</v>
       </c>
       <c r="F62">
-        <v>508.8258706467662</v>
+        <v>466.5145631067961</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2135,19 +2138,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C63">
-        <v>2.4875</v>
+        <v>2.127118644067797</v>
       </c>
       <c r="D63">
-        <v>907.8444444444444</v>
+        <v>1162.008333333333</v>
       </c>
       <c r="E63">
-        <v>1156.222222222222</v>
+        <v>1421.142857142857</v>
       </c>
       <c r="F63">
-        <v>410.5829145728643</v>
+        <v>555.5418326693227</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2158,19 +2161,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C64">
-        <v>2.219047619047619</v>
+        <v>1.778761061946903</v>
       </c>
       <c r="D64">
-        <v>1003.863247863248</v>
+        <v>852.2833333333333</v>
       </c>
       <c r="E64">
-        <v>1269.740740740741</v>
+        <v>751.0679611650486</v>
       </c>
       <c r="F64">
-        <v>504.0858369098713</v>
+        <v>508.8258706467662</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2181,19 +2184,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C65">
-        <v>2.287128712871287</v>
+        <v>2.4875</v>
       </c>
       <c r="D65">
-        <v>1069.840336134454</v>
+        <v>907.8444444444444</v>
       </c>
       <c r="E65">
-        <v>989.1030927835052</v>
+        <v>1156.222222222222</v>
       </c>
       <c r="F65">
-        <v>551.1298701298701</v>
+        <v>410.5829145728643</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2204,19 +2207,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C66">
-        <v>3.01980198019802</v>
+        <v>2.219047619047619</v>
       </c>
       <c r="D66">
-        <v>1688.958333333333</v>
+        <v>1003.863247863248</v>
       </c>
       <c r="E66">
-        <v>2425.4</v>
+        <v>1269.740740740741</v>
       </c>
       <c r="F66">
-        <v>664.5081967213115</v>
+        <v>504.0858369098713</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2227,19 +2230,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C67">
-        <v>2.518072289156626</v>
+        <v>2.287128712871287</v>
       </c>
       <c r="D67">
-        <v>1046.720930232558</v>
+        <v>1069.840336134454</v>
       </c>
       <c r="E67">
-        <v>1119.76</v>
+        <v>989.1030927835052</v>
       </c>
       <c r="F67">
-        <v>430.7081339712919</v>
+        <v>551.1298701298701</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2250,19 +2253,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C68">
-        <v>2.036363636363636</v>
+        <v>3.059405940594059</v>
       </c>
       <c r="D68">
-        <v>1064.890909090909</v>
+        <v>1707.666666666667</v>
       </c>
       <c r="E68">
-        <v>1338.461538461539</v>
+        <v>2525.4</v>
       </c>
       <c r="F68">
-        <v>522.9375</v>
+        <v>663.1715210355987</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2273,19 +2276,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C69">
-        <v>1.822429906542056</v>
+        <v>2.518072289156626</v>
       </c>
       <c r="D69">
-        <v>914.0336134453781</v>
+        <v>1046.720930232558</v>
       </c>
       <c r="E69">
-        <v>1157.2</v>
+        <v>1119.76</v>
       </c>
       <c r="F69">
-        <v>557.7948717948718</v>
+        <v>430.7081339712919</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2296,19 +2299,19 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C70">
-        <v>1.763636363636364</v>
+        <v>2.036363636363636</v>
       </c>
       <c r="D70">
-        <v>1196.575</v>
+        <v>1064.890909090909</v>
       </c>
       <c r="E70">
-        <v>973.7966101694915</v>
+        <v>1338.461538461539</v>
       </c>
       <c r="F70">
-        <v>740.1494845360825</v>
+        <v>522.9375</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2322,16 +2325,16 @@
         <v>120</v>
       </c>
       <c r="C71">
-        <v>1.477477477477477</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="D71">
-        <v>816.5166666666667</v>
+        <v>914.0336134453781</v>
       </c>
       <c r="E71">
-        <v>772.2191780821918</v>
+        <v>1157.2</v>
       </c>
       <c r="F71">
-        <v>597.4512195121952</v>
+        <v>557.7948717948718</v>
       </c>
       <c r="G71" t="s">
         <v>75</v>
@@ -2345,16 +2348,16 @@
         <v>120</v>
       </c>
       <c r="C72">
-        <v>1.747663551401869</v>
+        <v>1.781818181818182</v>
       </c>
       <c r="D72">
-        <v>1455.85</v>
+        <v>1201.908333333333</v>
       </c>
       <c r="E72">
-        <v>973.1666666666666</v>
+        <v>992.9491525423729</v>
       </c>
       <c r="F72">
-        <v>934.2352941176471</v>
+        <v>735.8622448979592</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -2365,19 +2368,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C73">
-        <v>2.193548387096774</v>
+        <v>1.477477477477477</v>
       </c>
       <c r="D73">
-        <v>1025.117647058823</v>
+        <v>816.5166666666667</v>
       </c>
       <c r="E73">
-        <v>1297.722222222222</v>
+        <v>772.2191780821918</v>
       </c>
       <c r="F73">
-        <v>512.5588235294117</v>
+        <v>597.4512195121952</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2391,16 +2394,16 @@
         <v>120</v>
       </c>
       <c r="C74">
-        <v>1.973684210526316</v>
+        <v>1.747663551401869</v>
       </c>
       <c r="D74">
-        <v>1019.596638655462</v>
+        <v>1455.85</v>
       </c>
       <c r="E74">
-        <v>1271.457627118644</v>
+        <v>973.1666666666666</v>
       </c>
       <c r="F74">
-        <v>539.2533333333333</v>
+        <v>934.2352941176471</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
@@ -2411,19 +2414,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>1.411764705882353</v>
+        <v>2.193548387096774</v>
       </c>
       <c r="D75">
-        <v>1495.883333333333</v>
+        <v>1025.117647058823</v>
       </c>
       <c r="E75">
-        <v>868.8829787234042</v>
+        <v>1297.722222222222</v>
       </c>
       <c r="F75">
-        <v>1068.488095238095</v>
+        <v>512.5588235294117</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2434,19 +2437,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C76">
-        <v>2.090909090909091</v>
+        <v>1.964912280701754</v>
       </c>
       <c r="D76">
-        <v>834.2173913043479</v>
+        <v>1031.218487394958</v>
       </c>
       <c r="E76">
-        <v>1174.166666666667</v>
+        <v>1290.051724137931</v>
       </c>
       <c r="F76">
-        <v>417.1086956521739</v>
+        <v>547.8348214285714</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2460,16 +2463,16 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>2.114035087719298</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="D77">
-        <v>1454.141666666667</v>
+        <v>1495.883333333333</v>
       </c>
       <c r="E77">
-        <v>936.0392156862745</v>
+        <v>868.8829787234042</v>
       </c>
       <c r="F77">
-        <v>724.0539419087137</v>
+        <v>1068.488095238095</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2480,19 +2483,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C78">
-        <v>2.111111111111111</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="D78">
-        <v>904.4444444444445</v>
+        <v>834.2173913043479</v>
       </c>
       <c r="E78">
-        <v>694.6666666666666</v>
+        <v>1174.166666666667</v>
       </c>
       <c r="F78">
-        <v>428.421052631579</v>
+        <v>417.1086956521739</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
@@ -2506,16 +2509,16 @@
         <v>120</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>2.114035087719298</v>
       </c>
       <c r="D79">
-        <v>1285.638655462185</v>
+        <v>1454.141666666667</v>
       </c>
       <c r="E79">
-        <v>1470.761904761905</v>
+        <v>936.0392156862745</v>
       </c>
       <c r="F79">
-        <v>695.4136363636363</v>
+        <v>724.0539419087137</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2526,19 +2529,19 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>1.870967741935484</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D80">
-        <v>799.5735294117648</v>
+        <v>904.4444444444445</v>
       </c>
       <c r="E80">
-        <v>871.8787878787879</v>
+        <v>694.6666666666666</v>
       </c>
       <c r="F80">
-        <v>468.7155172413793</v>
+        <v>428.421052631579</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -2552,16 +2555,16 @@
         <v>120</v>
       </c>
       <c r="C81">
-        <v>1.860869565217391</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1018.75</v>
+        <v>1285.638655462185</v>
       </c>
       <c r="E81">
-        <v>1021.025</v>
+        <v>1470.761904761905</v>
       </c>
       <c r="F81">
-        <v>571.2616822429907</v>
+        <v>695.4136363636363</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2572,19 +2575,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>1.53448275862069</v>
+        <v>1.870967741935484</v>
       </c>
       <c r="D82">
-        <v>1073.483870967742</v>
+        <v>799.5735294117648</v>
       </c>
       <c r="E82">
-        <v>1022.818181818182</v>
+        <v>871.8787878787879</v>
       </c>
       <c r="F82">
-        <v>747.8202247191011</v>
+        <v>468.7155172413793</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
@@ -2598,16 +2601,16 @@
         <v>120</v>
       </c>
       <c r="C83">
-        <v>1.765217391304348</v>
+        <v>1.860869565217391</v>
       </c>
       <c r="D83">
-        <v>1522.266666666667</v>
+        <v>1018.75</v>
       </c>
       <c r="E83">
-        <v>1033.338709677419</v>
+        <v>1021.025</v>
       </c>
       <c r="F83">
-        <v>899.8620689655172</v>
+        <v>571.2616822429907</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2618,19 +2621,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C84">
-        <v>1.737864077669903</v>
+        <v>1.53448275862069</v>
       </c>
       <c r="D84">
-        <v>849.3534482758621</v>
+        <v>1073.483870967742</v>
       </c>
       <c r="E84">
-        <v>1192.606060606061</v>
+        <v>1022.818181818182</v>
       </c>
       <c r="F84">
-        <v>550.4189944134079</v>
+        <v>747.8202247191011</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -2641,19 +2644,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C85">
-        <v>1.964705882352941</v>
+        <v>1.765217391304348</v>
       </c>
       <c r="D85">
-        <v>845.1111111111111</v>
+        <v>1522.266666666667</v>
       </c>
       <c r="E85">
-        <v>957.5</v>
+        <v>1033.338709677419</v>
       </c>
       <c r="F85">
-        <v>500.9940119760479</v>
+        <v>899.8620689655172</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
@@ -2664,19 +2667,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C86">
-        <v>2.120689655172414</v>
+        <v>1.737864077669903</v>
       </c>
       <c r="D86">
-        <v>791.6507936507936</v>
+        <v>849.3534482758621</v>
       </c>
       <c r="E86">
-        <v>2285.333333333333</v>
+        <v>1192.606060606061</v>
       </c>
       <c r="F86">
-        <v>405.479674796748</v>
+        <v>550.4189944134079</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -2687,19 +2690,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1.964705882352941</v>
       </c>
       <c r="D87">
-        <v>910.6567164179105</v>
+        <v>845.1111111111111</v>
       </c>
       <c r="E87">
-        <v>911.4146341463414</v>
+        <v>957.5</v>
       </c>
       <c r="F87">
-        <v>564.9444444444445</v>
+        <v>500.9940119760479</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -2710,19 +2713,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C88">
-        <v>1.629310344827586</v>
+        <v>2.120689655172414</v>
       </c>
       <c r="D88">
-        <v>990.3583333333333</v>
+        <v>791.6507936507936</v>
       </c>
       <c r="E88">
-        <v>861.578947368421</v>
+        <v>2285.333333333333</v>
       </c>
       <c r="F88">
-        <v>628.7989417989418</v>
+        <v>405.479674796748</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -2733,19 +2736,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C89">
-        <v>3.266666666666667</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>2256.229508196721</v>
+        <v>910.6567164179105</v>
       </c>
       <c r="E89">
-        <v>1820.555555555556</v>
+        <v>911.4146341463414</v>
       </c>
       <c r="F89">
-        <v>702.1938775510204</v>
+        <v>564.9444444444445</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -2756,19 +2759,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C90">
-        <v>2.578947368421053</v>
+        <v>1.629310344827586</v>
       </c>
       <c r="D90">
-        <v>816.1904761904761</v>
+        <v>990.3583333333333</v>
       </c>
       <c r="E90">
-        <v>1721.25</v>
+        <v>861.578947368421</v>
       </c>
       <c r="F90">
-        <v>349.7959183673469</v>
+        <v>628.7989417989418</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -2779,19 +2782,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C91">
-        <v>1.433333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="D91">
-        <v>1211.5</v>
+        <v>2256.229508196721</v>
       </c>
       <c r="E91">
-        <v>849.1196581196581</v>
+        <v>1820.555555555556</v>
       </c>
       <c r="F91">
-        <v>845.2325581395348</v>
+        <v>702.1938775510204</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
@@ -2802,19 +2805,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>2.470588235294118</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="D92">
-        <v>1404.411764705882</v>
+        <v>816.1904761904761</v>
       </c>
       <c r="E92">
-        <v>1805.727272727273</v>
+        <v>1721.25</v>
       </c>
       <c r="F92">
-        <v>568.452380952381</v>
+        <v>349.7959183673469</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
@@ -2828,16 +2831,16 @@
         <v>120</v>
       </c>
       <c r="C93">
-        <v>3.043859649122807</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="D93">
-        <v>1695.716666666667</v>
+        <v>1211.5</v>
       </c>
       <c r="E93">
-        <v>2249</v>
+        <v>849.1196581196581</v>
       </c>
       <c r="F93">
-        <v>586.4149855907781</v>
+        <v>845.2325581395348</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -2848,19 +2851,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="D94">
-        <v>1025</v>
+        <v>1404.411764705882</v>
       </c>
       <c r="E94">
-        <v>1124</v>
+        <v>1805.727272727273</v>
       </c>
       <c r="F94">
-        <v>341.6666666666667</v>
+        <v>568.452380952381</v>
       </c>
       <c r="G94" t="s">
         <v>98</v>
@@ -2871,19 +2874,19 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="D95">
-        <v>2000</v>
+        <v>1714.55</v>
       </c>
       <c r="E95">
-        <v>1700</v>
+        <v>2257.366666666667</v>
       </c>
       <c r="F95">
-        <v>1333.333333333333</v>
+        <v>586.1709401709402</v>
       </c>
       <c r="G95" t="s">
         <v>99</v>
@@ -2897,13 +2900,16 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>700</v>
+        <v>1025</v>
+      </c>
+      <c r="E96">
+        <v>1124</v>
       </c>
       <c r="F96">
-        <v>350</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="G96" t="s">
         <v>100</v>
@@ -2917,13 +2923,16 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>812.5</v>
+        <v>2000</v>
+      </c>
+      <c r="E97">
+        <v>1700</v>
       </c>
       <c r="F97">
-        <v>406.25</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="G97" t="s">
         <v>101</v>
@@ -2934,16 +2943,13 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
         <v>700</v>
-      </c>
-      <c r="E98">
-        <v>850</v>
       </c>
       <c r="F98">
         <v>350</v>
@@ -2957,19 +2963,16 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>2.038461538461538</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1283.833333333333</v>
-      </c>
-      <c r="E99">
-        <v>1168.142857142857</v>
+        <v>812.5</v>
       </c>
       <c r="F99">
-        <v>726.6981132075472</v>
+        <v>406.25</v>
       </c>
       <c r="G99" t="s">
         <v>103</v>
@@ -2980,19 +2983,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>1.232876712328767</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>752.418918918919</v>
+        <v>700</v>
       </c>
       <c r="E100">
-        <v>749.5263157894736</v>
+        <v>850</v>
       </c>
       <c r="F100">
-        <v>618.6555555555556</v>
+        <v>350</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
@@ -3003,19 +3006,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>1.666666666666667</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="D101">
-        <v>702.8571428571429</v>
+        <v>1283.833333333333</v>
       </c>
       <c r="E101">
-        <v>1377</v>
+        <v>1168.142857142857</v>
       </c>
       <c r="F101">
-        <v>492</v>
+        <v>726.6981132075472</v>
       </c>
       <c r="G101" t="s">
         <v>105</v>
@@ -3026,16 +3029,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1.232876712328767</v>
       </c>
       <c r="D102">
-        <v>1200</v>
+        <v>752.418918918919</v>
+      </c>
+      <c r="E102">
+        <v>749.5263157894736</v>
       </c>
       <c r="F102">
-        <v>600</v>
+        <v>618.6555555555556</v>
       </c>
       <c r="G102" t="s">
         <v>106</v>
@@ -3046,19 +3052,19 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D103">
-        <v>714</v>
+        <v>702.8571428571429</v>
       </c>
       <c r="E103">
-        <v>855</v>
+        <v>1377</v>
       </c>
       <c r="F103">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="G103" t="s">
         <v>107</v>
@@ -3069,19 +3075,16 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>2.363636363636364</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>711.3636363636364</v>
-      </c>
-      <c r="E104">
         <v>1200</v>
       </c>
       <c r="F104">
-        <v>300.9615384615385</v>
+        <v>600</v>
       </c>
       <c r="G104" t="s">
         <v>108</v>
@@ -3092,19 +3095,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>783.2142857142857</v>
+        <v>714</v>
       </c>
       <c r="E105">
-        <v>950</v>
+        <v>855</v>
       </c>
       <c r="F105">
-        <v>498.4090909090909</v>
+        <v>425</v>
       </c>
       <c r="G105" t="s">
         <v>109</v>
@@ -3115,19 +3118,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="D106">
-        <v>1242.5</v>
+        <v>711.3636363636364</v>
       </c>
       <c r="E106">
-        <v>1564</v>
+        <v>1200</v>
       </c>
       <c r="F106">
-        <v>828.3333333333334</v>
+        <v>300.9615384615385</v>
       </c>
       <c r="G106" t="s">
         <v>110</v>
@@ -3138,19 +3141,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>1.91304347826087</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D107">
-        <v>815.7608695652174</v>
+        <v>783.2142857142857</v>
       </c>
       <c r="E107">
-        <v>1102.6</v>
+        <v>950</v>
       </c>
       <c r="F107">
-        <v>426.4204545454546</v>
+        <v>498.4090909090909</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
@@ -3161,19 +3164,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>1.560975609756098</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>1568.095238095238</v>
+        <v>1242.5</v>
       </c>
       <c r="E108">
-        <v>973.8857142857142</v>
+        <v>1564</v>
       </c>
       <c r="F108">
-        <v>1029.0625</v>
+        <v>828.3333333333334</v>
       </c>
       <c r="G108" t="s">
         <v>112</v>
@@ -3184,19 +3187,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C109">
-        <v>2.181818181818182</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="D109">
-        <v>718.9230769230769</v>
+        <v>815.7608695652174</v>
       </c>
       <c r="E109">
-        <v>933.3333333333334</v>
+        <v>1102.6</v>
       </c>
       <c r="F109">
-        <v>389.4166666666667</v>
+        <v>426.4204545454546</v>
       </c>
       <c r="G109" t="s">
         <v>113</v>
@@ -3207,19 +3210,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C110">
-        <v>2.282051282051282</v>
+        <v>1.560975609756098</v>
       </c>
       <c r="D110">
-        <v>771.8409090909091</v>
+        <v>1568.095238095238</v>
       </c>
       <c r="E110">
-        <v>995.6666666666666</v>
+        <v>973.8857142857142</v>
       </c>
       <c r="F110">
-        <v>381.5842696629214</v>
+        <v>1029.0625</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -3230,19 +3233,19 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C111">
-        <v>2.25</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="D111">
-        <v>522.5</v>
+        <v>718.9230769230769</v>
       </c>
       <c r="E111">
-        <v>1700</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="F111">
-        <v>232.2222222222222</v>
+        <v>389.4166666666667</v>
       </c>
       <c r="G111" t="s">
         <v>115</v>
@@ -3253,19 +3256,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C112">
-        <v>1.788732394366197</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="D112">
-        <v>1598.866666666667</v>
+        <v>771.8409090909091</v>
       </c>
       <c r="E112">
-        <v>1071.948275862069</v>
+        <v>995.6666666666666</v>
       </c>
       <c r="F112">
-        <v>944.2125984251968</v>
+        <v>381.5842696629214</v>
       </c>
       <c r="G112" t="s">
         <v>116</v>
@@ -3276,22 +3279,68 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>2.222222222222222</v>
+        <v>2.25</v>
       </c>
       <c r="D113">
-        <v>781.8181818181819</v>
+        <v>522.5</v>
       </c>
       <c r="E113">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F113">
-        <v>430</v>
+        <v>232.2222222222222</v>
       </c>
       <c r="G113" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>75</v>
+      </c>
+      <c r="C114">
+        <v>1.788732394366197</v>
+      </c>
+      <c r="D114">
+        <v>1598.866666666667</v>
+      </c>
+      <c r="E114">
+        <v>1071.948275862069</v>
+      </c>
+      <c r="F114">
+        <v>944.2125984251968</v>
+      </c>
+      <c r="G114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>2.2</v>
+      </c>
+      <c r="D115">
+        <v>777.9166666666666</v>
+      </c>
+      <c r="E115">
+        <v>1100</v>
+      </c>
+      <c r="F115">
+        <v>424.3181818181818</v>
+      </c>
+      <c r="G115" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -1006,19 +1006,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>1.941176470588235</v>
+        <v>1.9375</v>
       </c>
       <c r="D13">
-        <v>553.8235294117648</v>
+        <v>538.4375</v>
       </c>
       <c r="E13">
         <v>1900</v>
       </c>
       <c r="F13">
-        <v>285.3030303030303</v>
+        <v>277.9032258064516</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1862,19 +1862,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51">
-        <v>2.151515151515151</v>
+        <v>2.149253731343284</v>
       </c>
       <c r="D51">
-        <v>1033.325</v>
+        <v>1029.20987654321</v>
       </c>
       <c r="E51">
-        <v>1035.642857142857</v>
+        <v>1031.6</v>
       </c>
       <c r="F51">
-        <v>582.1549295774648</v>
+        <v>578.9305555555555</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -2072,16 +2072,16 @@
         <v>120</v>
       </c>
       <c r="C60">
-        <v>2.009090909090909</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="D60">
-        <v>1346.18487394958</v>
+        <v>1341.201680672269</v>
       </c>
       <c r="E60">
-        <v>974</v>
+        <v>955.2</v>
       </c>
       <c r="F60">
-        <v>724.868778280543</v>
+        <v>725.4681818181818</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2184,19 +2184,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65">
-        <v>2.4875</v>
+        <v>2.493827160493827</v>
       </c>
       <c r="D65">
-        <v>907.8444444444444</v>
+        <v>906.6593406593406</v>
       </c>
       <c r="E65">
         <v>1156.222222222222</v>
       </c>
       <c r="F65">
-        <v>410.5829145728643</v>
+        <v>408.4455445544555</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2440,16 +2440,16 @@
         <v>120</v>
       </c>
       <c r="C76">
-        <v>1.964912280701754</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="D76">
-        <v>1031.218487394958</v>
+        <v>1019.596638655462</v>
       </c>
       <c r="E76">
-        <v>1290.051724137931</v>
+        <v>1271.457627118644</v>
       </c>
       <c r="F76">
-        <v>547.8348214285714</v>
+        <v>539.2533333333333</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2647,16 +2647,16 @@
         <v>120</v>
       </c>
       <c r="C85">
-        <v>1.765217391304348</v>
+        <v>1.773913043478261</v>
       </c>
       <c r="D85">
-        <v>1522.266666666667</v>
+        <v>1532.808333333333</v>
       </c>
       <c r="E85">
-        <v>1033.338709677419</v>
+        <v>1068.34375</v>
       </c>
       <c r="F85">
-        <v>899.8620689655172</v>
+        <v>901.6519607843137</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -1006,19 +1006,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>1.9375</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="D13">
-        <v>538.4375</v>
+        <v>553.8235294117648</v>
       </c>
       <c r="E13">
         <v>1900</v>
       </c>
       <c r="F13">
-        <v>277.9032258064516</v>
+        <v>285.3030303030303</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1681,19 +1681,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43">
-        <v>1.884615384615385</v>
+        <v>1.89873417721519</v>
       </c>
       <c r="D43">
-        <v>683.7160493827161</v>
+        <v>685.439024390244</v>
       </c>
       <c r="E43">
         <v>979.6896551724138</v>
       </c>
       <c r="F43">
-        <v>376.7414965986395</v>
+        <v>374.7066666666666</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -1724,19 +1724,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>1.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>734.6666666666666</v>
+        <v>740.3125</v>
       </c>
       <c r="E45">
         <v>925.7142857142857</v>
       </c>
       <c r="F45">
-        <v>479.1304347826087</v>
+        <v>455.5769230769231</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1954,19 +1954,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>2.103448275862069</v>
+        <v>2.107142857142857</v>
       </c>
       <c r="D55">
-        <v>855.0857142857143</v>
+        <v>683.9117647058823</v>
       </c>
       <c r="E55">
         <v>1100</v>
       </c>
       <c r="F55">
-        <v>490.6229508196722</v>
+        <v>394.1186440677966</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -1980,16 +1980,16 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>1.98989898989899</v>
+        <v>1.97979797979798</v>
       </c>
       <c r="D56">
-        <v>1227.075</v>
+        <v>1225.408333333333</v>
       </c>
       <c r="E56">
-        <v>1226.210526315789</v>
+        <v>1205.297297297297</v>
       </c>
       <c r="F56">
-        <v>747.4568527918782</v>
+        <v>750.25</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2075,13 +2075,13 @@
         <v>2.018348623853211</v>
       </c>
       <c r="D60">
-        <v>1341.201680672269</v>
+        <v>1333.210084033613</v>
       </c>
       <c r="E60">
-        <v>955.2</v>
+        <v>1010.769230769231</v>
       </c>
       <c r="F60">
-        <v>725.4681818181818</v>
+        <v>721.1454545454545</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2233,16 +2233,16 @@
         <v>120</v>
       </c>
       <c r="C67">
-        <v>2.287128712871287</v>
+        <v>2.297029702970297</v>
       </c>
       <c r="D67">
-        <v>1069.840336134454</v>
+        <v>1073.243697478992</v>
       </c>
       <c r="E67">
-        <v>989.1030927835052</v>
+        <v>1003.5</v>
       </c>
       <c r="F67">
-        <v>551.1298701298701</v>
+        <v>550.5</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2348,16 +2348,16 @@
         <v>120</v>
       </c>
       <c r="C72">
-        <v>1.781818181818182</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="D72">
-        <v>1201.908333333333</v>
+        <v>1199.366666666667</v>
       </c>
       <c r="E72">
-        <v>992.9491525423729</v>
+        <v>985.639344262295</v>
       </c>
       <c r="F72">
-        <v>735.8622448979592</v>
+        <v>738.0717948717949</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -2072,16 +2072,16 @@
         <v>120</v>
       </c>
       <c r="C60">
-        <v>2.018348623853211</v>
+        <v>2.018518518518519</v>
       </c>
       <c r="D60">
-        <v>1333.210084033613</v>
+        <v>1324.35294117647</v>
       </c>
       <c r="E60">
-        <v>1010.769230769231</v>
+        <v>992</v>
       </c>
       <c r="F60">
-        <v>721.1454545454545</v>
+        <v>722.9266055045872</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2555,16 +2555,16 @@
         <v>120</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>2.009090909090909</v>
       </c>
       <c r="D81">
-        <v>1285.638655462185</v>
+        <v>1268.529411764706</v>
       </c>
       <c r="E81">
         <v>1470.761904761905</v>
       </c>
       <c r="F81">
-        <v>695.4136363636363</v>
+        <v>683.0542986425339</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2690,19 +2690,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87">
-        <v>1.964705882352941</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="D87">
-        <v>845.1111111111111</v>
+        <v>841.05</v>
       </c>
       <c r="E87">
         <v>957.5</v>
       </c>
       <c r="F87">
-        <v>500.9940119760479</v>
+        <v>494.7352941176471</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>

--- a/AggregateCraigslistData.xlsx
+++ b/AggregateCraigslistData.xlsx
@@ -785,19 +785,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>1.833333333333333</v>
+        <v>1.772727272727273</v>
       </c>
       <c r="D3">
-        <v>633.5</v>
+        <v>619.8214285714286</v>
       </c>
       <c r="E3">
-        <v>1666.666666666667</v>
+        <v>1250</v>
       </c>
       <c r="F3">
-        <v>431.9318181818182</v>
+        <v>445</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -831,16 +831,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="F5">
-        <v>466.25</v>
+        <v>490</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -851,16 +851,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>975</v>
+        <v>762.5</v>
       </c>
       <c r="F6">
-        <v>731.25</v>
+        <v>1525</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -874,16 +874,16 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>1.550847457627119</v>
+        <v>1.567796610169492</v>
       </c>
       <c r="D7">
-        <v>890.6416666666667</v>
+        <v>978.1</v>
       </c>
       <c r="E7">
-        <v>919.0697674418604</v>
+        <v>898.9830508474577</v>
       </c>
       <c r="F7">
-        <v>584.0273224043716</v>
+        <v>634.4432432432433</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -894,19 +894,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>2.175</v>
+        <v>2.108108108108108</v>
       </c>
       <c r="D8">
-        <v>663.0666666666667</v>
+        <v>644.9512195121952</v>
       </c>
       <c r="E8">
-        <v>889.7777777777778</v>
+        <v>886.8571428571429</v>
       </c>
       <c r="F8">
-        <v>342.9655172413793</v>
+        <v>339.0128205128205</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -917,19 +917,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>2.357142857142857</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>710</v>
+        <v>730.4166666666666</v>
       </c>
       <c r="E9">
-        <v>1278.4</v>
+        <v>1323</v>
       </c>
       <c r="F9">
-        <v>322.7272727272727</v>
+        <v>292.1666666666667</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -940,19 +940,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>1966.666666666667</v>
       </c>
       <c r="E10">
         <v>2000</v>
       </c>
       <c r="F10">
-        <v>666.6666666666666</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -963,19 +963,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>1.777777777777778</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="D11">
-        <v>852.5</v>
+        <v>830</v>
       </c>
       <c r="E11">
-        <v>1178</v>
+        <v>1105.75</v>
       </c>
       <c r="F11">
-        <v>479.53125</v>
+        <v>477.8787878787879</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1009,16 +1009,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>1.941176470588235</v>
+        <v>2.117647058823529</v>
       </c>
       <c r="D13">
-        <v>553.8235294117648</v>
+        <v>580</v>
       </c>
       <c r="E13">
-        <v>1900</v>
+        <v>1590</v>
       </c>
       <c r="F13">
-        <v>285.3030303030303</v>
+        <v>273.8888888888889</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1032,16 +1032,16 @@
         <v>120</v>
       </c>
       <c r="C14">
-        <v>2.723214285714286</v>
+        <v>2.754385964912281</v>
       </c>
       <c r="D14">
-        <v>594.6902654867257</v>
+        <v>640.2521739130435</v>
       </c>
       <c r="E14">
-        <v>1331.625</v>
+        <v>1420.3</v>
       </c>
       <c r="F14">
-        <v>220.327868852459</v>
+        <v>234.4872611464968</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1052,19 +1052,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>881</v>
+        <v>803.75</v>
       </c>
       <c r="E15">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F15">
-        <v>367.0833333333333</v>
+        <v>401.875</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1075,19 +1075,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>2.021276595744681</v>
       </c>
       <c r="D16">
-        <v>718.2222222222222</v>
+        <v>729.3207547169811</v>
       </c>
       <c r="E16">
-        <v>881.0555555555555</v>
+        <v>881.4705882352941</v>
       </c>
       <c r="F16">
-        <v>412.5957446808511</v>
+        <v>406.8842105263158</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1098,19 +1098,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>1279</v>
+        <v>1361.25</v>
       </c>
       <c r="E17">
         <v>1240</v>
       </c>
       <c r="F17">
-        <v>426.3333333333333</v>
+        <v>453.75</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1124,16 +1124,16 @@
         <v>120</v>
       </c>
       <c r="C18">
-        <v>1.583333333333333</v>
+        <v>1.574074074074074</v>
       </c>
       <c r="D18">
-        <v>849.8559322033898</v>
+        <v>860.4915254237288</v>
       </c>
       <c r="E18">
-        <v>944.9574468085107</v>
+        <v>947.2156862745098</v>
       </c>
       <c r="F18">
-        <v>586.4502923976609</v>
+        <v>597.2823529411764</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1144,19 +1144,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>2.488888888888889</v>
+        <v>2.590909090909091</v>
       </c>
       <c r="D19">
-        <v>683.5769230769231</v>
+        <v>693.4285714285714</v>
       </c>
       <c r="E19">
-        <v>1368.857142857143</v>
+        <v>1407.375</v>
       </c>
       <c r="F19">
-        <v>317.375</v>
+        <v>298.0526315789473</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1167,19 +1167,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>1.615384615384615</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D20">
-        <v>504.6153846153846</v>
+        <v>500.8333333333333</v>
       </c>
       <c r="E20">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F20">
-        <v>312.3809523809524</v>
+        <v>300.5</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1224,19 +1224,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>2.727272727272727</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D23">
-        <v>850.8333333333334</v>
+        <v>827.6923076923077</v>
       </c>
       <c r="E23">
         <v>1030.666666666667</v>
       </c>
       <c r="F23">
-        <v>340.3333333333333</v>
+        <v>336.25</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1247,19 +1247,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>1.666666666666667</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D24">
-        <v>525.3181818181819</v>
+        <v>550.8620689655172</v>
       </c>
       <c r="E24">
-        <v>993.5</v>
+        <v>954.8</v>
       </c>
       <c r="F24">
-        <v>330.2</v>
+        <v>332.8125</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1270,19 +1270,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C25">
-        <v>1.780487804878049</v>
+        <v>1.779220779220779</v>
       </c>
       <c r="D25">
-        <v>648.0340909090909</v>
+        <v>645.8072289156627</v>
       </c>
       <c r="E25">
-        <v>754.7619047619048</v>
+        <v>764.5833333333334</v>
       </c>
       <c r="F25">
-        <v>390.5958904109589</v>
+        <v>391.2554744525547</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1293,19 +1293,19 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26">
-        <v>1.91304347826087</v>
+        <v>1.926829268292683</v>
       </c>
       <c r="D26">
-        <v>736.156862745098</v>
+        <v>733.2</v>
       </c>
       <c r="E26">
-        <v>884.75</v>
+        <v>847.25</v>
       </c>
       <c r="F26">
-        <v>426.6363636363636</v>
+        <v>417.6455696202532</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1316,10 +1316,10 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D27">
         <v>600</v>
@@ -1328,7 +1328,7 @@
         <v>1050</v>
       </c>
       <c r="F27">
-        <v>266.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1339,19 +1339,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>777.8571428571429</v>
+        <v>815.8333333333334</v>
       </c>
       <c r="E28">
         <v>1500</v>
       </c>
       <c r="F28">
-        <v>388.9285714285714</v>
+        <v>407.9166666666667</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1365,16 +1365,16 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D29">
-        <v>988</v>
+        <v>916</v>
       </c>
       <c r="E29">
         <v>1101</v>
       </c>
       <c r="F29">
-        <v>548.8888888888889</v>
+        <v>572.5</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1385,19 +1385,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>1.857142857142857</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="D30">
-        <v>604.6</v>
+        <v>615.75</v>
       </c>
       <c r="E30">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="F30">
-        <v>348.8076923076923</v>
+        <v>351.8571428571428</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1454,19 +1454,19 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1222.5</v>
+        <v>1233.333333333333</v>
       </c>
       <c r="E33">
-        <v>1375</v>
+        <v>1050</v>
       </c>
       <c r="F33">
-        <v>376.1538461538461</v>
+        <v>411.1111111111111</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1477,19 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>2.205128205128205</v>
+        <v>2.292682926829268</v>
       </c>
       <c r="D34">
-        <v>803.5555555555555</v>
+        <v>824.0425531914893</v>
       </c>
       <c r="E34">
-        <v>1211.739130434783</v>
+        <v>1218.636363636364</v>
       </c>
       <c r="F34">
-        <v>420.4651162790698</v>
+        <v>412.0212765957447</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1500,19 +1500,19 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D35">
-        <v>815.5555555555555</v>
+        <v>813.5</v>
       </c>
       <c r="E35">
-        <v>1008</v>
+        <v>968.5714285714286</v>
       </c>
       <c r="F35">
-        <v>407.7777777777778</v>
+        <v>387.3809523809524</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1546,16 +1546,16 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>1.75</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="D37">
-        <v>624.7532467532468</v>
+        <v>622.5454545454545</v>
       </c>
       <c r="E37">
-        <v>826.88</v>
+        <v>828.156862745098</v>
       </c>
       <c r="F37">
-        <v>404.2521008403361</v>
+        <v>399.4666666666666</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1566,19 +1566,19 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>1.642857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D38">
-        <v>1244.705882352941</v>
+        <v>1250</v>
       </c>
       <c r="E38">
-        <v>924.2857142857143</v>
+        <v>944.2857142857143</v>
       </c>
       <c r="F38">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -1589,19 +1589,19 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>2.333333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="D39">
-        <v>1472.5</v>
+        <v>1415.909090909091</v>
       </c>
       <c r="E39">
         <v>2300</v>
       </c>
       <c r="F39">
-        <v>701.1904761904761</v>
+        <v>707.9545454545455</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -1638,16 +1638,16 @@
         <v>61</v>
       </c>
       <c r="C41">
-        <v>1.953488372093023</v>
+        <v>1.977272727272727</v>
       </c>
       <c r="D41">
-        <v>623.8135593220339</v>
+        <v>624.2372881355932</v>
       </c>
       <c r="E41">
-        <v>1228.5</v>
+        <v>1298.090909090909</v>
       </c>
       <c r="F41">
-        <v>438.1547619047619</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -1658,19 +1658,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>2.435897435897436</v>
+        <v>2.48780487804878</v>
       </c>
       <c r="D42">
-        <v>822.2631578947369</v>
+        <v>824.609756097561</v>
       </c>
       <c r="E42">
-        <v>961.9411764705883</v>
+        <v>964.0555555555555</v>
       </c>
       <c r="F42">
-        <v>328.9052631578948</v>
+        <v>331.4607843137255</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1681,19 +1681,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43">
-        <v>1.89873417721519</v>
+        <v>1.890243902439024</v>
       </c>
       <c r="D43">
-        <v>685.439024390244</v>
+        <v>684.9883720930233</v>
       </c>
       <c r="E43">
-        <v>979.6896551724138</v>
+        <v>1014.846153846154</v>
       </c>
       <c r="F43">
-        <v>374.7066666666666</v>
+        <v>380.058064516129</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -1704,16 +1704,16 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="D44">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F44">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -1724,19 +1724,19 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D45">
-        <v>740.3125</v>
+        <v>723.3333333333334</v>
       </c>
       <c r="E45">
-        <v>925.7142857142857</v>
+        <v>903.75</v>
       </c>
       <c r="F45">
-        <v>455.5769230769231</v>
+        <v>493.1818181818182</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1770,19 +1770,19 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47">
-        <v>1.972222222222222</v>
+        <v>1.918181818181818</v>
       </c>
       <c r="D47">
-        <v>1115.880733944954</v>
+        <v>1103.354545454545</v>
       </c>
       <c r="E47">
-        <v>1021.709677419355</v>
+        <v>996.8421052631579</v>
       </c>
       <c r="F47">
-        <v>571.037558685446</v>
+        <v>575.2085308056872</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -1816,19 +1816,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>2.714285714285714</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D49">
-        <v>1402.857142857143</v>
+        <v>1504.166666666667</v>
       </c>
       <c r="E49">
-        <v>1710</v>
+        <v>1837.5</v>
       </c>
       <c r="F49">
-        <v>516.8421052631579</v>
+        <v>530.8823529411765</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -1839,19 +1839,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>2.111111111111111</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="D50">
-        <v>812.8571428571429</v>
+        <v>823.7037037037037</v>
       </c>
       <c r="E50">
-        <v>1085.555555555556</v>
+        <v>1146.25</v>
       </c>
       <c r="F50">
-        <v>399.2982456140351</v>
+        <v>397.1428571428572</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -1865,16 +1865,16 @@
         <v>83</v>
       </c>
       <c r="C51">
-        <v>2.149253731343284</v>
+        <v>2.144927536231884</v>
       </c>
       <c r="D51">
-        <v>1029.20987654321</v>
+        <v>1028.283950617284</v>
       </c>
       <c r="E51">
-        <v>1031.6</v>
+        <v>1033.764705882353</v>
       </c>
       <c r="F51">
-        <v>578.9305555555555</v>
+        <v>562.777027027027</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -1885,19 +1885,19 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C52">
-        <v>1.788235294117647</v>
+        <v>1.79746835443038</v>
       </c>
       <c r="D52">
-        <v>649.4252873563219</v>
+        <v>645.6219512195122</v>
       </c>
       <c r="E52">
-        <v>707.25</v>
+        <v>724.9375</v>
       </c>
       <c r="F52">
-        <v>371.7105263157895</v>
+        <v>372.8239436619718</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -1908,19 +1908,19 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>2.222222222222222</v>
+        <v>1.9</v>
       </c>
       <c r="D53">
-        <v>741.7777777777778</v>
+        <v>828.5</v>
       </c>
       <c r="E53">
-        <v>1104</v>
+        <v>934.8333333333334</v>
       </c>
       <c r="F53">
-        <v>333.8</v>
+        <v>436.0526315789473</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -1931,19 +1931,19 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>1.933333333333333</v>
+        <v>1.9375</v>
       </c>
       <c r="D54">
-        <v>1074.322580645161</v>
+        <v>1063.757575757576</v>
       </c>
       <c r="E54">
-        <v>1148.7</v>
+        <v>1090.583333333333</v>
       </c>
       <c r="F54">
-        <v>574.2068965517242</v>
+        <v>566.1935483870968</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -1957,16 +1957,16 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>2.107142857142857</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D55">
-        <v>683.9117647058823</v>
+        <v>683.5588235294117</v>
       </c>
       <c r="E55">
         <v>1100</v>
       </c>
       <c r="F55">
-        <v>394.1186440677966</v>
+        <v>387.35</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -1980,16 +1980,16 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>1.97979797979798</v>
+        <v>1.922330097087379</v>
       </c>
       <c r="D56">
-        <v>1225.408333333333</v>
+        <v>1280.408333333333</v>
       </c>
       <c r="E56">
-        <v>1205.297297297297</v>
+        <v>1285.794871794872</v>
       </c>
       <c r="F56">
-        <v>750.25</v>
+        <v>776.0050505050505</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2003,16 +2003,16 @@
         <v>120</v>
       </c>
       <c r="C57">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="D57">
-        <v>770.4666666666667</v>
+        <v>764.5166666666667</v>
       </c>
       <c r="E57">
-        <v>1045.590909090909</v>
+        <v>995.9</v>
       </c>
       <c r="F57">
-        <v>484.0628272251309</v>
+        <v>504.0769230769231</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -2026,16 +2026,16 @@
         <v>120</v>
       </c>
       <c r="C58">
-        <v>2.110169491525424</v>
+        <v>1.789915966386555</v>
       </c>
       <c r="D58">
-        <v>1611.558333333333</v>
+        <v>1711.75</v>
       </c>
       <c r="E58">
-        <v>1189.945454545455</v>
+        <v>1146.058823529412</v>
       </c>
       <c r="F58">
-        <v>776.6546184738955</v>
+        <v>964.3661971830986</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2046,19 +2046,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C59">
-        <v>2.440677966101695</v>
+        <v>2.431372549019608</v>
       </c>
       <c r="D59">
-        <v>799.1875</v>
+        <v>827.3773584905661</v>
       </c>
       <c r="E59">
-        <v>1110</v>
+        <v>1609.5</v>
       </c>
       <c r="F59">
-        <v>355.1944444444445</v>
+        <v>353.6370967741935</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2075,13 +2075,13 @@
         <v>2.018518518518519</v>
       </c>
       <c r="D60">
-        <v>1324.35294117647</v>
+        <v>1330.067226890756</v>
       </c>
       <c r="E60">
-        <v>992</v>
+        <v>1065.828571428571</v>
       </c>
       <c r="F60">
-        <v>722.9266055045872</v>
+        <v>726.045871559633</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2095,16 +2095,16 @@
         <v>120</v>
       </c>
       <c r="C61">
-        <v>1.787610619469026</v>
+        <v>1.730434782608696</v>
       </c>
       <c r="D61">
-        <v>1135.823529411765</v>
+        <v>1129.63025210084</v>
       </c>
       <c r="E61">
-        <v>1036.95652173913</v>
+        <v>1013.157894736842</v>
       </c>
       <c r="F61">
-        <v>669.1237623762377</v>
+        <v>675.5075376884422</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2115,19 +2115,19 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>2.452380952380953</v>
+        <v>2.447368421052631</v>
       </c>
       <c r="D62">
-        <v>906.6226415094339</v>
+        <v>848.2765957446809</v>
       </c>
       <c r="E62">
-        <v>1191.117647058823</v>
+        <v>1221.692307692308</v>
       </c>
       <c r="F62">
-        <v>466.5145631067961</v>
+        <v>428.6989247311828</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2141,16 +2141,16 @@
         <v>120</v>
       </c>
       <c r="C63">
-        <v>2.127118644067797</v>
+        <v>2.042016806722689</v>
       </c>
       <c r="D63">
-        <v>1162.008333333333</v>
+        <v>1110.025</v>
       </c>
       <c r="E63">
-        <v>1421.142857142857</v>
+        <v>1259.870967741935</v>
       </c>
       <c r="F63">
-        <v>555.5418326693227</v>
+        <v>548.1604938271605</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2167,13 +2167,13 @@
         <v>1.778761061946903</v>
       </c>
       <c r="D64">
-        <v>852.2833333333333</v>
+        <v>854.325</v>
       </c>
       <c r="E64">
-        <v>751.0679611650486</v>
+        <v>746.6666666666666</v>
       </c>
       <c r="F64">
-        <v>508.8258706467662</v>
+        <v>510.044776119403</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2184,19 +2184,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65">
-        <v>2.493827160493827</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="D65">
-        <v>906.6593406593406</v>
+        <v>889.3118279569892</v>
       </c>
       <c r="E65">
-        <v>1156.222222222222</v>
+        <v>1143.5</v>
       </c>
       <c r="F65">
-        <v>408.4455445544555</v>
+        <v>424.1333333333333</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2207,19 +2207,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C66">
-        <v>2.219047619047619</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="D66">
-        <v>1003.863247863248</v>
+        <v>977.2767857142857</v>
       </c>
       <c r="E66">
-        <v>1269.740740740741</v>
+        <v>1247.078431372549</v>
       </c>
       <c r="F66">
-        <v>504.0858369098713</v>
+        <v>495.2714932126697</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2233,16 +2233,16 @@
         <v>120</v>
       </c>
       <c r="C67">
-        <v>2.297029702970297</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="D67">
-        <v>1073.243697478992</v>
+        <v>1040.521008403361</v>
       </c>
       <c r="E67">
-        <v>1003.5</v>
+        <v>950.070707070707</v>
       </c>
       <c r="F67">
-        <v>550.5</v>
+        <v>560.2805429864253</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2256,16 +2256,16 @@
         <v>120</v>
       </c>
       <c r="C68">
-        <v>3.059405940594059</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="D68">
-        <v>1707.666666666667</v>
+        <v>1413.908333333333</v>
       </c>
       <c r="E68">
-        <v>2525.4</v>
+        <v>1053.607142857143</v>
       </c>
       <c r="F68">
-        <v>663.1715210355987</v>
+        <v>684.1491935483871</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2276,19 +2276,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C69">
-        <v>2.518072289156626</v>
+        <v>2.5375</v>
       </c>
       <c r="D69">
-        <v>1046.720930232558</v>
+        <v>1061.843373493976</v>
       </c>
       <c r="E69">
-        <v>1119.76</v>
+        <v>1118.186666666667</v>
       </c>
       <c r="F69">
-        <v>430.7081339712919</v>
+        <v>434.1527093596059</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2299,19 +2299,19 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70">
-        <v>2.036363636363636</v>
+        <v>1.962264150943396</v>
       </c>
       <c r="D70">
-        <v>1064.890909090909</v>
+        <v>1008.849056603774</v>
       </c>
       <c r="E70">
-        <v>1338.461538461539</v>
+        <v>1250</v>
       </c>
       <c r="F70">
-        <v>522.9375</v>
+        <v>514.125</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -2325,16 +2325,16 @@
         <v>120</v>
       </c>
       <c r="C71">
-        <v>1.822429906542056</v>
+        <v>1.851485148514852</v>
       </c>
       <c r="D71">
-        <v>914.0336134453781</v>
+        <v>909.5546218487395</v>
       </c>
       <c r="E71">
-        <v>1157.2</v>
+        <v>1143.354838709677</v>
       </c>
       <c r="F71">
-        <v>557.7948717948718</v>
+        <v>578.807486631016</v>
       </c>
       <c r="G71" t="s">
         <v>75</v>
@@ -2348,16 +2348,16 @@
         <v>120</v>
       </c>
       <c r="C72">
-        <v>1.756756756756757</v>
+        <v>1.388349514563107</v>
       </c>
       <c r="D72">
-        <v>1199.366666666667</v>
+        <v>1090.691666666667</v>
       </c>
       <c r="E72">
-        <v>985.639344262295</v>
+        <v>847.5102040816327</v>
       </c>
       <c r="F72">
-        <v>738.0717948717949</v>
+        <v>915.2657342657343</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -2371,16 +2371,16 @@
         <v>120</v>
       </c>
       <c r="C73">
-        <v>1.477477477477477</v>
+        <v>1.535714285714286</v>
       </c>
       <c r="D73">
-        <v>816.5166666666667</v>
+        <v>792.975</v>
       </c>
       <c r="E73">
-        <v>772.2191780821918</v>
+        <v>784.876923076923</v>
       </c>
       <c r="F73">
-        <v>597.4512195121952</v>
+        <v>553.2383720930233</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -2394,16 +2394,16 @@
         <v>120</v>
       </c>
       <c r="C74">
-        <v>1.747663551401869</v>
+        <v>1.779816513761468</v>
       </c>
       <c r="D74">
-        <v>1455.85</v>
+        <v>1482.775</v>
       </c>
       <c r="E74">
-        <v>973.1666666666666</v>
+        <v>935.3917525773196</v>
       </c>
       <c r="F74">
-        <v>934.2352941176471</v>
+        <v>917.180412371134</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
@@ -2414,19 +2414,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C75">
-        <v>2.193548387096774</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D75">
-        <v>1025.117647058823</v>
+        <v>1083</v>
       </c>
       <c r="E75">
-        <v>1297.722222222222</v>
+        <v>1303.470588235294</v>
       </c>
       <c r="F75">
-        <v>512.5588235294117</v>
+        <v>532</v>
       </c>
       <c r="G75" t="s">
         <v>79</v>
@@ -2440,16 +2440,16 @@
         <v>120</v>
       </c>
       <c r="C76">
-        <v>1.973684210526316</v>
+        <v>1.9375</v>
       </c>
       <c r="D76">
-        <v>1019.596638655462</v>
+        <v>996.2773109243698</v>
       </c>
       <c r="E76">
-        <v>1271.457627118644</v>
+        <v>1141.357142857143</v>
       </c>
       <c r="F76">
-        <v>539.2533333333333</v>
+        <v>546.3456221198156</v>
       </c>
       <c r="G76" t="s">
         <v>80</v>
@@ -2463,16 +2463,16 @@
         <v>120</v>
       </c>
       <c r="C77">
-        <v>1.411764705882353</v>
+        <v>1.471153846153846</v>
       </c>
       <c r="D77">
-        <v>1495.883333333333</v>
+        <v>1444.508333333333</v>
       </c>
       <c r="E77">
-        <v>868.8829787234042</v>
+        <v>810.5967741935484</v>
       </c>
       <c r="F77">
-        <v>1068.488095238095</v>
+        <v>1132.947712418301</v>
       </c>
       <c r="G77" t="s">
         <v>81</v>
@@ -2483,19 +2483,19 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>2.090909090909091</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="D78">
-        <v>834.2173913043479</v>
+        <v>835.0833333333334</v>
       </c>
       <c r="E78">
         <v>1174.166666666667</v>
       </c>
       <c r="F78">
-        <v>417.1086956521739</v>
+        <v>426.4255319148936</v>
       </c>
       <c r="G78" t="s">
         <v>82</v>
@@ -2509,16 +2509,16 @@
         <v>120</v>
       </c>
       <c r="C79">
-        <v>2.114035087719298</v>
+        <v>2.078947368421053</v>
       </c>
       <c r="D79">
-        <v>1454.141666666667</v>
+        <v>1349.041666666667</v>
       </c>
       <c r="E79">
-        <v>936.0392156862745</v>
+        <v>881.74</v>
       </c>
       <c r="F79">
-        <v>724.0539419087137</v>
+        <v>683.0590717299579</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2529,19 +2529,19 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>2.111111111111111</v>
+        <v>2.125</v>
       </c>
       <c r="D80">
-        <v>904.4444444444445</v>
+        <v>921.25</v>
       </c>
       <c r="E80">
-        <v>694.6666666666666</v>
+        <v>683.6</v>
       </c>
       <c r="F80">
-        <v>428.421052631579</v>
+        <v>433.5294117647059</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -2555,16 +2555,16 @@
         <v>120</v>
       </c>
       <c r="C81">
-        <v>2.009090909090909</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="D81">
-        <v>1268.529411764706</v>
+        <v>1281.016806722689</v>
       </c>
       <c r="E81">
-        <v>1470.761904761905</v>
+        <v>1405.166666666667</v>
       </c>
       <c r="F81">
-        <v>683.0542986425339</v>
+        <v>692.9136363636363</v>
       </c>
       <c r="G81" t="s">
         <v>85</v>
@@ -2575,19 +2575,19 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>1.870967741935484</v>
+        <v>1.791044776119403</v>
       </c>
       <c r="D82">
-        <v>799.5735294117648</v>
+        <v>773.7916666666666</v>
       </c>
       <c r="E82">
-        <v>871.8787878787879</v>
+        <v>779.1621621621622</v>
       </c>
       <c r="F82">
-        <v>468.7155172413793</v>
+        <v>464.275</v>
       </c>
       <c r="G82" t="s">
         <v>86</v>
@@ -2598,19 +2598,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C83">
-        <v>1.860869565217391</v>
+        <v>1.962616822429907</v>
       </c>
       <c r="D83">
-        <v>1018.75</v>
+        <v>1038.743362831858</v>
       </c>
       <c r="E83">
-        <v>1021.025</v>
+        <v>1010.756097560976</v>
       </c>
       <c r="F83">
-        <v>571.2616822429907</v>
+        <v>558.9428571428572</v>
       </c>
       <c r="G83" t="s">
         <v>87</v>
@@ -2621,19 +2621,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84">
-        <v>1.53448275862069</v>
+        <v>1.508474576271186</v>
       </c>
       <c r="D84">
-        <v>1073.483870967742</v>
+        <v>1078.295081967213</v>
       </c>
       <c r="E84">
-        <v>1022.818181818182</v>
+        <v>991.75</v>
       </c>
       <c r="F84">
-        <v>747.8202247191011</v>
+        <v>739.056179775281</v>
       </c>
       <c r="G84" t="s">
         <v>88</v>
@@ -2647,16 +2647,16 @@
         <v>120</v>
       </c>
       <c r="C85">
-        <v>1.773913043478261</v>
+        <v>1.613207547169811</v>
       </c>
       <c r="D85">
-        <v>1532.808333333333</v>
+        <v>1440.733333333333</v>
       </c>
       <c r="E85">
-        <v>1068.34375</v>
+        <v>1166.418181818182</v>
       </c>
       <c r="F85">
-        <v>901.6519607843137</v>
+        <v>1011.040935672515</v>
       </c>
       <c r="G85" t="s">
         <v>89</v>
@@ -2667,19 +2667,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C86">
-        <v>1.737864077669903</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D86">
-        <v>849.3534482758621</v>
+        <v>847.9495798319327</v>
       </c>
       <c r="E86">
         <v>1192.606060606061</v>
       </c>
       <c r="F86">
-        <v>550.4189944134079</v>
+        <v>542.505376344086</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -2690,19 +2690,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>1.976744186046512</v>
+        <v>1.9625</v>
       </c>
       <c r="D87">
-        <v>841.05</v>
+        <v>848.7032967032967</v>
       </c>
       <c r="E87">
-        <v>957.5</v>
+        <v>972.8571428571429</v>
       </c>
       <c r="F87">
-        <v>494.7352941176471</v>
+        <v>491.9235668789809</v>
       </c>
       <c r="G87" t="s">
         <v>91</v>
@@ -2713,19 +2713,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C88">
-        <v>2.120689655172414</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="D88">
-        <v>791.6507936507936</v>
+        <v>788.0666666666667</v>
       </c>
       <c r="E88">
-        <v>2285.333333333333</v>
+        <v>2285.666666666667</v>
       </c>
       <c r="F88">
-        <v>405.479674796748</v>
+        <v>422.1785714285714</v>
       </c>
       <c r="G88" t="s">
         <v>92</v>
@@ -2736,19 +2736,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1.813725490196078</v>
       </c>
       <c r="D89">
-        <v>910.6567164179105</v>
+        <v>780.375</v>
       </c>
       <c r="E89">
-        <v>911.4146341463414</v>
+        <v>678.3035714285714</v>
       </c>
       <c r="F89">
-        <v>564.9444444444445</v>
+        <v>506.1891891891892</v>
       </c>
       <c r="G89" t="s">
         <v>93</v>
@@ -2762,16 +2762,16 @@
         <v>120</v>
       </c>
       <c r="C90">
-        <v>1.629310344827586</v>
+        <v>1.6875</v>
       </c>
       <c r="D90">
-        <v>990.3583333333333</v>
+        <v>1050.7</v>
       </c>
       <c r="E90">
-        <v>861.578947368421</v>
+        <v>906.448275862069</v>
       </c>
       <c r="F90">
-        <v>628.7989417989418</v>
+        <v>667.1111111111111</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -2782,19 +2782,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C91">
-        <v>3.266666666666667</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="D91">
-        <v>2256.229508196721</v>
+        <v>2278.253968253968</v>
       </c>
       <c r="E91">
         <v>1820.555555555556</v>
       </c>
       <c r="F91">
-        <v>702.1938775510204</v>
+        <v>703.5784313725491</v>
       </c>
       <c r="G91" t="s">
         <v>95</v>
@@ -2808,16 +2808,16 @@
         <v>21</v>
       </c>
       <c r="C92">
-        <v>2.578947368421053</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="D92">
-        <v>816.1904761904761</v>
+        <v>827.952380952381</v>
       </c>
       <c r="E92">
         <v>1721.25</v>
       </c>
       <c r="F92">
-        <v>349.7959183673469</v>
+        <v>369.9361702127659</v>
       </c>
       <c r="G92" t="s">
         <v>96</v>
@@ -2831,16 +2831,16 @@
         <v>120</v>
       </c>
       <c r="C93">
-        <v>1.433333333333333</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="D93">
-        <v>1211.5</v>
+        <v>1269.458333333333</v>
       </c>
       <c r="E93">
-        <v>849.1196581196581</v>
+        <v>867.982905982906</v>
       </c>
       <c r="F93">
-        <v>845.2325581395348</v>
+        <v>870.4857142857143</v>
       </c>
       <c r="G93" t="s">
         <v>97</v>
@@ -2851,19 +2851,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>2.470588235294118</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="D94">
-        <v>1404.411764705882</v>
+        <v>1470</v>
       </c>
       <c r="E94">
-        <v>1805.727272727273</v>
+        <v>1891.3</v>
       </c>
       <c r="F94">
-        <v>568.452380952381</v>
+        <v>580.2631578947369</v>
       </c>
       <c r="G94" t="s">
         <v>98</v>
@@ -2877,16 +2877,16 @@
         <v>120</v>
       </c>
       <c r="C95">
-        <v>3.078947368421053</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>1714.55</v>
+        <v>1689.008333333333</v>
       </c>
       <c r="E95">
-        <v>2257.366666666667</v>
+        <v>2251.030303030303</v>
       </c>
       <c r="F95">
-        <v>586.1709401709402</v>
+        <v>603.2172619047619</v>
       </c>
       <c r="G95" t="s">
         <v>99</v>
@@ -2963,16 +2963,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D99">
-        <v>812.5</v>
+        <v>1041.666666666667</v>
+      </c>
+      <c r="E99">
+        <v>2000</v>
       </c>
       <c r="F99">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="G99" t="s">
         <v>103</v>
@@ -2983,19 +2986,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E100">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="F100">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="G100" t="s">
         <v>104</v>
@@ -3006,19 +3009,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101">
-        <v>2.038461538461538</v>
+        <v>2.04</v>
       </c>
       <c r="D101">
-        <v>1283.833333333333</v>
+        <v>1317.931034482759</v>
       </c>
       <c r="E101">
-        <v>1168.142857142857</v>
+        <v>1256.785714285714</v>
       </c>
       <c r="F101">
-        <v>726.6981132075472</v>
+        <v>749.4117647058823</v>
       </c>
       <c r="G101" t="s">
         <v>105</v>
@@ -3029,19 +3032,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C102">
-        <v>1.232876712328767</v>
+        <v>1.25</v>
       </c>
       <c r="D102">
-        <v>752.418918918919</v>
+        <v>749.7142857142857</v>
       </c>
       <c r="E102">
-        <v>749.5263157894736</v>
+        <v>790.0625</v>
       </c>
       <c r="F102">
-        <v>618.6555555555556</v>
+        <v>607.6631578947369</v>
       </c>
       <c r="G102" t="s">
         <v>106</v>
@@ -3095,19 +3098,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D105">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="E105">
-        <v>855</v>
+        <v>818.75</v>
       </c>
       <c r="F105">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="G105" t="s">
         <v>109</v>
@@ -3118,19 +3121,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>2.363636363636364</v>
+        <v>2.4</v>
       </c>
       <c r="D106">
-        <v>711.3636363636364</v>
+        <v>712.5</v>
       </c>
       <c r="E106">
         <v>1200</v>
       </c>
       <c r="F106">
-        <v>300.9615384615385</v>
+        <v>296.875</v>
       </c>
       <c r="G106" t="s">
         <v>110</v>
@@ -3144,16 +3147,16 @@
         <v>15</v>
       </c>
       <c r="C107">
-        <v>1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D107">
-        <v>783.2142857142857</v>
+        <v>777.1428571428571</v>
       </c>
       <c r="E107">
-        <v>950</v>
+        <v>897</v>
       </c>
       <c r="F107">
-        <v>498.4090909090909</v>
+        <v>544</v>
       </c>
       <c r="G107" t="s">
         <v>111</v>
@@ -3164,19 +3167,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D108">
-        <v>1242.5</v>
+        <v>1101.666666666667</v>
       </c>
       <c r="E108">
-        <v>1564</v>
+        <v>1875</v>
       </c>
       <c r="F108">
-        <v>828.3333333333334</v>
+        <v>472.1428571428572</v>
       </c>
       <c r="G108" t="s">
         <v>112</v>
@@ -3190,16 +3193,16 @@
         <v>47</v>
       </c>
       <c r="C109">
-        <v>1.91304347826087</v>
+        <v>1.891304347826087</v>
       </c>
       <c r="D109">
-        <v>815.7608695652174</v>
+        <v>814.3478260869565</v>
       </c>
       <c r="E109">
-        <v>1102.6</v>
+        <v>1064.8</v>
       </c>
       <c r="F109">
-        <v>426.4204545454546</v>
+        <v>430.5747126436781</v>
       </c>
       <c r="G109" t="s">
         <v>113</v>
@@ -3210,19 +3213,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>1.560975609756098</v>
+        <v>1.378378378378378</v>
       </c>
       <c r="D110">
-        <v>1568.095238095238</v>
+        <v>1536.315789473684</v>
       </c>
       <c r="E110">
-        <v>973.8857142857142</v>
+        <v>1005.342105263158</v>
       </c>
       <c r="F110">
-        <v>1029.0625</v>
+        <v>1144.705882352941</v>
       </c>
       <c r="G110" t="s">
         <v>114</v>
@@ -3233,19 +3236,19 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111">
-        <v>2.181818181818182</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D111">
-        <v>718.9230769230769</v>
+        <v>702.9285714285714</v>
       </c>
       <c r="E111">
         <v>933.3333333333334</v>
       </c>
       <c r="F111">
-        <v>389.4166666666667</v>
+        <v>378.5</v>
       </c>
       <c r="G111" t="s">
         <v>115</v>
@@ -3256,19 +3259,19 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C112">
-        <v>2.282051282051282</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="D112">
-        <v>771.8409090909091</v>
+        <v>756.8775510204082</v>
       </c>
       <c r="E112">
-        <v>995.6666666666666</v>
+        <v>1018.571428571429</v>
       </c>
       <c r="F112">
-        <v>381.5842696629214</v>
+        <v>378.4387755102041</v>
       </c>
       <c r="G112" t="s">
         <v>116</v>
@@ -3279,19 +3282,19 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>522.5</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="E113">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="F113">
-        <v>232.2222222222222</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="G113" t="s">
         <v>117</v>
@@ -3302,19 +3305,19 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114">
-        <v>1.788732394366197</v>
+        <v>1.676923076923077</v>
       </c>
       <c r="D114">
-        <v>1598.866666666667</v>
+        <v>1586.014492753623</v>
       </c>
       <c r="E114">
-        <v>1071.948275862069</v>
+        <v>1080.55</v>
       </c>
       <c r="F114">
-        <v>944.2125984251968</v>
+        <v>1003.990825688073</v>
       </c>
       <c r="G114" t="s">
         <v>118</v>
@@ -3325,19 +3328,19 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C115">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="D115">
-        <v>777.9166666666666</v>
+        <v>785.5</v>
       </c>
       <c r="E115">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="F115">
-        <v>424.3181818181818</v>
+        <v>436.3888888888889</v>
       </c>
       <c r="G115" t="s">
         <v>119</v>
